--- a/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,197 +662,209 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>88691200</v>
+        <v>98309000</v>
       </c>
       <c r="E8" s="3">
-        <v>86836700</v>
+        <v>86515300</v>
       </c>
       <c r="F8" s="3">
-        <v>84802600</v>
+        <v>84706300</v>
       </c>
       <c r="G8" s="3">
-        <v>92351600</v>
+        <v>82722100</v>
       </c>
       <c r="H8" s="3">
-        <v>87103800</v>
+        <v>90724500</v>
       </c>
       <c r="I8" s="3">
-        <v>82785500</v>
+        <v>84966900</v>
       </c>
       <c r="J8" s="3">
+        <v>80754500</v>
+      </c>
+      <c r="K8" s="3">
         <v>77860000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>82840400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71503200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71585600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>73249100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67838200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>59825500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>60853300</v>
+        <v>66845900</v>
       </c>
       <c r="E9" s="3">
-        <v>57648500</v>
+        <v>59360400</v>
       </c>
       <c r="F9" s="3">
-        <v>56576300</v>
+        <v>56234200</v>
       </c>
       <c r="G9" s="3">
-        <v>62612800</v>
+        <v>55188300</v>
       </c>
       <c r="H9" s="3">
-        <v>55596300</v>
+        <v>61615600</v>
       </c>
       <c r="I9" s="3">
-        <v>52588700</v>
+        <v>54232400</v>
       </c>
       <c r="J9" s="3">
+        <v>51298600</v>
+      </c>
+      <c r="K9" s="3">
         <v>51586700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51639600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45592700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>46653400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46927400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40599300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36726700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27837800</v>
+        <v>31463100</v>
       </c>
       <c r="E10" s="3">
-        <v>29188100</v>
+        <v>27154900</v>
       </c>
       <c r="F10" s="3">
-        <v>28226200</v>
+        <v>28472100</v>
       </c>
       <c r="G10" s="3">
-        <v>29738800</v>
+        <v>27533800</v>
       </c>
       <c r="H10" s="3">
-        <v>31507500</v>
+        <v>29108900</v>
       </c>
       <c r="I10" s="3">
-        <v>30196800</v>
+        <v>30734500</v>
       </c>
       <c r="J10" s="3">
+        <v>29456000</v>
+      </c>
+      <c r="K10" s="3">
         <v>26273300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31200800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25910500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24932100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26321700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>27238900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23098800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,52 +881,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>634900</v>
+        <v>571500</v>
       </c>
       <c r="E12" s="3">
-        <v>870200</v>
+        <v>619300</v>
       </c>
       <c r="F12" s="3">
-        <v>889900</v>
+        <v>848900</v>
       </c>
       <c r="G12" s="3">
-        <v>388700</v>
+        <v>868000</v>
       </c>
       <c r="H12" s="3">
-        <v>754400</v>
+        <v>379200</v>
       </c>
       <c r="I12" s="3">
-        <v>654400</v>
+        <v>735900</v>
       </c>
       <c r="J12" s="3">
+        <v>638400</v>
+      </c>
+      <c r="K12" s="3">
         <v>889300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1494900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1031700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>339700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>678200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>403100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>986500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +973,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1001,52 +1020,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>8088500</v>
+        <v>8436900</v>
       </c>
       <c r="E15" s="3">
-        <v>7690100</v>
+        <v>7890100</v>
       </c>
       <c r="F15" s="3">
-        <v>7892800</v>
+        <v>7501400</v>
       </c>
       <c r="G15" s="3">
-        <v>9397400</v>
+        <v>7699200</v>
       </c>
       <c r="H15" s="3">
-        <v>7481800</v>
+        <v>9174700</v>
       </c>
       <c r="I15" s="3">
-        <v>9053000</v>
+        <v>7298200</v>
       </c>
       <c r="J15" s="3">
+        <v>8830900</v>
+      </c>
+      <c r="K15" s="3">
         <v>7386800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10734300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7262600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8584000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8647900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8956600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7355100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1060,96 +1085,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>85144300</v>
+        <v>94617000</v>
       </c>
       <c r="E17" s="3">
-        <v>80921600</v>
+        <v>83055500</v>
       </c>
       <c r="F17" s="3">
-        <v>80578900</v>
+        <v>78936300</v>
       </c>
       <c r="G17" s="3">
-        <v>90756300</v>
+        <v>78602100</v>
       </c>
       <c r="H17" s="3">
-        <v>80678900</v>
+        <v>89214400</v>
       </c>
       <c r="I17" s="3">
-        <v>77141900</v>
+        <v>78699600</v>
       </c>
       <c r="J17" s="3">
+        <v>75249400</v>
+      </c>
+      <c r="K17" s="3">
         <v>73836800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>80708900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>68998500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>69092100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70328100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65639200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58229400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3546800</v>
+        <v>3692000</v>
       </c>
       <c r="E18" s="3">
-        <v>5915100</v>
+        <v>3459800</v>
       </c>
       <c r="F18" s="3">
-        <v>4223600</v>
+        <v>5770000</v>
       </c>
       <c r="G18" s="3">
-        <v>1595400</v>
+        <v>4120000</v>
       </c>
       <c r="H18" s="3">
-        <v>6424900</v>
+        <v>1510000</v>
       </c>
       <c r="I18" s="3">
-        <v>5643600</v>
+        <v>6267300</v>
       </c>
       <c r="J18" s="3">
+        <v>5505200</v>
+      </c>
+      <c r="K18" s="3">
         <v>4023200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2131500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2504700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2493400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2921000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2198900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1166,228 +1198,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>523700</v>
+        <v>266100</v>
       </c>
       <c r="E20" s="3">
-        <v>510400</v>
+        <v>510900</v>
       </c>
       <c r="F20" s="3">
-        <v>395000</v>
+        <v>497800</v>
       </c>
       <c r="G20" s="3">
-        <v>1184400</v>
+        <v>385300</v>
       </c>
       <c r="H20" s="3">
-        <v>386800</v>
+        <v>1153100</v>
       </c>
       <c r="I20" s="3">
-        <v>540200</v>
+        <v>377300</v>
       </c>
       <c r="J20" s="3">
+        <v>526900</v>
+      </c>
+      <c r="K20" s="3">
         <v>264900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>570200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>186000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>213000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>184800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>255200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>306400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>12159100</v>
+        <v>12395000</v>
       </c>
       <c r="E21" s="3">
-        <v>14115600</v>
+        <v>11860800</v>
       </c>
       <c r="F21" s="3">
-        <v>12511500</v>
+        <v>13769300</v>
       </c>
       <c r="G21" s="3">
-        <v>28575200</v>
+        <v>12204500</v>
       </c>
       <c r="H21" s="3">
-        <v>-2146300</v>
+        <v>11837800</v>
       </c>
       <c r="I21" s="3">
-        <v>15236900</v>
+        <v>13942800</v>
       </c>
       <c r="J21" s="3">
+        <v>14863100</v>
+      </c>
+      <c r="K21" s="3">
         <v>11674800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13416900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9972400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11290400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11753600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11410700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9257600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1068900</v>
+        <v>1086400</v>
       </c>
       <c r="E22" s="3">
-        <v>1089700</v>
+        <v>1042700</v>
       </c>
       <c r="F22" s="3">
-        <v>1090700</v>
+        <v>1063000</v>
       </c>
       <c r="G22" s="3">
-        <v>812400</v>
+        <v>1064000</v>
       </c>
       <c r="H22" s="3">
-        <v>813500</v>
+        <v>804400</v>
       </c>
       <c r="I22" s="3">
-        <v>819000</v>
+        <v>793600</v>
       </c>
       <c r="J22" s="3">
+        <v>798900</v>
+      </c>
+      <c r="K22" s="3">
         <v>802500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>825000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>818800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>813300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>868500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>752200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>908200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3001600</v>
+        <v>2871700</v>
       </c>
       <c r="E23" s="3">
-        <v>5335700</v>
+        <v>2928000</v>
       </c>
       <c r="F23" s="3">
-        <v>3527900</v>
+        <v>5204800</v>
       </c>
       <c r="G23" s="3">
-        <v>1967400</v>
+        <v>3441300</v>
       </c>
       <c r="H23" s="3">
-        <v>5998200</v>
+        <v>1858800</v>
       </c>
       <c r="I23" s="3">
-        <v>5364900</v>
+        <v>5851000</v>
       </c>
       <c r="J23" s="3">
+        <v>5233200</v>
+      </c>
+      <c r="K23" s="3">
         <v>3485600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1876600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1871900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1893100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2237300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1702000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>994300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>944500</v>
+        <v>976600</v>
       </c>
       <c r="E24" s="3">
-        <v>2022900</v>
+        <v>921400</v>
       </c>
       <c r="F24" s="3">
-        <v>1225200</v>
+        <v>1973300</v>
       </c>
       <c r="G24" s="3">
-        <v>663200</v>
+        <v>1195100</v>
       </c>
       <c r="H24" s="3">
-        <v>2175300</v>
+        <v>638500</v>
       </c>
       <c r="I24" s="3">
-        <v>2006700</v>
+        <v>2121900</v>
       </c>
       <c r="J24" s="3">
+        <v>1957500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1302900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>852800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>546400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>358000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>661300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>454500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>428700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1430,96 +1478,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2057100</v>
+        <v>1895100</v>
       </c>
       <c r="E26" s="3">
-        <v>3312800</v>
+        <v>2006600</v>
       </c>
       <c r="F26" s="3">
-        <v>2302700</v>
+        <v>3231500</v>
       </c>
       <c r="G26" s="3">
-        <v>1304200</v>
+        <v>2246200</v>
       </c>
       <c r="H26" s="3">
-        <v>3822900</v>
+        <v>1220300</v>
       </c>
       <c r="I26" s="3">
-        <v>3358100</v>
+        <v>3729100</v>
       </c>
       <c r="J26" s="3">
+        <v>3275800</v>
+      </c>
+      <c r="K26" s="3">
         <v>2182600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1023900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1325400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1535200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1576000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1247500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>565600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1266900</v>
+        <v>1179700</v>
       </c>
       <c r="E27" s="3">
-        <v>2606700</v>
+        <v>1235800</v>
       </c>
       <c r="F27" s="3">
-        <v>1471400</v>
+        <v>2542800</v>
       </c>
       <c r="G27" s="3">
-        <v>640900</v>
+        <v>1435300</v>
       </c>
       <c r="H27" s="3">
-        <v>3044600</v>
+        <v>612300</v>
       </c>
       <c r="I27" s="3">
-        <v>2480500</v>
+        <v>2970000</v>
       </c>
       <c r="J27" s="3">
+        <v>2419600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1456800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>806200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>696000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1035200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>846100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>890900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1562,8 +1619,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1606,8 +1666,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1650,8 +1713,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1694,96 +1760,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-523700</v>
+        <v>-266100</v>
       </c>
       <c r="E32" s="3">
-        <v>-510400</v>
+        <v>-510900</v>
       </c>
       <c r="F32" s="3">
-        <v>-395000</v>
+        <v>-497800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1184400</v>
+        <v>-385300</v>
       </c>
       <c r="H32" s="3">
-        <v>-386800</v>
+        <v>-1153100</v>
       </c>
       <c r="I32" s="3">
-        <v>-540200</v>
+        <v>-377300</v>
       </c>
       <c r="J32" s="3">
+        <v>-526900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-264900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-570200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-186000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-213000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-184800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-255200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-306400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1266900</v>
+        <v>1179700</v>
       </c>
       <c r="E33" s="3">
-        <v>2606700</v>
+        <v>1235800</v>
       </c>
       <c r="F33" s="3">
-        <v>1471400</v>
+        <v>2542800</v>
       </c>
       <c r="G33" s="3">
-        <v>640900</v>
+        <v>1435300</v>
       </c>
       <c r="H33" s="3">
-        <v>3044600</v>
+        <v>612300</v>
       </c>
       <c r="I33" s="3">
-        <v>2480500</v>
+        <v>2970000</v>
       </c>
       <c r="J33" s="3">
+        <v>2419600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1456800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>806200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>696000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1035200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>846100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>890900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1826,101 +1901,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1266900</v>
+        <v>1179700</v>
       </c>
       <c r="E35" s="3">
-        <v>2606700</v>
+        <v>1235800</v>
       </c>
       <c r="F35" s="3">
-        <v>1471400</v>
+        <v>2542800</v>
       </c>
       <c r="G35" s="3">
-        <v>640900</v>
+        <v>1435300</v>
       </c>
       <c r="H35" s="3">
-        <v>3044600</v>
+        <v>612300</v>
       </c>
       <c r="I35" s="3">
-        <v>2480500</v>
+        <v>2970000</v>
       </c>
       <c r="J35" s="3">
+        <v>2419600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1456800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>806200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>696000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1035200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>846100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>890900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1937,8 +2021,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1955,404 +2040,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>16007900</v>
+        <v>12093800</v>
       </c>
       <c r="E41" s="3">
-        <v>13005000</v>
+        <v>15615200</v>
       </c>
       <c r="F41" s="3">
-        <v>16645700</v>
+        <v>12686000</v>
       </c>
       <c r="G41" s="3">
-        <v>13700800</v>
+        <v>16237300</v>
       </c>
       <c r="H41" s="3">
-        <v>22161900</v>
+        <v>12030100</v>
       </c>
       <c r="I41" s="3">
-        <v>16855600</v>
+        <v>21618200</v>
       </c>
       <c r="J41" s="3">
+        <v>16442100</v>
+      </c>
+      <c r="K41" s="3">
         <v>18016800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18221300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24510100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16998600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14294600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14242100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17443900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>5182900</v>
+        <v>3394900</v>
       </c>
       <c r="E42" s="3">
-        <v>3186000</v>
+        <v>5055800</v>
       </c>
       <c r="F42" s="3">
-        <v>1157500</v>
+        <v>3107800</v>
       </c>
       <c r="G42" s="3">
-        <v>1368100</v>
+        <v>1129100</v>
       </c>
       <c r="H42" s="3">
-        <v>1783000</v>
+        <v>1334500</v>
       </c>
       <c r="I42" s="3">
-        <v>1588600</v>
+        <v>1739300</v>
       </c>
       <c r="J42" s="3">
+        <v>1549600</v>
+      </c>
+      <c r="K42" s="3">
         <v>121800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1980400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>640800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>966700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>700300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>99800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>12518200</v>
+        <v>9965200</v>
       </c>
       <c r="E43" s="3">
-        <v>11874400</v>
+        <v>12211100</v>
       </c>
       <c r="F43" s="3">
-        <v>13140000</v>
+        <v>11583100</v>
       </c>
       <c r="G43" s="3">
-        <v>13378800</v>
+        <v>12817700</v>
       </c>
       <c r="H43" s="3">
-        <v>12599400</v>
+        <v>10613200</v>
       </c>
       <c r="I43" s="3">
-        <v>12513500</v>
+        <v>12290300</v>
       </c>
       <c r="J43" s="3">
+        <v>12206500</v>
+      </c>
+      <c r="K43" s="3">
         <v>13386500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13192600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11651700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11264900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11134500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10442700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10267900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>24100800</v>
+        <v>25461700</v>
       </c>
       <c r="E44" s="3">
-        <v>25161200</v>
+        <v>23509500</v>
       </c>
       <c r="F44" s="3">
-        <v>24384000</v>
+        <v>24543900</v>
       </c>
       <c r="G44" s="3">
-        <v>27997400</v>
+        <v>23785800</v>
       </c>
       <c r="H44" s="3">
-        <v>25388800</v>
+        <v>24853700</v>
       </c>
       <c r="I44" s="3">
-        <v>22929300</v>
+        <v>24765900</v>
       </c>
       <c r="J44" s="3">
+        <v>22366700</v>
+      </c>
+      <c r="K44" s="3">
         <v>20906000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21470300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20192200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20663100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>21943200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21358600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>19165300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>16913100</v>
+        <v>14433700</v>
       </c>
       <c r="E45" s="3">
-        <v>15843600</v>
+        <v>16498200</v>
       </c>
       <c r="F45" s="3">
-        <v>16289100</v>
+        <v>15454900</v>
       </c>
       <c r="G45" s="3">
-        <v>20513300</v>
+        <v>15889500</v>
       </c>
       <c r="H45" s="3">
-        <v>14815500</v>
+        <v>12504700</v>
       </c>
       <c r="I45" s="3">
-        <v>12760100</v>
+        <v>14452000</v>
       </c>
       <c r="J45" s="3">
+        <v>12447100</v>
+      </c>
+      <c r="K45" s="3">
         <v>12031700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8233600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14302700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14036300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13055200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9362300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13363900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>74722900</v>
+        <v>65349100</v>
       </c>
       <c r="E46" s="3">
-        <v>69070300</v>
+        <v>72889800</v>
       </c>
       <c r="F46" s="3">
-        <v>71616300</v>
+        <v>67375800</v>
       </c>
       <c r="G46" s="3">
-        <v>62878800</v>
+        <v>69859400</v>
       </c>
       <c r="H46" s="3">
-        <v>76748600</v>
+        <v>61336200</v>
       </c>
       <c r="I46" s="3">
-        <v>66647000</v>
+        <v>74865700</v>
       </c>
       <c r="J46" s="3">
+        <v>65012000</v>
+      </c>
+      <c r="K46" s="3">
         <v>64462800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>63098300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>71297500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63929700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>61127700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>55505500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>60368300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>14339800</v>
+        <v>14432000</v>
       </c>
       <c r="E47" s="3">
-        <v>13611200</v>
+        <v>13988000</v>
       </c>
       <c r="F47" s="3">
-        <v>13735900</v>
+        <v>13277300</v>
       </c>
       <c r="G47" s="3">
-        <v>26313200</v>
+        <v>13398900</v>
       </c>
       <c r="H47" s="3">
-        <v>12935400</v>
+        <v>13044400</v>
       </c>
       <c r="I47" s="3">
-        <v>12612200</v>
+        <v>12618100</v>
       </c>
       <c r="J47" s="3">
+        <v>12302800</v>
+      </c>
+      <c r="K47" s="3">
         <v>12443200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12329300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12628400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12429500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12305400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11776600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12256300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>279816400</v>
+        <v>285232900</v>
       </c>
       <c r="E48" s="3">
-        <v>277231800</v>
+        <v>272951700</v>
       </c>
       <c r="F48" s="3">
-        <v>274997800</v>
+        <v>270430400</v>
       </c>
       <c r="G48" s="3">
-        <v>245265300</v>
+        <v>268251300</v>
       </c>
       <c r="H48" s="3">
-        <v>237953300</v>
+        <v>239245900</v>
       </c>
       <c r="I48" s="3">
-        <v>237838000</v>
+        <v>232115500</v>
       </c>
       <c r="J48" s="3">
+        <v>232003200</v>
+      </c>
+      <c r="K48" s="3">
         <v>239610200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>252714500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>249594500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>250351300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>252390500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>252982000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>250101600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>14900700</v>
+        <v>14088800</v>
       </c>
       <c r="E49" s="3">
-        <v>14637300</v>
+        <v>14535100</v>
       </c>
       <c r="F49" s="3">
-        <v>14017000</v>
+        <v>14278200</v>
       </c>
       <c r="G49" s="3">
-        <v>17152300</v>
+        <v>13673100</v>
       </c>
       <c r="H49" s="3">
-        <v>14852300</v>
+        <v>13759300</v>
       </c>
       <c r="I49" s="3">
-        <v>14495800</v>
+        <v>14488000</v>
       </c>
       <c r="J49" s="3">
+        <v>14140200</v>
+      </c>
+      <c r="K49" s="3">
         <v>13285000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13793400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15283600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15246000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15119300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14942900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14515700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2395,8 +2508,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2439,52 +2555,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3748400</v>
+        <v>3395300</v>
       </c>
       <c r="E52" s="3">
-        <v>3876500</v>
+        <v>3656500</v>
       </c>
       <c r="F52" s="3">
-        <v>3582300</v>
+        <v>3781400</v>
       </c>
       <c r="G52" s="3">
-        <v>23247600</v>
+        <v>3494400</v>
       </c>
       <c r="H52" s="3">
-        <v>13809200</v>
+        <v>14239300</v>
       </c>
       <c r="I52" s="3">
-        <v>13912300</v>
+        <v>13470500</v>
       </c>
       <c r="J52" s="3">
+        <v>13570900</v>
+      </c>
+      <c r="K52" s="3">
         <v>14205500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14933000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14179100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14180400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13734900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13337800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12619700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2527,52 +2649,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>387528300</v>
+        <v>382498100</v>
       </c>
       <c r="E54" s="3">
-        <v>378427100</v>
+        <v>378021000</v>
       </c>
       <c r="F54" s="3">
-        <v>377949300</v>
+        <v>369143100</v>
       </c>
       <c r="G54" s="3">
-        <v>350258900</v>
+        <v>368677000</v>
       </c>
       <c r="H54" s="3">
-        <v>356298900</v>
+        <v>341625100</v>
       </c>
       <c r="I54" s="3">
-        <v>345505300</v>
+        <v>347557800</v>
       </c>
       <c r="J54" s="3">
+        <v>337029000</v>
+      </c>
+      <c r="K54" s="3">
         <v>344006600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>356868500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>362983000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>356137000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>354677800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>348545000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>349861500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2589,8 +2717,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2607,272 +2736,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>48340400</v>
+        <v>45950800</v>
       </c>
       <c r="E57" s="3">
-        <v>44777500</v>
+        <v>47154500</v>
       </c>
       <c r="F57" s="3">
-        <v>41224000</v>
+        <v>43679000</v>
       </c>
       <c r="G57" s="3">
-        <v>35392400</v>
+        <v>40212600</v>
       </c>
       <c r="H57" s="3">
-        <v>48080600</v>
+        <v>41966700</v>
       </c>
       <c r="I57" s="3">
-        <v>43616300</v>
+        <v>46901000</v>
       </c>
       <c r="J57" s="3">
+        <v>42546300</v>
+      </c>
+      <c r="K57" s="3">
         <v>39314200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51026200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55311800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49480600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47220200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45182200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48224900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>25420400</v>
+        <v>25645300</v>
       </c>
       <c r="E58" s="3">
-        <v>24027700</v>
+        <v>24796700</v>
       </c>
       <c r="F58" s="3">
-        <v>19440100</v>
+        <v>23438300</v>
       </c>
       <c r="G58" s="3">
-        <v>21992200</v>
+        <v>18963200</v>
       </c>
       <c r="H58" s="3">
-        <v>21780600</v>
+        <v>20315200</v>
       </c>
       <c r="I58" s="3">
-        <v>21246900</v>
+        <v>21246200</v>
       </c>
       <c r="J58" s="3">
+        <v>20725700</v>
+      </c>
+      <c r="K58" s="3">
         <v>22920400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26033600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>29375700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28622100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>29476900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20852300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20508000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>19286300</v>
+        <v>20976100</v>
       </c>
       <c r="E59" s="3">
-        <v>17614900</v>
+        <v>18813100</v>
       </c>
       <c r="F59" s="3">
-        <v>20785700</v>
+        <v>17182700</v>
       </c>
       <c r="G59" s="3">
-        <v>39241500</v>
+        <v>20275700</v>
       </c>
       <c r="H59" s="3">
-        <v>19645700</v>
+        <v>21194400</v>
       </c>
       <c r="I59" s="3">
-        <v>16329200</v>
+        <v>19163700</v>
       </c>
       <c r="J59" s="3">
+        <v>15928600</v>
+      </c>
+      <c r="K59" s="3">
         <v>16735100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8523300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5901100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5291000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6047400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6573300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5292100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>93047100</v>
+        <v>92572200</v>
       </c>
       <c r="E60" s="3">
-        <v>86420200</v>
+        <v>90764300</v>
       </c>
       <c r="F60" s="3">
-        <v>81449700</v>
+        <v>84300000</v>
       </c>
       <c r="G60" s="3">
-        <v>85575800</v>
+        <v>79451500</v>
       </c>
       <c r="H60" s="3">
-        <v>89506800</v>
+        <v>83476300</v>
       </c>
       <c r="I60" s="3">
-        <v>81192500</v>
+        <v>87311000</v>
       </c>
       <c r="J60" s="3">
+        <v>79200600</v>
+      </c>
+      <c r="K60" s="3">
         <v>78969700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85583100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90588600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>83393700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>82744500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>72607800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>74024900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>64673300</v>
+        <v>63685300</v>
       </c>
       <c r="E61" s="3">
-        <v>63284400</v>
+        <v>63086700</v>
       </c>
       <c r="F61" s="3">
-        <v>68040500</v>
+        <v>61731900</v>
       </c>
       <c r="G61" s="3">
-        <v>38656700</v>
+        <v>66371300</v>
       </c>
       <c r="H61" s="3">
-        <v>40303100</v>
+        <v>37708300</v>
       </c>
       <c r="I61" s="3">
-        <v>40864400</v>
+        <v>39314300</v>
       </c>
       <c r="J61" s="3">
+        <v>39861900</v>
+      </c>
+      <c r="K61" s="3">
         <v>42939800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43017800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44511900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44551300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>43683400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>54229000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>55836500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>24256000</v>
+        <v>24095700</v>
       </c>
       <c r="E62" s="3">
-        <v>24143700</v>
+        <v>23660900</v>
       </c>
       <c r="F62" s="3">
-        <v>23796400</v>
+        <v>23551300</v>
       </c>
       <c r="G62" s="3">
-        <v>45185600</v>
+        <v>23212600</v>
       </c>
       <c r="H62" s="3">
-        <v>23470000</v>
+        <v>23252100</v>
       </c>
       <c r="I62" s="3">
-        <v>22576900</v>
+        <v>22894200</v>
       </c>
       <c r="J62" s="3">
+        <v>22023000</v>
+      </c>
+      <c r="K62" s="3">
         <v>22429900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23265900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23135000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22808800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22540100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22071300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21586900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2915,8 +3063,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2959,8 +3110,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3003,52 +3157,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>211728700</v>
+        <v>210325400</v>
       </c>
       <c r="E66" s="3">
-        <v>202422400</v>
+        <v>206534400</v>
       </c>
       <c r="F66" s="3">
-        <v>202058000</v>
+        <v>197456400</v>
       </c>
       <c r="G66" s="3">
-        <v>176064600</v>
+        <v>197100900</v>
       </c>
       <c r="H66" s="3">
-        <v>181619400</v>
+        <v>171744100</v>
       </c>
       <c r="I66" s="3">
-        <v>172151800</v>
+        <v>177163700</v>
       </c>
       <c r="J66" s="3">
+        <v>167928300</v>
+      </c>
+      <c r="K66" s="3">
         <v>171721000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>179738200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>185934900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>178388700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>176946600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>175625200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>177976400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3065,8 +3225,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3109,8 +3270,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3153,8 +3317,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3197,8 +3364,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3241,52 +3411,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>149539700</v>
+        <v>146557000</v>
       </c>
       <c r="E72" s="3">
-        <v>149744800</v>
+        <v>145871100</v>
       </c>
       <c r="F72" s="3">
-        <v>149631400</v>
+        <v>146071100</v>
       </c>
       <c r="G72" s="3">
-        <v>286166100</v>
+        <v>145960500</v>
       </c>
       <c r="H72" s="3">
-        <v>148419600</v>
+        <v>172095400</v>
       </c>
       <c r="I72" s="3">
-        <v>147093700</v>
+        <v>144778400</v>
       </c>
       <c r="J72" s="3">
+        <v>143485000</v>
+      </c>
+      <c r="K72" s="3">
         <v>146025800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>149968200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>149885900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>150586100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>150569100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>131176300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>145268400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3329,8 +3505,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3373,8 +3552,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3417,52 +3599,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>175799600</v>
+        <v>172172600</v>
       </c>
       <c r="E76" s="3">
-        <v>176004600</v>
+        <v>171486700</v>
       </c>
       <c r="F76" s="3">
-        <v>175891300</v>
+        <v>171686700</v>
       </c>
       <c r="G76" s="3">
-        <v>174194300</v>
+        <v>171576100</v>
       </c>
       <c r="H76" s="3">
-        <v>174679400</v>
+        <v>169881100</v>
       </c>
       <c r="I76" s="3">
-        <v>173353500</v>
+        <v>170394000</v>
       </c>
       <c r="J76" s="3">
+        <v>169100700</v>
+      </c>
+      <c r="K76" s="3">
         <v>172285600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>177130300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>177048100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>177748300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>177731200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>172919800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>171885200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3505,101 +3693,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1266900</v>
+        <v>1179700</v>
       </c>
       <c r="E81" s="3">
-        <v>2606700</v>
+        <v>1235800</v>
       </c>
       <c r="F81" s="3">
-        <v>1471400</v>
+        <v>2542800</v>
       </c>
       <c r="G81" s="3">
-        <v>640900</v>
+        <v>1435300</v>
       </c>
       <c r="H81" s="3">
-        <v>3044600</v>
+        <v>612300</v>
       </c>
       <c r="I81" s="3">
-        <v>2480500</v>
+        <v>2970000</v>
       </c>
       <c r="J81" s="3">
+        <v>2419600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1456800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>806200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>696000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1035200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>846100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>890900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3616,52 +3813,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>8088500</v>
+        <v>8436900</v>
       </c>
       <c r="E83" s="3">
-        <v>7690100</v>
+        <v>7890100</v>
       </c>
       <c r="F83" s="3">
-        <v>7892800</v>
+        <v>7501400</v>
       </c>
       <c r="G83" s="3">
-        <v>9397400</v>
+        <v>7699200</v>
       </c>
       <c r="H83" s="3">
-        <v>7440000</v>
+        <v>9174700</v>
       </c>
       <c r="I83" s="3">
-        <v>9053000</v>
+        <v>7298200</v>
       </c>
       <c r="J83" s="3">
+        <v>8830900</v>
+      </c>
+      <c r="K83" s="3">
         <v>7386800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10715200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7281700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8584000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8647900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8956600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7355100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3704,8 +3905,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3748,8 +3952,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3792,8 +3999,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3836,8 +4046,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3880,52 +4093,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>15061200</v>
+        <v>16825200</v>
       </c>
       <c r="E89" s="3">
-        <v>10388400</v>
+        <v>14691700</v>
       </c>
       <c r="F89" s="3">
-        <v>8898900</v>
+        <v>10133500</v>
       </c>
       <c r="G89" s="3">
-        <v>13273500</v>
+        <v>8680600</v>
       </c>
       <c r="H89" s="3">
-        <v>15953100</v>
+        <v>13184500</v>
       </c>
       <c r="I89" s="3">
-        <v>12348600</v>
+        <v>15561700</v>
       </c>
       <c r="J89" s="3">
+        <v>12045700</v>
+      </c>
+      <c r="K89" s="3">
         <v>8867400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18159400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14761200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10662500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10832100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10799900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11499900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3942,52 +4161,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-7921800</v>
+        <v>-20339300</v>
       </c>
       <c r="E91" s="3">
-        <v>-8638900</v>
+        <v>-7727500</v>
       </c>
       <c r="F91" s="3">
-        <v>-8457000</v>
+        <v>-8427000</v>
       </c>
       <c r="G91" s="3">
-        <v>-17094200</v>
+        <v>-8249500</v>
       </c>
       <c r="H91" s="3">
-        <v>-7223400</v>
+        <v>-16674800</v>
       </c>
       <c r="I91" s="3">
-        <v>-5827600</v>
+        <v>-7046100</v>
       </c>
       <c r="J91" s="3">
+        <v>-5684600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8195600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15536600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6542700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5956400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5985700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9864700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4758300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4030,8 +4253,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4074,52 +4300,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-11107900</v>
+        <v>-17573000</v>
       </c>
       <c r="E94" s="3">
-        <v>-10232700</v>
+        <v>-10835400</v>
       </c>
       <c r="F94" s="3">
-        <v>-8415800</v>
+        <v>-9981700</v>
       </c>
       <c r="G94" s="3">
-        <v>-16355000</v>
+        <v>-8209400</v>
       </c>
       <c r="H94" s="3">
-        <v>-7784200</v>
+        <v>-15953800</v>
       </c>
       <c r="I94" s="3">
-        <v>-7260400</v>
+        <v>-7593200</v>
       </c>
       <c r="J94" s="3">
+        <v>-7082300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7014600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16897700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6297800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6228600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6720600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9875000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3600000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4136,52 +4368,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2332100</v>
+        <v>-1831100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2274900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1749600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-2065300</v>
+        <v>-1706700</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-2014600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1808700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1068100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-552900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-661900</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4224,8 +4460,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4268,8 +4507,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4312,136 +4554,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1317700</v>
+        <v>-2536800</v>
       </c>
       <c r="E100" s="3">
-        <v>-4020300</v>
+        <v>-1285400</v>
       </c>
       <c r="F100" s="3">
-        <v>4025000</v>
+        <v>-3921700</v>
       </c>
       <c r="G100" s="3">
-        <v>-7003700</v>
+        <v>3926300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3172900</v>
+        <v>-6831900</v>
       </c>
       <c r="I100" s="3">
-        <v>-6390500</v>
+        <v>-3095100</v>
       </c>
       <c r="J100" s="3">
+        <v>-6233700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1154900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7396600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-781200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1573600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4306700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4349800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5225900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>367300</v>
+        <v>-236800</v>
       </c>
       <c r="E101" s="3">
-        <v>172900</v>
+        <v>358300</v>
       </c>
       <c r="F101" s="3">
-        <v>-144100</v>
+        <v>168700</v>
       </c>
       <c r="G101" s="3">
-        <v>-100300</v>
+        <v>-140500</v>
       </c>
       <c r="H101" s="3">
-        <v>370200</v>
+        <v>-96400</v>
       </c>
       <c r="I101" s="3">
-        <v>386400</v>
+        <v>361100</v>
       </c>
       <c r="J101" s="3">
+        <v>376900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-297100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-153900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-170700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-156300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-44200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>223100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>3002900</v>
+        <v>-3521400</v>
       </c>
       <c r="E102" s="3">
-        <v>-3691700</v>
+        <v>2929200</v>
       </c>
       <c r="F102" s="3">
-        <v>4364100</v>
+        <v>-3601200</v>
       </c>
       <c r="G102" s="3">
-        <v>-9887500</v>
+        <v>4257000</v>
       </c>
       <c r="H102" s="3">
-        <v>5313500</v>
+        <v>-9644900</v>
       </c>
       <c r="I102" s="3">
-        <v>-1161200</v>
+        <v>5183100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1132700</v>
+      </c>
+      <c r="K102" s="3">
         <v>400700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6288700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7511500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2704000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-239400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3201800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2708600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,209 +662,221 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>98309000</v>
+        <v>73936300</v>
       </c>
       <c r="E8" s="3">
-        <v>86515300</v>
+        <v>102010700</v>
       </c>
       <c r="F8" s="3">
-        <v>84706300</v>
+        <v>89772900</v>
       </c>
       <c r="G8" s="3">
-        <v>82722100</v>
+        <v>87895800</v>
       </c>
       <c r="H8" s="3">
-        <v>90724500</v>
+        <v>86385000</v>
       </c>
       <c r="I8" s="3">
-        <v>84966900</v>
+        <v>94140600</v>
       </c>
       <c r="J8" s="3">
+        <v>88166200</v>
+      </c>
+      <c r="K8" s="3">
         <v>80754500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>77860000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>82840400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71503200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71585600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>73249100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67838200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>59825500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>66845900</v>
+        <v>51496400</v>
       </c>
       <c r="E9" s="3">
-        <v>59360400</v>
+        <v>69362900</v>
       </c>
       <c r="F9" s="3">
-        <v>56234200</v>
+        <v>61595500</v>
       </c>
       <c r="G9" s="3">
-        <v>55188300</v>
+        <v>58351700</v>
       </c>
       <c r="H9" s="3">
-        <v>61615600</v>
+        <v>57637900</v>
       </c>
       <c r="I9" s="3">
-        <v>54232400</v>
+        <v>63935600</v>
       </c>
       <c r="J9" s="3">
+        <v>56274400</v>
+      </c>
+      <c r="K9" s="3">
         <v>51298600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51586700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51639600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45592700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46653400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>46927400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40599300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36726700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31463100</v>
+        <v>22439900</v>
       </c>
       <c r="E10" s="3">
-        <v>27154900</v>
+        <v>32647800</v>
       </c>
       <c r="F10" s="3">
-        <v>28472100</v>
+        <v>28177400</v>
       </c>
       <c r="G10" s="3">
-        <v>27533800</v>
+        <v>29544100</v>
       </c>
       <c r="H10" s="3">
-        <v>29108900</v>
+        <v>28747100</v>
       </c>
       <c r="I10" s="3">
-        <v>30734500</v>
+        <v>30204900</v>
       </c>
       <c r="J10" s="3">
+        <v>31891800</v>
+      </c>
+      <c r="K10" s="3">
         <v>29456000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26273300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31200800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25910500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24932100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26321700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27238900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23098800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,55 +894,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>571500</v>
+        <v>1095500</v>
       </c>
       <c r="E12" s="3">
-        <v>619300</v>
+        <v>593000</v>
       </c>
       <c r="F12" s="3">
-        <v>848900</v>
+        <v>642600</v>
       </c>
       <c r="G12" s="3">
-        <v>868000</v>
+        <v>880800</v>
       </c>
       <c r="H12" s="3">
-        <v>379200</v>
+        <v>900700</v>
       </c>
       <c r="I12" s="3">
-        <v>735900</v>
+        <v>393400</v>
       </c>
       <c r="J12" s="3">
+        <v>763600</v>
+      </c>
+      <c r="K12" s="3">
         <v>638400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>889300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1494900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1031700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>339700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>678200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>403100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>986500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +992,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1023,55 +1042,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>8436900</v>
+        <v>8397900</v>
       </c>
       <c r="E15" s="3">
-        <v>7890100</v>
+        <v>8754600</v>
       </c>
       <c r="F15" s="3">
-        <v>7501400</v>
+        <v>8187200</v>
       </c>
       <c r="G15" s="3">
-        <v>7699200</v>
+        <v>7783900</v>
       </c>
       <c r="H15" s="3">
-        <v>9174700</v>
+        <v>8000900</v>
       </c>
       <c r="I15" s="3">
-        <v>7298200</v>
+        <v>9520100</v>
       </c>
       <c r="J15" s="3">
+        <v>7573000</v>
+      </c>
+      <c r="K15" s="3">
         <v>8830900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7386800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10734300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7262600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8584000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8647900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8956600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7355100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1086,102 +1111,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>94617000</v>
+        <v>74427000</v>
       </c>
       <c r="E17" s="3">
-        <v>83055500</v>
+        <v>98179700</v>
       </c>
       <c r="F17" s="3">
-        <v>78936300</v>
+        <v>86182800</v>
       </c>
       <c r="G17" s="3">
-        <v>78602100</v>
+        <v>81908600</v>
       </c>
       <c r="H17" s="3">
-        <v>89214400</v>
+        <v>82099500</v>
       </c>
       <c r="I17" s="3">
-        <v>78699600</v>
+        <v>92573700</v>
       </c>
       <c r="J17" s="3">
+        <v>81663000</v>
+      </c>
+      <c r="K17" s="3">
         <v>75249400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73836800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>80708900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>68998500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>69092100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>70328100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65639200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>58229400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3692000</v>
+        <v>-490700</v>
       </c>
       <c r="E18" s="3">
-        <v>3459800</v>
+        <v>3831000</v>
       </c>
       <c r="F18" s="3">
-        <v>5770000</v>
+        <v>3590100</v>
       </c>
       <c r="G18" s="3">
-        <v>4120000</v>
+        <v>5987300</v>
       </c>
       <c r="H18" s="3">
-        <v>1510000</v>
+        <v>4285400</v>
       </c>
       <c r="I18" s="3">
-        <v>6267300</v>
+        <v>1566900</v>
       </c>
       <c r="J18" s="3">
+        <v>6503300</v>
+      </c>
+      <c r="K18" s="3">
         <v>5505200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4023200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2131500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2504700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2493400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2921000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2198900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1199,243 +1231,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>266100</v>
+        <v>78100</v>
       </c>
       <c r="E20" s="3">
-        <v>510900</v>
+        <v>276100</v>
       </c>
       <c r="F20" s="3">
-        <v>497800</v>
+        <v>530100</v>
       </c>
       <c r="G20" s="3">
-        <v>385300</v>
+        <v>516600</v>
       </c>
       <c r="H20" s="3">
-        <v>1153100</v>
+        <v>400000</v>
       </c>
       <c r="I20" s="3">
-        <v>377300</v>
+        <v>1196500</v>
       </c>
       <c r="J20" s="3">
+        <v>391500</v>
+      </c>
+      <c r="K20" s="3">
         <v>526900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>264900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>570200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>186000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>213000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>184800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>255200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>306400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>12395000</v>
+        <v>7985300</v>
       </c>
       <c r="E21" s="3">
-        <v>11860800</v>
+        <v>12861700</v>
       </c>
       <c r="F21" s="3">
-        <v>13769300</v>
+        <v>12307400</v>
       </c>
       <c r="G21" s="3">
-        <v>12204500</v>
+        <v>14276000</v>
       </c>
       <c r="H21" s="3">
-        <v>11837800</v>
+        <v>12686300</v>
       </c>
       <c r="I21" s="3">
-        <v>13942800</v>
+        <v>12283600</v>
       </c>
       <c r="J21" s="3">
+        <v>14467800</v>
+      </c>
+      <c r="K21" s="3">
         <v>14863100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11674800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13416900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9972400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11290400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11753600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11410700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9257600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1086400</v>
+        <v>1137200</v>
       </c>
       <c r="E22" s="3">
-        <v>1042700</v>
+        <v>1127300</v>
       </c>
       <c r="F22" s="3">
-        <v>1063000</v>
+        <v>1082000</v>
       </c>
       <c r="G22" s="3">
-        <v>1064000</v>
+        <v>1103000</v>
       </c>
       <c r="H22" s="3">
-        <v>804400</v>
+        <v>1116800</v>
       </c>
       <c r="I22" s="3">
-        <v>793600</v>
+        <v>834600</v>
       </c>
       <c r="J22" s="3">
+        <v>823500</v>
+      </c>
+      <c r="K22" s="3">
         <v>798900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>802500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>825000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>818800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>813300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>868500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>752200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>908200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2871700</v>
+        <v>-1549700</v>
       </c>
       <c r="E23" s="3">
-        <v>2928000</v>
+        <v>2979800</v>
       </c>
       <c r="F23" s="3">
-        <v>5204800</v>
+        <v>3038200</v>
       </c>
       <c r="G23" s="3">
-        <v>3441300</v>
+        <v>5400800</v>
       </c>
       <c r="H23" s="3">
-        <v>1858800</v>
+        <v>3568600</v>
       </c>
       <c r="I23" s="3">
-        <v>5851000</v>
+        <v>1928800</v>
       </c>
       <c r="J23" s="3">
+        <v>6071300</v>
+      </c>
+      <c r="K23" s="3">
         <v>5233200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3485600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1876600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1871900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1893100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2237300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1702000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>994300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>976600</v>
+        <v>388900</v>
       </c>
       <c r="E24" s="3">
-        <v>921400</v>
+        <v>1013400</v>
       </c>
       <c r="F24" s="3">
-        <v>1973300</v>
+        <v>956000</v>
       </c>
       <c r="G24" s="3">
-        <v>1195100</v>
+        <v>2047600</v>
       </c>
       <c r="H24" s="3">
-        <v>638500</v>
+        <v>1240100</v>
       </c>
       <c r="I24" s="3">
-        <v>2121900</v>
+        <v>662500</v>
       </c>
       <c r="J24" s="3">
+        <v>2201800</v>
+      </c>
+      <c r="K24" s="3">
         <v>1957500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1302900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>852800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>546400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>358000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>661300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>454500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>428700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1481,102 +1529,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1895100</v>
+        <v>-1938700</v>
       </c>
       <c r="E26" s="3">
-        <v>2006600</v>
+        <v>1966400</v>
       </c>
       <c r="F26" s="3">
-        <v>3231500</v>
+        <v>2082200</v>
       </c>
       <c r="G26" s="3">
-        <v>2246200</v>
+        <v>3353200</v>
       </c>
       <c r="H26" s="3">
-        <v>1220300</v>
+        <v>2328500</v>
       </c>
       <c r="I26" s="3">
-        <v>3729100</v>
+        <v>1266300</v>
       </c>
       <c r="J26" s="3">
+        <v>3869500</v>
+      </c>
+      <c r="K26" s="3">
         <v>3275800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2182600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1023900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1325400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1535200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1576000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1247500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>565600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1179700</v>
+        <v>-2357100</v>
       </c>
       <c r="E27" s="3">
-        <v>1235800</v>
+        <v>1224100</v>
       </c>
       <c r="F27" s="3">
-        <v>2542800</v>
+        <v>1282400</v>
       </c>
       <c r="G27" s="3">
-        <v>1435300</v>
+        <v>2638500</v>
       </c>
       <c r="H27" s="3">
-        <v>612300</v>
+        <v>1488500</v>
       </c>
       <c r="I27" s="3">
-        <v>2970000</v>
+        <v>635400</v>
       </c>
       <c r="J27" s="3">
+        <v>3081800</v>
+      </c>
+      <c r="K27" s="3">
         <v>2419600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1456800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>806200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>696000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1035200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>846100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>890900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1622,8 +1679,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1669,8 +1729,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1716,8 +1779,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1763,102 +1829,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-266100</v>
+        <v>-78100</v>
       </c>
       <c r="E32" s="3">
-        <v>-510900</v>
+        <v>-276100</v>
       </c>
       <c r="F32" s="3">
-        <v>-497800</v>
+        <v>-530100</v>
       </c>
       <c r="G32" s="3">
-        <v>-385300</v>
+        <v>-516600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1153100</v>
+        <v>-400000</v>
       </c>
       <c r="I32" s="3">
-        <v>-377300</v>
+        <v>-1196500</v>
       </c>
       <c r="J32" s="3">
+        <v>-391500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-526900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-264900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-570200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-186000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-213000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-184800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-255200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-306400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1179700</v>
+        <v>-2357100</v>
       </c>
       <c r="E33" s="3">
-        <v>1235800</v>
+        <v>1224100</v>
       </c>
       <c r="F33" s="3">
-        <v>2542800</v>
+        <v>1282400</v>
       </c>
       <c r="G33" s="3">
-        <v>1435300</v>
+        <v>2638500</v>
       </c>
       <c r="H33" s="3">
-        <v>612300</v>
+        <v>1488500</v>
       </c>
       <c r="I33" s="3">
-        <v>2970000</v>
+        <v>635400</v>
       </c>
       <c r="J33" s="3">
+        <v>3081800</v>
+      </c>
+      <c r="K33" s="3">
         <v>2419600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1456800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>806200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>696000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1035200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>846100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>890900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,107 +1979,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1179700</v>
+        <v>-2357100</v>
       </c>
       <c r="E35" s="3">
-        <v>1235800</v>
+        <v>1224100</v>
       </c>
       <c r="F35" s="3">
-        <v>2542800</v>
+        <v>1282400</v>
       </c>
       <c r="G35" s="3">
-        <v>1435300</v>
+        <v>2638500</v>
       </c>
       <c r="H35" s="3">
-        <v>612300</v>
+        <v>1488500</v>
       </c>
       <c r="I35" s="3">
-        <v>2970000</v>
+        <v>635400</v>
       </c>
       <c r="J35" s="3">
+        <v>3081800</v>
+      </c>
+      <c r="K35" s="3">
         <v>2419600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1456800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>806200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>696000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1035200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>846100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>890900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2022,8 +2106,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2041,431 +2126,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>12093800</v>
+        <v>11227000</v>
       </c>
       <c r="E41" s="3">
-        <v>15615200</v>
+        <v>12549200</v>
       </c>
       <c r="F41" s="3">
-        <v>12686000</v>
+        <v>16203200</v>
       </c>
       <c r="G41" s="3">
-        <v>16237300</v>
+        <v>13163600</v>
       </c>
       <c r="H41" s="3">
-        <v>12030100</v>
+        <v>16848700</v>
       </c>
       <c r="I41" s="3">
-        <v>21618200</v>
+        <v>12483100</v>
       </c>
       <c r="J41" s="3">
+        <v>22432200</v>
+      </c>
+      <c r="K41" s="3">
         <v>16442100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18016800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18221300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24510100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16998600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14294600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14242100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17443900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3394900</v>
+        <v>3110400</v>
       </c>
       <c r="E42" s="3">
-        <v>5055800</v>
+        <v>3522700</v>
       </c>
       <c r="F42" s="3">
-        <v>3107800</v>
+        <v>5246100</v>
       </c>
       <c r="G42" s="3">
-        <v>1129100</v>
+        <v>3224800</v>
       </c>
       <c r="H42" s="3">
-        <v>1334500</v>
+        <v>1171600</v>
       </c>
       <c r="I42" s="3">
-        <v>1739300</v>
+        <v>1384800</v>
       </c>
       <c r="J42" s="3">
+        <v>1804800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1549600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>121800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1980400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>640800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>966700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>700300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>99800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>9965200</v>
+        <v>12419900</v>
       </c>
       <c r="E43" s="3">
-        <v>12211100</v>
+        <v>10340400</v>
       </c>
       <c r="F43" s="3">
-        <v>11583100</v>
+        <v>12670900</v>
       </c>
       <c r="G43" s="3">
-        <v>12817700</v>
+        <v>12019200</v>
       </c>
       <c r="H43" s="3">
-        <v>10613200</v>
+        <v>13300300</v>
       </c>
       <c r="I43" s="3">
-        <v>12290300</v>
+        <v>11012800</v>
       </c>
       <c r="J43" s="3">
+        <v>12753100</v>
+      </c>
+      <c r="K43" s="3">
         <v>12206500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13386500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13192600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11651700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11264900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11134500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10442700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10267900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>25461700</v>
+        <v>26993900</v>
       </c>
       <c r="E44" s="3">
-        <v>23509500</v>
+        <v>26420400</v>
       </c>
       <c r="F44" s="3">
-        <v>24543900</v>
+        <v>24394700</v>
       </c>
       <c r="G44" s="3">
-        <v>23785800</v>
+        <v>25468100</v>
       </c>
       <c r="H44" s="3">
-        <v>24853700</v>
+        <v>24681400</v>
       </c>
       <c r="I44" s="3">
-        <v>24765900</v>
+        <v>25789500</v>
       </c>
       <c r="J44" s="3">
+        <v>25698400</v>
+      </c>
+      <c r="K44" s="3">
         <v>22366700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20906000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21470300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20192200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20663100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21943200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>21358600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>19165300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>14433700</v>
+        <v>17035900</v>
       </c>
       <c r="E45" s="3">
-        <v>16498200</v>
+        <v>14977100</v>
       </c>
       <c r="F45" s="3">
-        <v>15454900</v>
+        <v>17119400</v>
       </c>
       <c r="G45" s="3">
-        <v>15889500</v>
+        <v>16036900</v>
       </c>
       <c r="H45" s="3">
-        <v>12504700</v>
+        <v>16487800</v>
       </c>
       <c r="I45" s="3">
-        <v>14452000</v>
+        <v>12975600</v>
       </c>
       <c r="J45" s="3">
+        <v>14996200</v>
+      </c>
+      <c r="K45" s="3">
         <v>12447100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12031700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8233600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14302700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14036300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13055200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9362300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13363900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>65349100</v>
+        <v>70787100</v>
       </c>
       <c r="E46" s="3">
-        <v>72889800</v>
+        <v>67809800</v>
       </c>
       <c r="F46" s="3">
-        <v>67375800</v>
+        <v>75634300</v>
       </c>
       <c r="G46" s="3">
-        <v>69859400</v>
+        <v>69912700</v>
       </c>
       <c r="H46" s="3">
-        <v>61336200</v>
+        <v>72489800</v>
       </c>
       <c r="I46" s="3">
-        <v>74865700</v>
+        <v>63645700</v>
       </c>
       <c r="J46" s="3">
+        <v>77684700</v>
+      </c>
+      <c r="K46" s="3">
         <v>65012000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64462800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>63098300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>71297500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>63929700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>61127700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>55505500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>60368300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>14432000</v>
+        <v>15445900</v>
       </c>
       <c r="E47" s="3">
-        <v>13988000</v>
+        <v>14975400</v>
       </c>
       <c r="F47" s="3">
-        <v>13277300</v>
+        <v>14514700</v>
       </c>
       <c r="G47" s="3">
-        <v>13398900</v>
+        <v>13777200</v>
       </c>
       <c r="H47" s="3">
-        <v>13044400</v>
+        <v>13903400</v>
       </c>
       <c r="I47" s="3">
-        <v>12618100</v>
+        <v>13535600</v>
       </c>
       <c r="J47" s="3">
+        <v>13093200</v>
+      </c>
+      <c r="K47" s="3">
         <v>12302800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12443200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12329300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12628400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12429500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12305400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11776600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12256300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>285232900</v>
+        <v>290888300</v>
       </c>
       <c r="E48" s="3">
-        <v>272951700</v>
+        <v>295972900</v>
       </c>
       <c r="F48" s="3">
-        <v>270430400</v>
+        <v>283229300</v>
       </c>
       <c r="G48" s="3">
-        <v>268251300</v>
+        <v>280613100</v>
       </c>
       <c r="H48" s="3">
-        <v>239245900</v>
+        <v>278351900</v>
       </c>
       <c r="I48" s="3">
-        <v>232115500</v>
+        <v>248254400</v>
       </c>
       <c r="J48" s="3">
+        <v>240855500</v>
+      </c>
+      <c r="K48" s="3">
         <v>232003200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>239610200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>252714500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>249594500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>250351300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>252390500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>252982000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>250101600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>14088800</v>
+        <v>14727600</v>
       </c>
       <c r="E49" s="3">
-        <v>14535100</v>
+        <v>14619300</v>
       </c>
       <c r="F49" s="3">
-        <v>14278200</v>
+        <v>15082400</v>
       </c>
       <c r="G49" s="3">
-        <v>13673100</v>
+        <v>14815800</v>
       </c>
       <c r="H49" s="3">
-        <v>13759300</v>
+        <v>14188000</v>
       </c>
       <c r="I49" s="3">
-        <v>14488000</v>
+        <v>14277400</v>
       </c>
       <c r="J49" s="3">
+        <v>15033500</v>
+      </c>
+      <c r="K49" s="3">
         <v>14140200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13285000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13793400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15283600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15246000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15119300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14942900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14515700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2511,8 +2624,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2558,55 +2674,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3395300</v>
+        <v>4197300</v>
       </c>
       <c r="E52" s="3">
-        <v>3656500</v>
+        <v>3523100</v>
       </c>
       <c r="F52" s="3">
-        <v>3781400</v>
+        <v>3794100</v>
       </c>
       <c r="G52" s="3">
-        <v>3494400</v>
+        <v>3923800</v>
       </c>
       <c r="H52" s="3">
-        <v>14239300</v>
+        <v>3626000</v>
       </c>
       <c r="I52" s="3">
-        <v>13470500</v>
+        <v>14775400</v>
       </c>
       <c r="J52" s="3">
+        <v>13977700</v>
+      </c>
+      <c r="K52" s="3">
         <v>13570900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14205500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14933000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14179100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14180400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13734900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13337800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12619700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2652,55 +2774,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>382498100</v>
+        <v>396046300</v>
       </c>
       <c r="E54" s="3">
-        <v>378021000</v>
+        <v>396900500</v>
       </c>
       <c r="F54" s="3">
-        <v>369143100</v>
+        <v>392254900</v>
       </c>
       <c r="G54" s="3">
-        <v>368677000</v>
+        <v>383042700</v>
       </c>
       <c r="H54" s="3">
-        <v>341625100</v>
+        <v>382559100</v>
       </c>
       <c r="I54" s="3">
-        <v>347557800</v>
+        <v>354488600</v>
       </c>
       <c r="J54" s="3">
+        <v>360644600</v>
+      </c>
+      <c r="K54" s="3">
         <v>337029000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>344006600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>356868500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>362983000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>356137000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>354677800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>348545000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>349861500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2718,8 +2846,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2737,290 +2866,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>45950800</v>
+        <v>42451000</v>
       </c>
       <c r="E57" s="3">
-        <v>47154500</v>
+        <v>47681000</v>
       </c>
       <c r="F57" s="3">
-        <v>43679000</v>
+        <v>48930000</v>
       </c>
       <c r="G57" s="3">
-        <v>40212600</v>
+        <v>45323700</v>
       </c>
       <c r="H57" s="3">
-        <v>41966700</v>
+        <v>41726800</v>
       </c>
       <c r="I57" s="3">
-        <v>46901000</v>
+        <v>43546900</v>
       </c>
       <c r="J57" s="3">
+        <v>48667000</v>
+      </c>
+      <c r="K57" s="3">
         <v>42546300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39314200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51026200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55311800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49480600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>47220200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45182200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>48224900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>25645300</v>
+        <v>42312300</v>
       </c>
       <c r="E58" s="3">
-        <v>24796700</v>
+        <v>26610900</v>
       </c>
       <c r="F58" s="3">
-        <v>23438300</v>
+        <v>25730400</v>
       </c>
       <c r="G58" s="3">
-        <v>18963200</v>
+        <v>24320800</v>
       </c>
       <c r="H58" s="3">
-        <v>20315200</v>
+        <v>19677200</v>
       </c>
       <c r="I58" s="3">
-        <v>21246200</v>
+        <v>21080100</v>
       </c>
       <c r="J58" s="3">
+        <v>22046200</v>
+      </c>
+      <c r="K58" s="3">
         <v>20725700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22920400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26033600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>29375700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28622100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>29476900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20852300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>20508000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>20976100</v>
+        <v>18635300</v>
       </c>
       <c r="E59" s="3">
-        <v>18813100</v>
+        <v>21765900</v>
       </c>
       <c r="F59" s="3">
-        <v>17182700</v>
+        <v>19521500</v>
       </c>
       <c r="G59" s="3">
-        <v>20275700</v>
+        <v>17829700</v>
       </c>
       <c r="H59" s="3">
-        <v>21194400</v>
+        <v>21039200</v>
       </c>
       <c r="I59" s="3">
-        <v>19163700</v>
+        <v>21992500</v>
       </c>
       <c r="J59" s="3">
+        <v>19885300</v>
+      </c>
+      <c r="K59" s="3">
         <v>15928600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16735100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8523300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5901100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5291000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6047400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6573300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5292100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>92572200</v>
+        <v>103398700</v>
       </c>
       <c r="E60" s="3">
-        <v>90764300</v>
+        <v>96057900</v>
       </c>
       <c r="F60" s="3">
-        <v>84300000</v>
+        <v>94181900</v>
       </c>
       <c r="G60" s="3">
-        <v>79451500</v>
+        <v>87474200</v>
       </c>
       <c r="H60" s="3">
-        <v>83476300</v>
+        <v>82443100</v>
       </c>
       <c r="I60" s="3">
-        <v>87311000</v>
+        <v>86619500</v>
       </c>
       <c r="J60" s="3">
+        <v>90598500</v>
+      </c>
+      <c r="K60" s="3">
         <v>79200600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78969700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>85583100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90588600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83393700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>82744500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>72607800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>74024900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>63685300</v>
+        <v>59968100</v>
       </c>
       <c r="E61" s="3">
-        <v>63086700</v>
+        <v>66083300</v>
       </c>
       <c r="F61" s="3">
-        <v>61731900</v>
+        <v>65462100</v>
       </c>
       <c r="G61" s="3">
-        <v>66371300</v>
+        <v>64056300</v>
       </c>
       <c r="H61" s="3">
-        <v>37708300</v>
+        <v>68870400</v>
       </c>
       <c r="I61" s="3">
-        <v>39314300</v>
+        <v>39128200</v>
       </c>
       <c r="J61" s="3">
+        <v>40794700</v>
+      </c>
+      <c r="K61" s="3">
         <v>39861900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42939800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43017800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44511900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44551300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43683400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>54229000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>55836500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>24095700</v>
+        <v>25224900</v>
       </c>
       <c r="E62" s="3">
-        <v>23660900</v>
+        <v>25002900</v>
       </c>
       <c r="F62" s="3">
-        <v>23551300</v>
+        <v>24551900</v>
       </c>
       <c r="G62" s="3">
-        <v>23212600</v>
+        <v>24438100</v>
       </c>
       <c r="H62" s="3">
-        <v>23252100</v>
+        <v>24086700</v>
       </c>
       <c r="I62" s="3">
-        <v>22894200</v>
+        <v>24127600</v>
       </c>
       <c r="J62" s="3">
+        <v>23756300</v>
+      </c>
+      <c r="K62" s="3">
         <v>22023000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22429900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23265900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23135000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22808800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22540100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22071300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21586900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3066,8 +3214,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3113,8 +3264,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3160,55 +3314,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>210325400</v>
+        <v>219996100</v>
       </c>
       <c r="E66" s="3">
-        <v>206534400</v>
+        <v>218245000</v>
       </c>
       <c r="F66" s="3">
-        <v>197456400</v>
+        <v>214311100</v>
       </c>
       <c r="G66" s="3">
-        <v>197100900</v>
+        <v>204891400</v>
       </c>
       <c r="H66" s="3">
-        <v>171744100</v>
+        <v>204522500</v>
       </c>
       <c r="I66" s="3">
-        <v>177163700</v>
+        <v>178210900</v>
       </c>
       <c r="J66" s="3">
+        <v>183834600</v>
+      </c>
+      <c r="K66" s="3">
         <v>167928300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>171721000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>179738200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>185934900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>178388700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>176946600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>175625200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>177976400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3226,8 +3386,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3273,8 +3434,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3320,8 +3484,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3367,8 +3534,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3414,55 +3584,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>146557000</v>
+        <v>149470000</v>
       </c>
       <c r="E72" s="3">
-        <v>145871100</v>
+        <v>152075400</v>
       </c>
       <c r="F72" s="3">
-        <v>146071100</v>
+        <v>151363600</v>
       </c>
       <c r="G72" s="3">
-        <v>145960500</v>
+        <v>151571200</v>
       </c>
       <c r="H72" s="3">
-        <v>172095400</v>
+        <v>151456400</v>
       </c>
       <c r="I72" s="3">
-        <v>144778400</v>
+        <v>178575400</v>
       </c>
       <c r="J72" s="3">
+        <v>150229800</v>
+      </c>
+      <c r="K72" s="3">
         <v>143485000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>146025800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>149968200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>149885900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>150586100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>150569100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>131176300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>145268400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3508,8 +3684,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3555,8 +3734,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3602,55 +3784,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>172172600</v>
+        <v>176050100</v>
       </c>
       <c r="E76" s="3">
-        <v>171486700</v>
+        <v>178655600</v>
       </c>
       <c r="F76" s="3">
-        <v>171686700</v>
+        <v>177943800</v>
       </c>
       <c r="G76" s="3">
-        <v>171576100</v>
+        <v>178151300</v>
       </c>
       <c r="H76" s="3">
-        <v>169881100</v>
+        <v>178036600</v>
       </c>
       <c r="I76" s="3">
-        <v>170394000</v>
+        <v>176277700</v>
       </c>
       <c r="J76" s="3">
+        <v>176810000</v>
+      </c>
+      <c r="K76" s="3">
         <v>169100700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>172285600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>177130300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>177048100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>177748300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>177731200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>172919800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>171885200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3696,107 +3884,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1179700</v>
+        <v>-2357100</v>
       </c>
       <c r="E81" s="3">
-        <v>1235800</v>
+        <v>1224100</v>
       </c>
       <c r="F81" s="3">
-        <v>2542800</v>
+        <v>1282400</v>
       </c>
       <c r="G81" s="3">
-        <v>1435300</v>
+        <v>2638500</v>
       </c>
       <c r="H81" s="3">
-        <v>612300</v>
+        <v>1488500</v>
       </c>
       <c r="I81" s="3">
-        <v>2970000</v>
+        <v>635400</v>
       </c>
       <c r="J81" s="3">
+        <v>3081800</v>
+      </c>
+      <c r="K81" s="3">
         <v>2419600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1456800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>806200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>696000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1035200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>846100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>890900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3814,55 +4011,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>8436900</v>
+        <v>8397900</v>
       </c>
       <c r="E83" s="3">
-        <v>7890100</v>
+        <v>8754600</v>
       </c>
       <c r="F83" s="3">
-        <v>7501400</v>
+        <v>8187200</v>
       </c>
       <c r="G83" s="3">
-        <v>7699200</v>
+        <v>7772100</v>
       </c>
       <c r="H83" s="3">
-        <v>9174700</v>
+        <v>8000900</v>
       </c>
       <c r="I83" s="3">
-        <v>7298200</v>
+        <v>9520100</v>
       </c>
       <c r="J83" s="3">
+        <v>7573000</v>
+      </c>
+      <c r="K83" s="3">
         <v>8830900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7386800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10715200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7281700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8584000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8647900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8956600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7355100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3908,8 +4109,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3955,8 +4159,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4002,8 +4209,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4049,8 +4259,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4096,55 +4309,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>16825200</v>
+        <v>-2628100</v>
       </c>
       <c r="E89" s="3">
-        <v>14691700</v>
+        <v>17458700</v>
       </c>
       <c r="F89" s="3">
-        <v>10133500</v>
+        <v>15244900</v>
       </c>
       <c r="G89" s="3">
-        <v>8680600</v>
+        <v>10515100</v>
       </c>
       <c r="H89" s="3">
-        <v>13184500</v>
+        <v>9007500</v>
       </c>
       <c r="I89" s="3">
-        <v>15561700</v>
+        <v>13681000</v>
       </c>
       <c r="J89" s="3">
+        <v>16147700</v>
+      </c>
+      <c r="K89" s="3">
         <v>12045700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8867400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18159400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14761200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10662500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10832100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10799900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11499900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4162,55 +4381,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-20339300</v>
+        <v>-7103600</v>
       </c>
       <c r="E91" s="3">
-        <v>-7727500</v>
+        <v>-21105100</v>
       </c>
       <c r="F91" s="3">
-        <v>-8427000</v>
+        <v>-8018400</v>
       </c>
       <c r="G91" s="3">
-        <v>-8249500</v>
+        <v>-8744300</v>
       </c>
       <c r="H91" s="3">
-        <v>-16674800</v>
+        <v>-8560100</v>
       </c>
       <c r="I91" s="3">
-        <v>-7046100</v>
+        <v>-17302700</v>
       </c>
       <c r="J91" s="3">
+        <v>-7311500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5684600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8195600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15536600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6542700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5956400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5985700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9864700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4758300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4256,8 +4479,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4303,55 +4529,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-17573000</v>
+        <v>-7261600</v>
       </c>
       <c r="E94" s="3">
-        <v>-10835400</v>
+        <v>-18234600</v>
       </c>
       <c r="F94" s="3">
-        <v>-9981700</v>
+        <v>-11243400</v>
       </c>
       <c r="G94" s="3">
-        <v>-8209400</v>
+        <v>-10357500</v>
       </c>
       <c r="H94" s="3">
-        <v>-15953800</v>
+        <v>-8518500</v>
       </c>
       <c r="I94" s="3">
-        <v>-7593200</v>
+        <v>-16554500</v>
       </c>
       <c r="J94" s="3">
+        <v>-7879200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7082300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7014600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16897700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6297800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6228600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6720600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9875000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3600000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4369,55 +4601,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-1831100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2274900</v>
+        <v>-1900000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-2360600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1706700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-2014600</v>
+        <v>-1770900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-2090400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1808700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1068100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-552900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-661900</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4463,8 +4699,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4510,8 +4749,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4557,145 +4799,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-2536800</v>
+        <v>8440900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1285400</v>
+        <v>-2632300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3921700</v>
+        <v>-1333800</v>
       </c>
       <c r="G100" s="3">
-        <v>3926300</v>
+        <v>-4102200</v>
       </c>
       <c r="H100" s="3">
-        <v>-6831900</v>
+        <v>4107000</v>
       </c>
       <c r="I100" s="3">
-        <v>-3095100</v>
+        <v>-7089100</v>
       </c>
       <c r="J100" s="3">
+        <v>-3211600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6233700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1154900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7396600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-781200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1573600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4306700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4349800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5225900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-236800</v>
+        <v>126600</v>
       </c>
       <c r="E101" s="3">
-        <v>358300</v>
+        <v>-245700</v>
       </c>
       <c r="F101" s="3">
-        <v>168700</v>
+        <v>371800</v>
       </c>
       <c r="G101" s="3">
-        <v>-140500</v>
+        <v>175000</v>
       </c>
       <c r="H101" s="3">
-        <v>-96400</v>
+        <v>-145800</v>
       </c>
       <c r="I101" s="3">
-        <v>361100</v>
+        <v>-100100</v>
       </c>
       <c r="J101" s="3">
+        <v>374700</v>
+      </c>
+      <c r="K101" s="3">
         <v>376900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-297100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-153900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-170700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-156300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-44200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>223100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-3521400</v>
+        <v>-1322200</v>
       </c>
       <c r="E102" s="3">
-        <v>2929200</v>
+        <v>-3654000</v>
       </c>
       <c r="F102" s="3">
-        <v>-3601200</v>
+        <v>3039500</v>
       </c>
       <c r="G102" s="3">
-        <v>4257000</v>
+        <v>-3736800</v>
       </c>
       <c r="H102" s="3">
-        <v>-9644900</v>
+        <v>4417300</v>
       </c>
       <c r="I102" s="3">
-        <v>5183100</v>
+        <v>-10008100</v>
       </c>
       <c r="J102" s="3">
+        <v>5378300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6288700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7511500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2704000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-239400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3201800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2708600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
@@ -731,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>73936300</v>
+        <v>77444000</v>
       </c>
       <c r="E8" s="3">
-        <v>102010700</v>
+        <v>106850300</v>
       </c>
       <c r="F8" s="3">
-        <v>89772900</v>
+        <v>94031900</v>
       </c>
       <c r="G8" s="3">
-        <v>87895800</v>
+        <v>92065800</v>
       </c>
       <c r="H8" s="3">
-        <v>86385000</v>
+        <v>90483300</v>
       </c>
       <c r="I8" s="3">
-        <v>94140600</v>
+        <v>98606800</v>
       </c>
       <c r="J8" s="3">
-        <v>88166200</v>
+        <v>92349000</v>
       </c>
       <c r="K8" s="3">
         <v>80754500</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51496400</v>
+        <v>53939500</v>
       </c>
       <c r="E9" s="3">
-        <v>69362900</v>
+        <v>72653600</v>
       </c>
       <c r="F9" s="3">
-        <v>61595500</v>
+        <v>64517700</v>
       </c>
       <c r="G9" s="3">
-        <v>58351700</v>
+        <v>61120000</v>
       </c>
       <c r="H9" s="3">
-        <v>57637900</v>
+        <v>60372300</v>
       </c>
       <c r="I9" s="3">
-        <v>63935600</v>
+        <v>66968900</v>
       </c>
       <c r="J9" s="3">
-        <v>56274400</v>
+        <v>58944200</v>
       </c>
       <c r="K9" s="3">
         <v>51298600</v>
@@ -831,25 +831,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22439900</v>
+        <v>23504500</v>
       </c>
       <c r="E10" s="3">
-        <v>32647800</v>
+        <v>34196700</v>
       </c>
       <c r="F10" s="3">
-        <v>28177400</v>
+        <v>29514200</v>
       </c>
       <c r="G10" s="3">
-        <v>29544100</v>
+        <v>30945800</v>
       </c>
       <c r="H10" s="3">
-        <v>28747100</v>
+        <v>30110900</v>
       </c>
       <c r="I10" s="3">
-        <v>30204900</v>
+        <v>31637900</v>
       </c>
       <c r="J10" s="3">
-        <v>31891800</v>
+        <v>33404800</v>
       </c>
       <c r="K10" s="3">
         <v>29456000</v>
@@ -901,25 +901,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1095500</v>
+        <v>1147400</v>
       </c>
       <c r="E12" s="3">
-        <v>593000</v>
+        <v>621100</v>
       </c>
       <c r="F12" s="3">
-        <v>642600</v>
+        <v>673100</v>
       </c>
       <c r="G12" s="3">
-        <v>880800</v>
+        <v>922600</v>
       </c>
       <c r="H12" s="3">
-        <v>900700</v>
+        <v>943400</v>
       </c>
       <c r="I12" s="3">
-        <v>393400</v>
+        <v>412100</v>
       </c>
       <c r="J12" s="3">
-        <v>763600</v>
+        <v>799800</v>
       </c>
       <c r="K12" s="3">
         <v>638400</v>
@@ -1051,25 +1051,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>8397900</v>
+        <v>8796300</v>
       </c>
       <c r="E15" s="3">
-        <v>8754600</v>
+        <v>9169900</v>
       </c>
       <c r="F15" s="3">
-        <v>8187200</v>
+        <v>8575600</v>
       </c>
       <c r="G15" s="3">
-        <v>7783900</v>
+        <v>8153200</v>
       </c>
       <c r="H15" s="3">
-        <v>8000900</v>
+        <v>8380400</v>
       </c>
       <c r="I15" s="3">
-        <v>9520100</v>
+        <v>9971800</v>
       </c>
       <c r="J15" s="3">
-        <v>7573000</v>
+        <v>7932300</v>
       </c>
       <c r="K15" s="3">
         <v>8830900</v>
@@ -1118,25 +1118,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>74427000</v>
+        <v>77958000</v>
       </c>
       <c r="E17" s="3">
-        <v>98179700</v>
+        <v>102837500</v>
       </c>
       <c r="F17" s="3">
-        <v>86182800</v>
+        <v>90271500</v>
       </c>
       <c r="G17" s="3">
-        <v>81908600</v>
+        <v>85794500</v>
       </c>
       <c r="H17" s="3">
-        <v>82099500</v>
+        <v>85994500</v>
       </c>
       <c r="I17" s="3">
-        <v>92573700</v>
+        <v>96965500</v>
       </c>
       <c r="J17" s="3">
-        <v>81663000</v>
+        <v>85537200</v>
       </c>
       <c r="K17" s="3">
         <v>75249400</v>
@@ -1168,25 +1168,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-490700</v>
+        <v>-514000</v>
       </c>
       <c r="E18" s="3">
-        <v>3831000</v>
+        <v>4012800</v>
       </c>
       <c r="F18" s="3">
-        <v>3590100</v>
+        <v>3760400</v>
       </c>
       <c r="G18" s="3">
-        <v>5987300</v>
+        <v>6271300</v>
       </c>
       <c r="H18" s="3">
-        <v>4285400</v>
+        <v>4488800</v>
       </c>
       <c r="I18" s="3">
-        <v>1566900</v>
+        <v>1641200</v>
       </c>
       <c r="J18" s="3">
-        <v>6503300</v>
+        <v>6811800</v>
       </c>
       <c r="K18" s="3">
         <v>5505200</v>
@@ -1238,25 +1238,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>78100</v>
+        <v>81800</v>
       </c>
       <c r="E20" s="3">
-        <v>276100</v>
+        <v>289200</v>
       </c>
       <c r="F20" s="3">
-        <v>530100</v>
+        <v>555200</v>
       </c>
       <c r="G20" s="3">
-        <v>516600</v>
+        <v>541100</v>
       </c>
       <c r="H20" s="3">
-        <v>400000</v>
+        <v>418900</v>
       </c>
       <c r="I20" s="3">
-        <v>1196500</v>
+        <v>1253300</v>
       </c>
       <c r="J20" s="3">
-        <v>391500</v>
+        <v>410100</v>
       </c>
       <c r="K20" s="3">
         <v>526900</v>
@@ -1288,25 +1288,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>7985300</v>
+        <v>8364200</v>
       </c>
       <c r="E21" s="3">
-        <v>12861700</v>
+        <v>13471900</v>
       </c>
       <c r="F21" s="3">
-        <v>12307400</v>
+        <v>12891300</v>
       </c>
       <c r="G21" s="3">
-        <v>14276000</v>
+        <v>14953200</v>
       </c>
       <c r="H21" s="3">
-        <v>12686300</v>
+        <v>13288100</v>
       </c>
       <c r="I21" s="3">
-        <v>12283600</v>
+        <v>12866300</v>
       </c>
       <c r="J21" s="3">
-        <v>14467800</v>
+        <v>15154200</v>
       </c>
       <c r="K21" s="3">
         <v>14863100</v>
@@ -1338,25 +1338,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1137200</v>
+        <v>1191100</v>
       </c>
       <c r="E22" s="3">
-        <v>1127300</v>
+        <v>1180800</v>
       </c>
       <c r="F22" s="3">
-        <v>1082000</v>
+        <v>1133300</v>
       </c>
       <c r="G22" s="3">
-        <v>1103000</v>
+        <v>1155400</v>
       </c>
       <c r="H22" s="3">
-        <v>1116800</v>
+        <v>1169800</v>
       </c>
       <c r="I22" s="3">
-        <v>834600</v>
+        <v>874200</v>
       </c>
       <c r="J22" s="3">
-        <v>823500</v>
+        <v>862500</v>
       </c>
       <c r="K22" s="3">
         <v>798900</v>
@@ -1388,25 +1388,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1549700</v>
+        <v>-1623300</v>
       </c>
       <c r="E23" s="3">
-        <v>2979800</v>
+        <v>3121200</v>
       </c>
       <c r="F23" s="3">
-        <v>3038200</v>
+        <v>3182400</v>
       </c>
       <c r="G23" s="3">
-        <v>5400800</v>
+        <v>5657000</v>
       </c>
       <c r="H23" s="3">
-        <v>3568600</v>
+        <v>3737900</v>
       </c>
       <c r="I23" s="3">
-        <v>1928800</v>
+        <v>2020300</v>
       </c>
       <c r="J23" s="3">
-        <v>6071300</v>
+        <v>6359400</v>
       </c>
       <c r="K23" s="3">
         <v>5233200</v>
@@ -1438,25 +1438,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>388900</v>
+        <v>407400</v>
       </c>
       <c r="E24" s="3">
-        <v>1013400</v>
+        <v>1061500</v>
       </c>
       <c r="F24" s="3">
-        <v>956000</v>
+        <v>1001400</v>
       </c>
       <c r="G24" s="3">
-        <v>2047600</v>
+        <v>2144700</v>
       </c>
       <c r="H24" s="3">
-        <v>1240100</v>
+        <v>1299000</v>
       </c>
       <c r="I24" s="3">
-        <v>662500</v>
+        <v>694000</v>
       </c>
       <c r="J24" s="3">
-        <v>2201800</v>
+        <v>2306300</v>
       </c>
       <c r="K24" s="3">
         <v>1957500</v>
@@ -1538,25 +1538,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1938700</v>
+        <v>-2030600</v>
       </c>
       <c r="E26" s="3">
-        <v>1966400</v>
+        <v>2059700</v>
       </c>
       <c r="F26" s="3">
-        <v>2082200</v>
+        <v>2180900</v>
       </c>
       <c r="G26" s="3">
-        <v>3353200</v>
+        <v>3512300</v>
       </c>
       <c r="H26" s="3">
-        <v>2328500</v>
+        <v>2438900</v>
       </c>
       <c r="I26" s="3">
-        <v>1266300</v>
+        <v>1326300</v>
       </c>
       <c r="J26" s="3">
-        <v>3869500</v>
+        <v>4053100</v>
       </c>
       <c r="K26" s="3">
         <v>3275800</v>
@@ -1588,25 +1588,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-2357100</v>
+        <v>-2468900</v>
       </c>
       <c r="E27" s="3">
-        <v>1224100</v>
+        <v>1282200</v>
       </c>
       <c r="F27" s="3">
-        <v>1282400</v>
+        <v>1343200</v>
       </c>
       <c r="G27" s="3">
-        <v>2638500</v>
+        <v>2763700</v>
       </c>
       <c r="H27" s="3">
-        <v>1488500</v>
+        <v>1559100</v>
       </c>
       <c r="I27" s="3">
-        <v>635400</v>
+        <v>665500</v>
       </c>
       <c r="J27" s="3">
-        <v>3081800</v>
+        <v>3228000</v>
       </c>
       <c r="K27" s="3">
         <v>2419600</v>
@@ -1838,25 +1838,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-78100</v>
+        <v>-81800</v>
       </c>
       <c r="E32" s="3">
-        <v>-276100</v>
+        <v>-289200</v>
       </c>
       <c r="F32" s="3">
-        <v>-530100</v>
+        <v>-555200</v>
       </c>
       <c r="G32" s="3">
-        <v>-516600</v>
+        <v>-541100</v>
       </c>
       <c r="H32" s="3">
-        <v>-400000</v>
+        <v>-418900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1196500</v>
+        <v>-1253300</v>
       </c>
       <c r="J32" s="3">
-        <v>-391500</v>
+        <v>-410100</v>
       </c>
       <c r="K32" s="3">
         <v>-526900</v>
@@ -1888,25 +1888,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-2357100</v>
+        <v>-2468900</v>
       </c>
       <c r="E33" s="3">
-        <v>1224100</v>
+        <v>1282200</v>
       </c>
       <c r="F33" s="3">
-        <v>1282400</v>
+        <v>1343200</v>
       </c>
       <c r="G33" s="3">
-        <v>2638500</v>
+        <v>2763700</v>
       </c>
       <c r="H33" s="3">
-        <v>1488500</v>
+        <v>1559100</v>
       </c>
       <c r="I33" s="3">
-        <v>635400</v>
+        <v>665500</v>
       </c>
       <c r="J33" s="3">
-        <v>3081800</v>
+        <v>3228000</v>
       </c>
       <c r="K33" s="3">
         <v>2419600</v>
@@ -1988,25 +1988,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-2357100</v>
+        <v>-2468900</v>
       </c>
       <c r="E35" s="3">
-        <v>1224100</v>
+        <v>1282200</v>
       </c>
       <c r="F35" s="3">
-        <v>1282400</v>
+        <v>1343200</v>
       </c>
       <c r="G35" s="3">
-        <v>2638500</v>
+        <v>2763700</v>
       </c>
       <c r="H35" s="3">
-        <v>1488500</v>
+        <v>1559100</v>
       </c>
       <c r="I35" s="3">
-        <v>635400</v>
+        <v>665500</v>
       </c>
       <c r="J35" s="3">
-        <v>3081800</v>
+        <v>3228000</v>
       </c>
       <c r="K35" s="3">
         <v>2419600</v>
@@ -2133,25 +2133,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>11227000</v>
+        <v>11759600</v>
       </c>
       <c r="E41" s="3">
-        <v>12549200</v>
+        <v>13144500</v>
       </c>
       <c r="F41" s="3">
-        <v>16203200</v>
+        <v>16971900</v>
       </c>
       <c r="G41" s="3">
-        <v>13163600</v>
+        <v>13788200</v>
       </c>
       <c r="H41" s="3">
-        <v>16848700</v>
+        <v>17648000</v>
       </c>
       <c r="I41" s="3">
-        <v>12483100</v>
+        <v>13075300</v>
       </c>
       <c r="J41" s="3">
-        <v>22432200</v>
+        <v>23496500</v>
       </c>
       <c r="K41" s="3">
         <v>16442100</v>
@@ -2183,25 +2183,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3110400</v>
+        <v>3258000</v>
       </c>
       <c r="E42" s="3">
-        <v>3522700</v>
+        <v>3689800</v>
       </c>
       <c r="F42" s="3">
-        <v>5246100</v>
+        <v>5495000</v>
       </c>
       <c r="G42" s="3">
-        <v>3224800</v>
+        <v>3377800</v>
       </c>
       <c r="H42" s="3">
-        <v>1171600</v>
+        <v>1227200</v>
       </c>
       <c r="I42" s="3">
-        <v>1384800</v>
+        <v>1450500</v>
       </c>
       <c r="J42" s="3">
-        <v>1804800</v>
+        <v>1890400</v>
       </c>
       <c r="K42" s="3">
         <v>1549600</v>
@@ -2233,25 +2233,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>12419900</v>
+        <v>13009200</v>
       </c>
       <c r="E43" s="3">
-        <v>10340400</v>
+        <v>10830900</v>
       </c>
       <c r="F43" s="3">
-        <v>12670900</v>
+        <v>13272000</v>
       </c>
       <c r="G43" s="3">
-        <v>12019200</v>
+        <v>12589500</v>
       </c>
       <c r="H43" s="3">
-        <v>13300300</v>
+        <v>13931300</v>
       </c>
       <c r="I43" s="3">
-        <v>11012800</v>
+        <v>11535300</v>
       </c>
       <c r="J43" s="3">
-        <v>12753100</v>
+        <v>13358100</v>
       </c>
       <c r="K43" s="3">
         <v>12206500</v>
@@ -2283,25 +2283,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>26993900</v>
+        <v>28274500</v>
       </c>
       <c r="E44" s="3">
-        <v>26420400</v>
+        <v>27673800</v>
       </c>
       <c r="F44" s="3">
-        <v>24394700</v>
+        <v>25552100</v>
       </c>
       <c r="G44" s="3">
-        <v>25468100</v>
+        <v>26676400</v>
       </c>
       <c r="H44" s="3">
-        <v>24681400</v>
+        <v>25852300</v>
       </c>
       <c r="I44" s="3">
-        <v>25789500</v>
+        <v>27013000</v>
       </c>
       <c r="J44" s="3">
-        <v>25698400</v>
+        <v>26917600</v>
       </c>
       <c r="K44" s="3">
         <v>22366700</v>
@@ -2333,25 +2333,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>17035900</v>
+        <v>17844100</v>
       </c>
       <c r="E45" s="3">
-        <v>14977100</v>
+        <v>15687700</v>
       </c>
       <c r="F45" s="3">
-        <v>17119400</v>
+        <v>17931600</v>
       </c>
       <c r="G45" s="3">
-        <v>16036900</v>
+        <v>16797700</v>
       </c>
       <c r="H45" s="3">
-        <v>16487800</v>
+        <v>17270000</v>
       </c>
       <c r="I45" s="3">
-        <v>12975600</v>
+        <v>13591200</v>
       </c>
       <c r="J45" s="3">
-        <v>14996200</v>
+        <v>15707600</v>
       </c>
       <c r="K45" s="3">
         <v>12447100</v>
@@ -2383,25 +2383,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>70787100</v>
+        <v>74145400</v>
       </c>
       <c r="E46" s="3">
-        <v>67809800</v>
+        <v>71026800</v>
       </c>
       <c r="F46" s="3">
-        <v>75634300</v>
+        <v>79222600</v>
       </c>
       <c r="G46" s="3">
-        <v>69912700</v>
+        <v>73229500</v>
       </c>
       <c r="H46" s="3">
-        <v>72489800</v>
+        <v>75928900</v>
       </c>
       <c r="I46" s="3">
-        <v>63645700</v>
+        <v>66665200</v>
       </c>
       <c r="J46" s="3">
-        <v>77684700</v>
+        <v>81370200</v>
       </c>
       <c r="K46" s="3">
         <v>65012000</v>
@@ -2433,25 +2433,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>15445900</v>
+        <v>16178700</v>
       </c>
       <c r="E47" s="3">
-        <v>14975400</v>
+        <v>15685900</v>
       </c>
       <c r="F47" s="3">
-        <v>14514700</v>
+        <v>15203300</v>
       </c>
       <c r="G47" s="3">
-        <v>13777200</v>
+        <v>14430900</v>
       </c>
       <c r="H47" s="3">
-        <v>13903400</v>
+        <v>14563100</v>
       </c>
       <c r="I47" s="3">
-        <v>13535600</v>
+        <v>14177700</v>
       </c>
       <c r="J47" s="3">
-        <v>13093200</v>
+        <v>13714400</v>
       </c>
       <c r="K47" s="3">
         <v>12302800</v>
@@ -2483,25 +2483,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>290888300</v>
+        <v>304688600</v>
       </c>
       <c r="E48" s="3">
-        <v>295972900</v>
+        <v>310014500</v>
       </c>
       <c r="F48" s="3">
-        <v>283229300</v>
+        <v>296666200</v>
       </c>
       <c r="G48" s="3">
-        <v>280613100</v>
+        <v>293926000</v>
       </c>
       <c r="H48" s="3">
-        <v>278351900</v>
+        <v>291557500</v>
       </c>
       <c r="I48" s="3">
-        <v>248254400</v>
+        <v>260032100</v>
       </c>
       <c r="J48" s="3">
-        <v>240855500</v>
+        <v>252282200</v>
       </c>
       <c r="K48" s="3">
         <v>232003200</v>
@@ -2533,25 +2533,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>14727600</v>
+        <v>15426300</v>
       </c>
       <c r="E49" s="3">
-        <v>14619300</v>
+        <v>15312900</v>
       </c>
       <c r="F49" s="3">
-        <v>15082400</v>
+        <v>15798000</v>
       </c>
       <c r="G49" s="3">
-        <v>14815800</v>
+        <v>15518700</v>
       </c>
       <c r="H49" s="3">
-        <v>14188000</v>
+        <v>14861100</v>
       </c>
       <c r="I49" s="3">
-        <v>14277400</v>
+        <v>14954800</v>
       </c>
       <c r="J49" s="3">
-        <v>15033500</v>
+        <v>15746700</v>
       </c>
       <c r="K49" s="3">
         <v>14140200</v>
@@ -2683,25 +2683,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>4197300</v>
+        <v>4396400</v>
       </c>
       <c r="E52" s="3">
-        <v>3523100</v>
+        <v>3690300</v>
       </c>
       <c r="F52" s="3">
-        <v>3794100</v>
+        <v>3974100</v>
       </c>
       <c r="G52" s="3">
-        <v>3923800</v>
+        <v>4110000</v>
       </c>
       <c r="H52" s="3">
-        <v>3626000</v>
+        <v>3798000</v>
       </c>
       <c r="I52" s="3">
-        <v>14775400</v>
+        <v>15476400</v>
       </c>
       <c r="J52" s="3">
-        <v>13977700</v>
+        <v>14640800</v>
       </c>
       <c r="K52" s="3">
         <v>13570900</v>
@@ -2783,25 +2783,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>396046300</v>
+        <v>414835500</v>
       </c>
       <c r="E54" s="3">
-        <v>396900500</v>
+        <v>415730300</v>
       </c>
       <c r="F54" s="3">
-        <v>392254900</v>
+        <v>410864300</v>
       </c>
       <c r="G54" s="3">
-        <v>383042700</v>
+        <v>401215000</v>
       </c>
       <c r="H54" s="3">
-        <v>382559100</v>
+        <v>400708400</v>
       </c>
       <c r="I54" s="3">
-        <v>354488600</v>
+        <v>371306200</v>
       </c>
       <c r="J54" s="3">
-        <v>360644600</v>
+        <v>377754300</v>
       </c>
       <c r="K54" s="3">
         <v>337029000</v>
@@ -2873,25 +2873,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>42451000</v>
+        <v>44465000</v>
       </c>
       <c r="E57" s="3">
-        <v>47681000</v>
+        <v>49943100</v>
       </c>
       <c r="F57" s="3">
-        <v>48930000</v>
+        <v>51251400</v>
       </c>
       <c r="G57" s="3">
-        <v>45323700</v>
+        <v>47473900</v>
       </c>
       <c r="H57" s="3">
-        <v>41726800</v>
+        <v>43706400</v>
       </c>
       <c r="I57" s="3">
-        <v>43546900</v>
+        <v>45612900</v>
       </c>
       <c r="J57" s="3">
-        <v>48667000</v>
+        <v>50975900</v>
       </c>
       <c r="K57" s="3">
         <v>42546300</v>
@@ -2923,25 +2923,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>42312300</v>
+        <v>44319700</v>
       </c>
       <c r="E58" s="3">
-        <v>26610900</v>
+        <v>27873400</v>
       </c>
       <c r="F58" s="3">
-        <v>25730400</v>
+        <v>26951100</v>
       </c>
       <c r="G58" s="3">
-        <v>24320800</v>
+        <v>25474600</v>
       </c>
       <c r="H58" s="3">
-        <v>19677200</v>
+        <v>20610700</v>
       </c>
       <c r="I58" s="3">
-        <v>21080100</v>
+        <v>22080200</v>
       </c>
       <c r="J58" s="3">
-        <v>22046200</v>
+        <v>23092100</v>
       </c>
       <c r="K58" s="3">
         <v>20725700</v>
@@ -2973,25 +2973,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>18635300</v>
+        <v>19519400</v>
       </c>
       <c r="E59" s="3">
-        <v>21765900</v>
+        <v>22798500</v>
       </c>
       <c r="F59" s="3">
-        <v>19521500</v>
+        <v>20447700</v>
       </c>
       <c r="G59" s="3">
-        <v>17829700</v>
+        <v>18675600</v>
       </c>
       <c r="H59" s="3">
-        <v>21039200</v>
+        <v>22037300</v>
       </c>
       <c r="I59" s="3">
-        <v>21992500</v>
+        <v>23035800</v>
       </c>
       <c r="J59" s="3">
-        <v>19885300</v>
+        <v>20828700</v>
       </c>
       <c r="K59" s="3">
         <v>15928600</v>
@@ -3023,25 +3023,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>103398700</v>
+        <v>108304100</v>
       </c>
       <c r="E60" s="3">
-        <v>96057900</v>
+        <v>100615100</v>
       </c>
       <c r="F60" s="3">
-        <v>94181900</v>
+        <v>98650100</v>
       </c>
       <c r="G60" s="3">
-        <v>87474200</v>
+        <v>91624200</v>
       </c>
       <c r="H60" s="3">
-        <v>82443100</v>
+        <v>86354400</v>
       </c>
       <c r="I60" s="3">
-        <v>86619500</v>
+        <v>90728900</v>
       </c>
       <c r="J60" s="3">
-        <v>90598500</v>
+        <v>94896700</v>
       </c>
       <c r="K60" s="3">
         <v>79200600</v>
@@ -3073,25 +3073,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>59968100</v>
+        <v>62813100</v>
       </c>
       <c r="E61" s="3">
-        <v>66083300</v>
+        <v>69218400</v>
       </c>
       <c r="F61" s="3">
-        <v>65462100</v>
+        <v>68567800</v>
       </c>
       <c r="G61" s="3">
-        <v>64056300</v>
+        <v>67095300</v>
       </c>
       <c r="H61" s="3">
-        <v>68870400</v>
+        <v>72137700</v>
       </c>
       <c r="I61" s="3">
-        <v>39128200</v>
+        <v>40984500</v>
       </c>
       <c r="J61" s="3">
-        <v>40794700</v>
+        <v>42730100</v>
       </c>
       <c r="K61" s="3">
         <v>39861900</v>
@@ -3123,25 +3123,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>25224900</v>
+        <v>26421600</v>
       </c>
       <c r="E62" s="3">
-        <v>25002900</v>
+        <v>26189100</v>
       </c>
       <c r="F62" s="3">
-        <v>24551900</v>
+        <v>25716600</v>
       </c>
       <c r="G62" s="3">
-        <v>24438100</v>
+        <v>25597500</v>
       </c>
       <c r="H62" s="3">
-        <v>24086700</v>
+        <v>25229400</v>
       </c>
       <c r="I62" s="3">
-        <v>24127600</v>
+        <v>25272300</v>
       </c>
       <c r="J62" s="3">
-        <v>23756300</v>
+        <v>24883300</v>
       </c>
       <c r="K62" s="3">
         <v>22023000</v>
@@ -3323,25 +3323,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>219996100</v>
+        <v>230433200</v>
       </c>
       <c r="E66" s="3">
-        <v>218245000</v>
+        <v>228598900</v>
       </c>
       <c r="F66" s="3">
-        <v>214311100</v>
+        <v>224478500</v>
       </c>
       <c r="G66" s="3">
-        <v>204891400</v>
+        <v>214611800</v>
       </c>
       <c r="H66" s="3">
-        <v>204522500</v>
+        <v>214225400</v>
       </c>
       <c r="I66" s="3">
-        <v>178210900</v>
+        <v>186665500</v>
       </c>
       <c r="J66" s="3">
-        <v>183834600</v>
+        <v>192556100</v>
       </c>
       <c r="K66" s="3">
         <v>167928300</v>
@@ -3593,25 +3593,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>149470000</v>
+        <v>156561100</v>
       </c>
       <c r="E72" s="3">
-        <v>152075400</v>
+        <v>159290200</v>
       </c>
       <c r="F72" s="3">
-        <v>151363600</v>
+        <v>158544600</v>
       </c>
       <c r="G72" s="3">
-        <v>151571200</v>
+        <v>158762000</v>
       </c>
       <c r="H72" s="3">
-        <v>151456400</v>
+        <v>158641800</v>
       </c>
       <c r="I72" s="3">
-        <v>178575400</v>
+        <v>187047400</v>
       </c>
       <c r="J72" s="3">
-        <v>150229800</v>
+        <v>157357000</v>
       </c>
       <c r="K72" s="3">
         <v>143485000</v>
@@ -3793,25 +3793,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>176050100</v>
+        <v>184402300</v>
       </c>
       <c r="E76" s="3">
-        <v>178655600</v>
+        <v>187131300</v>
       </c>
       <c r="F76" s="3">
-        <v>177943800</v>
+        <v>186385800</v>
       </c>
       <c r="G76" s="3">
-        <v>178151300</v>
+        <v>186603200</v>
       </c>
       <c r="H76" s="3">
-        <v>178036600</v>
+        <v>186483000</v>
       </c>
       <c r="I76" s="3">
-        <v>176277700</v>
+        <v>184640700</v>
       </c>
       <c r="J76" s="3">
-        <v>176810000</v>
+        <v>185198200</v>
       </c>
       <c r="K76" s="3">
         <v>169100700</v>
@@ -3948,25 +3948,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-2357100</v>
+        <v>-2468900</v>
       </c>
       <c r="E81" s="3">
-        <v>1224100</v>
+        <v>1282200</v>
       </c>
       <c r="F81" s="3">
-        <v>1282400</v>
+        <v>1343200</v>
       </c>
       <c r="G81" s="3">
-        <v>2638500</v>
+        <v>2763700</v>
       </c>
       <c r="H81" s="3">
-        <v>1488500</v>
+        <v>1559100</v>
       </c>
       <c r="I81" s="3">
-        <v>635400</v>
+        <v>665500</v>
       </c>
       <c r="J81" s="3">
-        <v>3081800</v>
+        <v>3228000</v>
       </c>
       <c r="K81" s="3">
         <v>2419600</v>
@@ -4018,25 +4018,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>8397900</v>
+        <v>8796300</v>
       </c>
       <c r="E83" s="3">
-        <v>8754600</v>
+        <v>9169900</v>
       </c>
       <c r="F83" s="3">
-        <v>8187200</v>
+        <v>8575600</v>
       </c>
       <c r="G83" s="3">
-        <v>7772100</v>
+        <v>8140900</v>
       </c>
       <c r="H83" s="3">
-        <v>8000900</v>
+        <v>8380400</v>
       </c>
       <c r="I83" s="3">
-        <v>9520100</v>
+        <v>9971800</v>
       </c>
       <c r="J83" s="3">
-        <v>7573000</v>
+        <v>7932300</v>
       </c>
       <c r="K83" s="3">
         <v>8830900</v>
@@ -4318,25 +4318,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-2628100</v>
+        <v>-2752800</v>
       </c>
       <c r="E89" s="3">
-        <v>17458700</v>
+        <v>18287000</v>
       </c>
       <c r="F89" s="3">
-        <v>15244900</v>
+        <v>15968200</v>
       </c>
       <c r="G89" s="3">
-        <v>10515100</v>
+        <v>11013900</v>
       </c>
       <c r="H89" s="3">
-        <v>9007500</v>
+        <v>9434800</v>
       </c>
       <c r="I89" s="3">
-        <v>13681000</v>
+        <v>14330000</v>
       </c>
       <c r="J89" s="3">
-        <v>16147700</v>
+        <v>16913800</v>
       </c>
       <c r="K89" s="3">
         <v>12045700</v>
@@ -4388,25 +4388,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-7103600</v>
+        <v>-7440600</v>
       </c>
       <c r="E91" s="3">
-        <v>-21105100</v>
+        <v>-22106400</v>
       </c>
       <c r="F91" s="3">
-        <v>-8018400</v>
+        <v>-8398800</v>
       </c>
       <c r="G91" s="3">
-        <v>-8744300</v>
+        <v>-9159100</v>
       </c>
       <c r="H91" s="3">
-        <v>-8560100</v>
+        <v>-8966300</v>
       </c>
       <c r="I91" s="3">
-        <v>-17302700</v>
+        <v>-18123600</v>
       </c>
       <c r="J91" s="3">
-        <v>-7311500</v>
+        <v>-7658300</v>
       </c>
       <c r="K91" s="3">
         <v>-5684600</v>
@@ -4538,25 +4538,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-7261600</v>
+        <v>-7606200</v>
       </c>
       <c r="E94" s="3">
-        <v>-18234600</v>
+        <v>-19099700</v>
       </c>
       <c r="F94" s="3">
-        <v>-11243400</v>
+        <v>-11776800</v>
       </c>
       <c r="G94" s="3">
-        <v>-10357500</v>
+        <v>-10848900</v>
       </c>
       <c r="H94" s="3">
-        <v>-8518500</v>
+        <v>-8922600</v>
       </c>
       <c r="I94" s="3">
-        <v>-16554500</v>
+        <v>-17339900</v>
       </c>
       <c r="J94" s="3">
-        <v>-7879200</v>
+        <v>-8253000</v>
       </c>
       <c r="K94" s="3">
         <v>-7082300</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1900000</v>
+        <v>-1990200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2360600</v>
+        <v>-2472600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4623,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1770900</v>
+        <v>-1855000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2090400</v>
+        <v>-2189600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4808,25 +4808,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>8440900</v>
+        <v>8841400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2632300</v>
+        <v>-2757200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1333800</v>
+        <v>-1397100</v>
       </c>
       <c r="G100" s="3">
-        <v>-4102200</v>
+        <v>-4296800</v>
       </c>
       <c r="H100" s="3">
-        <v>4107000</v>
+        <v>4301800</v>
       </c>
       <c r="I100" s="3">
-        <v>-7089100</v>
+        <v>-7425400</v>
       </c>
       <c r="J100" s="3">
-        <v>-3211600</v>
+        <v>-3364000</v>
       </c>
       <c r="K100" s="3">
         <v>-6233700</v>
@@ -4858,25 +4858,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>126600</v>
+        <v>132600</v>
       </c>
       <c r="E101" s="3">
-        <v>-245700</v>
+        <v>-257400</v>
       </c>
       <c r="F101" s="3">
-        <v>371800</v>
+        <v>389400</v>
       </c>
       <c r="G101" s="3">
-        <v>175000</v>
+        <v>183300</v>
       </c>
       <c r="H101" s="3">
-        <v>-145800</v>
+        <v>-152700</v>
       </c>
       <c r="I101" s="3">
-        <v>-100100</v>
+        <v>-104800</v>
       </c>
       <c r="J101" s="3">
-        <v>374700</v>
+        <v>392500</v>
       </c>
       <c r="K101" s="3">
         <v>376900</v>
@@ -4908,25 +4908,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1322200</v>
+        <v>-1384900</v>
       </c>
       <c r="E102" s="3">
-        <v>-3654000</v>
+        <v>-3827300</v>
       </c>
       <c r="F102" s="3">
-        <v>3039500</v>
+        <v>3183700</v>
       </c>
       <c r="G102" s="3">
-        <v>-3736800</v>
+        <v>-3914000</v>
       </c>
       <c r="H102" s="3">
-        <v>4417300</v>
+        <v>4626900</v>
       </c>
       <c r="I102" s="3">
-        <v>-10008100</v>
+        <v>-10482900</v>
       </c>
       <c r="J102" s="3">
-        <v>5378300</v>
+        <v>5633500</v>
       </c>
       <c r="K102" s="3">
         <v>-1132700</v>

--- a/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
@@ -731,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>77444000</v>
+        <v>77780000</v>
       </c>
       <c r="E8" s="3">
-        <v>106850300</v>
+        <v>107313900</v>
       </c>
       <c r="F8" s="3">
-        <v>94031900</v>
+        <v>94439900</v>
       </c>
       <c r="G8" s="3">
-        <v>92065800</v>
+        <v>92465200</v>
       </c>
       <c r="H8" s="3">
-        <v>90483300</v>
+        <v>90875800</v>
       </c>
       <c r="I8" s="3">
-        <v>98606800</v>
+        <v>99034600</v>
       </c>
       <c r="J8" s="3">
-        <v>92349000</v>
+        <v>92749700</v>
       </c>
       <c r="K8" s="3">
         <v>80754500</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>53939500</v>
+        <v>54173500</v>
       </c>
       <c r="E9" s="3">
-        <v>72653600</v>
+        <v>72968800</v>
       </c>
       <c r="F9" s="3">
-        <v>64517700</v>
+        <v>64797700</v>
       </c>
       <c r="G9" s="3">
-        <v>61120000</v>
+        <v>61385200</v>
       </c>
       <c r="H9" s="3">
-        <v>60372300</v>
+        <v>60634300</v>
       </c>
       <c r="I9" s="3">
-        <v>66968900</v>
+        <v>67259400</v>
       </c>
       <c r="J9" s="3">
-        <v>58944200</v>
+        <v>59200000</v>
       </c>
       <c r="K9" s="3">
         <v>51298600</v>
@@ -831,25 +831,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23504500</v>
+        <v>23606500</v>
       </c>
       <c r="E10" s="3">
-        <v>34196700</v>
+        <v>34345100</v>
       </c>
       <c r="F10" s="3">
-        <v>29514200</v>
+        <v>29642200</v>
       </c>
       <c r="G10" s="3">
-        <v>30945800</v>
+        <v>31080000</v>
       </c>
       <c r="H10" s="3">
-        <v>30110900</v>
+        <v>30241600</v>
       </c>
       <c r="I10" s="3">
-        <v>31637900</v>
+        <v>31775200</v>
       </c>
       <c r="J10" s="3">
-        <v>33404800</v>
+        <v>33549700</v>
       </c>
       <c r="K10" s="3">
         <v>29456000</v>
@@ -901,25 +901,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1147400</v>
+        <v>1152400</v>
       </c>
       <c r="E12" s="3">
-        <v>621100</v>
+        <v>623800</v>
       </c>
       <c r="F12" s="3">
-        <v>673100</v>
+        <v>676100</v>
       </c>
       <c r="G12" s="3">
-        <v>922600</v>
+        <v>926600</v>
       </c>
       <c r="H12" s="3">
-        <v>943400</v>
+        <v>947500</v>
       </c>
       <c r="I12" s="3">
-        <v>412100</v>
+        <v>413900</v>
       </c>
       <c r="J12" s="3">
-        <v>799800</v>
+        <v>803300</v>
       </c>
       <c r="K12" s="3">
         <v>638400</v>
@@ -1051,25 +1051,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>8796300</v>
+        <v>8834500</v>
       </c>
       <c r="E15" s="3">
-        <v>9169900</v>
+        <v>9209700</v>
       </c>
       <c r="F15" s="3">
-        <v>8575600</v>
+        <v>8612800</v>
       </c>
       <c r="G15" s="3">
-        <v>8153200</v>
+        <v>8188500</v>
       </c>
       <c r="H15" s="3">
-        <v>8380400</v>
+        <v>8416800</v>
       </c>
       <c r="I15" s="3">
-        <v>9971800</v>
+        <v>10015000</v>
       </c>
       <c r="J15" s="3">
-        <v>7932300</v>
+        <v>7966700</v>
       </c>
       <c r="K15" s="3">
         <v>8830900</v>
@@ -1118,25 +1118,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>77958000</v>
+        <v>78296200</v>
       </c>
       <c r="E17" s="3">
-        <v>102837500</v>
+        <v>103283700</v>
       </c>
       <c r="F17" s="3">
-        <v>90271500</v>
+        <v>90663200</v>
       </c>
       <c r="G17" s="3">
-        <v>85794500</v>
+        <v>86166700</v>
       </c>
       <c r="H17" s="3">
-        <v>85994500</v>
+        <v>86367600</v>
       </c>
       <c r="I17" s="3">
-        <v>96965500</v>
+        <v>97386200</v>
       </c>
       <c r="J17" s="3">
-        <v>85537200</v>
+        <v>85908300</v>
       </c>
       <c r="K17" s="3">
         <v>75249400</v>
@@ -1168,25 +1168,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-514000</v>
+        <v>-516200</v>
       </c>
       <c r="E18" s="3">
-        <v>4012800</v>
+        <v>4030200</v>
       </c>
       <c r="F18" s="3">
-        <v>3760400</v>
+        <v>3776700</v>
       </c>
       <c r="G18" s="3">
-        <v>6271300</v>
+        <v>6298500</v>
       </c>
       <c r="H18" s="3">
-        <v>4488800</v>
+        <v>4508200</v>
       </c>
       <c r="I18" s="3">
-        <v>1641200</v>
+        <v>1648300</v>
       </c>
       <c r="J18" s="3">
-        <v>6811800</v>
+        <v>6841300</v>
       </c>
       <c r="K18" s="3">
         <v>5505200</v>
@@ -1238,25 +1238,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>81800</v>
+        <v>82200</v>
       </c>
       <c r="E20" s="3">
-        <v>289200</v>
+        <v>290400</v>
       </c>
       <c r="F20" s="3">
-        <v>555200</v>
+        <v>557600</v>
       </c>
       <c r="G20" s="3">
-        <v>541100</v>
+        <v>543400</v>
       </c>
       <c r="H20" s="3">
-        <v>418900</v>
+        <v>420800</v>
       </c>
       <c r="I20" s="3">
-        <v>1253300</v>
+        <v>1258800</v>
       </c>
       <c r="J20" s="3">
-        <v>410100</v>
+        <v>411900</v>
       </c>
       <c r="K20" s="3">
         <v>526900</v>
@@ -1288,25 +1288,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>8364200</v>
+        <v>8400500</v>
       </c>
       <c r="E21" s="3">
-        <v>13471900</v>
+        <v>13530300</v>
       </c>
       <c r="F21" s="3">
-        <v>12891300</v>
+        <v>12947200</v>
       </c>
       <c r="G21" s="3">
-        <v>14953200</v>
+        <v>15018100</v>
       </c>
       <c r="H21" s="3">
-        <v>13288100</v>
+        <v>13345800</v>
       </c>
       <c r="I21" s="3">
-        <v>12866300</v>
+        <v>12922100</v>
       </c>
       <c r="J21" s="3">
-        <v>15154200</v>
+        <v>15219900</v>
       </c>
       <c r="K21" s="3">
         <v>14863100</v>
@@ -1338,25 +1338,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1191100</v>
+        <v>1196300</v>
       </c>
       <c r="E22" s="3">
-        <v>1180800</v>
+        <v>1185900</v>
       </c>
       <c r="F22" s="3">
-        <v>1133300</v>
+        <v>1138200</v>
       </c>
       <c r="G22" s="3">
-        <v>1155400</v>
+        <v>1160400</v>
       </c>
       <c r="H22" s="3">
-        <v>1169800</v>
+        <v>1174900</v>
       </c>
       <c r="I22" s="3">
-        <v>874200</v>
+        <v>878000</v>
       </c>
       <c r="J22" s="3">
-        <v>862500</v>
+        <v>866300</v>
       </c>
       <c r="K22" s="3">
         <v>798900</v>
@@ -1388,25 +1388,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1623300</v>
+        <v>-1630300</v>
       </c>
       <c r="E23" s="3">
-        <v>3121200</v>
+        <v>3134700</v>
       </c>
       <c r="F23" s="3">
-        <v>3182400</v>
+        <v>3196200</v>
       </c>
       <c r="G23" s="3">
-        <v>5657000</v>
+        <v>5681600</v>
       </c>
       <c r="H23" s="3">
-        <v>3737900</v>
+        <v>3754100</v>
       </c>
       <c r="I23" s="3">
-        <v>2020300</v>
+        <v>2029100</v>
       </c>
       <c r="J23" s="3">
-        <v>6359400</v>
+        <v>6387000</v>
       </c>
       <c r="K23" s="3">
         <v>5233200</v>
@@ -1438,25 +1438,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>407400</v>
+        <v>409100</v>
       </c>
       <c r="E24" s="3">
-        <v>1061500</v>
+        <v>1066100</v>
       </c>
       <c r="F24" s="3">
-        <v>1001400</v>
+        <v>1005800</v>
       </c>
       <c r="G24" s="3">
-        <v>2144700</v>
+        <v>2154000</v>
       </c>
       <c r="H24" s="3">
-        <v>1299000</v>
+        <v>1304600</v>
       </c>
       <c r="I24" s="3">
-        <v>694000</v>
+        <v>697000</v>
       </c>
       <c r="J24" s="3">
-        <v>2306300</v>
+        <v>2316300</v>
       </c>
       <c r="K24" s="3">
         <v>1957500</v>
@@ -1538,25 +1538,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-2030600</v>
+        <v>-2039500</v>
       </c>
       <c r="E26" s="3">
-        <v>2059700</v>
+        <v>2068600</v>
       </c>
       <c r="F26" s="3">
-        <v>2180900</v>
+        <v>2190400</v>
       </c>
       <c r="G26" s="3">
-        <v>3512300</v>
+        <v>3527500</v>
       </c>
       <c r="H26" s="3">
-        <v>2438900</v>
+        <v>2449500</v>
       </c>
       <c r="I26" s="3">
-        <v>1326300</v>
+        <v>1332100</v>
       </c>
       <c r="J26" s="3">
-        <v>4053100</v>
+        <v>4070700</v>
       </c>
       <c r="K26" s="3">
         <v>3275800</v>
@@ -1588,25 +1588,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-2468900</v>
+        <v>-2479600</v>
       </c>
       <c r="E27" s="3">
-        <v>1282200</v>
+        <v>1287800</v>
       </c>
       <c r="F27" s="3">
-        <v>1343200</v>
+        <v>1349000</v>
       </c>
       <c r="G27" s="3">
-        <v>2763700</v>
+        <v>2775700</v>
       </c>
       <c r="H27" s="3">
-        <v>1559100</v>
+        <v>1565800</v>
       </c>
       <c r="I27" s="3">
-        <v>665500</v>
+        <v>668400</v>
       </c>
       <c r="J27" s="3">
-        <v>3228000</v>
+        <v>3242000</v>
       </c>
       <c r="K27" s="3">
         <v>2419600</v>
@@ -1838,25 +1838,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-81800</v>
+        <v>-82200</v>
       </c>
       <c r="E32" s="3">
-        <v>-289200</v>
+        <v>-290400</v>
       </c>
       <c r="F32" s="3">
-        <v>-555200</v>
+        <v>-557600</v>
       </c>
       <c r="G32" s="3">
-        <v>-541100</v>
+        <v>-543400</v>
       </c>
       <c r="H32" s="3">
-        <v>-418900</v>
+        <v>-420800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1253300</v>
+        <v>-1258800</v>
       </c>
       <c r="J32" s="3">
-        <v>-410100</v>
+        <v>-411900</v>
       </c>
       <c r="K32" s="3">
         <v>-526900</v>
@@ -1888,25 +1888,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-2468900</v>
+        <v>-2479600</v>
       </c>
       <c r="E33" s="3">
-        <v>1282200</v>
+        <v>1287800</v>
       </c>
       <c r="F33" s="3">
-        <v>1343200</v>
+        <v>1349000</v>
       </c>
       <c r="G33" s="3">
-        <v>2763700</v>
+        <v>2775700</v>
       </c>
       <c r="H33" s="3">
-        <v>1559100</v>
+        <v>1565800</v>
       </c>
       <c r="I33" s="3">
-        <v>665500</v>
+        <v>668400</v>
       </c>
       <c r="J33" s="3">
-        <v>3228000</v>
+        <v>3242000</v>
       </c>
       <c r="K33" s="3">
         <v>2419600</v>
@@ -1988,25 +1988,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-2468900</v>
+        <v>-2479600</v>
       </c>
       <c r="E35" s="3">
-        <v>1282200</v>
+        <v>1287800</v>
       </c>
       <c r="F35" s="3">
-        <v>1343200</v>
+        <v>1349000</v>
       </c>
       <c r="G35" s="3">
-        <v>2763700</v>
+        <v>2775700</v>
       </c>
       <c r="H35" s="3">
-        <v>1559100</v>
+        <v>1565800</v>
       </c>
       <c r="I35" s="3">
-        <v>665500</v>
+        <v>668400</v>
       </c>
       <c r="J35" s="3">
-        <v>3228000</v>
+        <v>3242000</v>
       </c>
       <c r="K35" s="3">
         <v>2419600</v>
@@ -2133,25 +2133,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>11759600</v>
+        <v>11810700</v>
       </c>
       <c r="E41" s="3">
-        <v>13144500</v>
+        <v>13201600</v>
       </c>
       <c r="F41" s="3">
-        <v>16971900</v>
+        <v>17045500</v>
       </c>
       <c r="G41" s="3">
-        <v>13788200</v>
+        <v>13848000</v>
       </c>
       <c r="H41" s="3">
-        <v>17648000</v>
+        <v>17724600</v>
       </c>
       <c r="I41" s="3">
-        <v>13075300</v>
+        <v>13132100</v>
       </c>
       <c r="J41" s="3">
-        <v>23496500</v>
+        <v>23598400</v>
       </c>
       <c r="K41" s="3">
         <v>16442100</v>
@@ -2183,25 +2183,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3258000</v>
+        <v>3272100</v>
       </c>
       <c r="E42" s="3">
-        <v>3689800</v>
+        <v>3705800</v>
       </c>
       <c r="F42" s="3">
-        <v>5495000</v>
+        <v>5518900</v>
       </c>
       <c r="G42" s="3">
-        <v>3377800</v>
+        <v>3392500</v>
       </c>
       <c r="H42" s="3">
-        <v>1227200</v>
+        <v>1232500</v>
       </c>
       <c r="I42" s="3">
-        <v>1450500</v>
+        <v>1456800</v>
       </c>
       <c r="J42" s="3">
-        <v>1890400</v>
+        <v>1898600</v>
       </c>
       <c r="K42" s="3">
         <v>1549600</v>
@@ -2233,25 +2233,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>13009200</v>
+        <v>13065600</v>
       </c>
       <c r="E43" s="3">
-        <v>10830900</v>
+        <v>10877900</v>
       </c>
       <c r="F43" s="3">
-        <v>13272000</v>
+        <v>13329600</v>
       </c>
       <c r="G43" s="3">
-        <v>12589500</v>
+        <v>12644100</v>
       </c>
       <c r="H43" s="3">
-        <v>13931300</v>
+        <v>13991700</v>
       </c>
       <c r="I43" s="3">
-        <v>11535300</v>
+        <v>11585300</v>
       </c>
       <c r="J43" s="3">
-        <v>13358100</v>
+        <v>13416100</v>
       </c>
       <c r="K43" s="3">
         <v>12206500</v>
@@ -2283,25 +2283,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>28274500</v>
+        <v>28397200</v>
       </c>
       <c r="E44" s="3">
-        <v>27673800</v>
+        <v>27793900</v>
       </c>
       <c r="F44" s="3">
-        <v>25552100</v>
+        <v>25662900</v>
       </c>
       <c r="G44" s="3">
-        <v>26676400</v>
+        <v>26792100</v>
       </c>
       <c r="H44" s="3">
-        <v>25852300</v>
+        <v>25964500</v>
       </c>
       <c r="I44" s="3">
-        <v>27013000</v>
+        <v>27130200</v>
       </c>
       <c r="J44" s="3">
-        <v>26917600</v>
+        <v>27034400</v>
       </c>
       <c r="K44" s="3">
         <v>22366700</v>
@@ -2333,25 +2333,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>17844100</v>
+        <v>17921600</v>
       </c>
       <c r="E45" s="3">
-        <v>15687700</v>
+        <v>15755700</v>
       </c>
       <c r="F45" s="3">
-        <v>17931600</v>
+        <v>18009400</v>
       </c>
       <c r="G45" s="3">
-        <v>16797700</v>
+        <v>16870600</v>
       </c>
       <c r="H45" s="3">
-        <v>17270000</v>
+        <v>17345000</v>
       </c>
       <c r="I45" s="3">
-        <v>13591200</v>
+        <v>13650100</v>
       </c>
       <c r="J45" s="3">
-        <v>15707600</v>
+        <v>15775800</v>
       </c>
       <c r="K45" s="3">
         <v>12447100</v>
@@ -2383,25 +2383,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>74145400</v>
+        <v>74467100</v>
       </c>
       <c r="E46" s="3">
-        <v>71026800</v>
+        <v>71335000</v>
       </c>
       <c r="F46" s="3">
-        <v>79222600</v>
+        <v>79566300</v>
       </c>
       <c r="G46" s="3">
-        <v>73229500</v>
+        <v>73547200</v>
       </c>
       <c r="H46" s="3">
-        <v>75928900</v>
+        <v>76258300</v>
       </c>
       <c r="I46" s="3">
-        <v>66665200</v>
+        <v>66954500</v>
       </c>
       <c r="J46" s="3">
-        <v>81370200</v>
+        <v>81723200</v>
       </c>
       <c r="K46" s="3">
         <v>65012000</v>
@@ -2433,25 +2433,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>16178700</v>
+        <v>16248900</v>
       </c>
       <c r="E47" s="3">
-        <v>15685900</v>
+        <v>15753900</v>
       </c>
       <c r="F47" s="3">
-        <v>15203300</v>
+        <v>15269300</v>
       </c>
       <c r="G47" s="3">
-        <v>14430900</v>
+        <v>14493500</v>
       </c>
       <c r="H47" s="3">
-        <v>14563100</v>
+        <v>14626200</v>
       </c>
       <c r="I47" s="3">
-        <v>14177700</v>
+        <v>14239200</v>
       </c>
       <c r="J47" s="3">
-        <v>13714400</v>
+        <v>13773900</v>
       </c>
       <c r="K47" s="3">
         <v>12302800</v>
@@ -2483,25 +2483,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>304688600</v>
+        <v>306010500</v>
       </c>
       <c r="E48" s="3">
-        <v>310014500</v>
+        <v>311359500</v>
       </c>
       <c r="F48" s="3">
-        <v>296666200</v>
+        <v>297953400</v>
       </c>
       <c r="G48" s="3">
-        <v>293926000</v>
+        <v>295201200</v>
       </c>
       <c r="H48" s="3">
-        <v>291557500</v>
+        <v>292822400</v>
       </c>
       <c r="I48" s="3">
-        <v>260032100</v>
+        <v>261160300</v>
       </c>
       <c r="J48" s="3">
-        <v>252282200</v>
+        <v>253376800</v>
       </c>
       <c r="K48" s="3">
         <v>232003200</v>
@@ -2533,25 +2533,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>15426300</v>
+        <v>15493300</v>
       </c>
       <c r="E49" s="3">
-        <v>15312900</v>
+        <v>15379300</v>
       </c>
       <c r="F49" s="3">
-        <v>15798000</v>
+        <v>15866500</v>
       </c>
       <c r="G49" s="3">
-        <v>15518700</v>
+        <v>15586000</v>
       </c>
       <c r="H49" s="3">
-        <v>14861100</v>
+        <v>14925500</v>
       </c>
       <c r="I49" s="3">
-        <v>14954800</v>
+        <v>15019600</v>
       </c>
       <c r="J49" s="3">
-        <v>15746700</v>
+        <v>15815000</v>
       </c>
       <c r="K49" s="3">
         <v>14140200</v>
@@ -2683,25 +2683,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>4396400</v>
+        <v>4415500</v>
       </c>
       <c r="E52" s="3">
-        <v>3690300</v>
+        <v>3706300</v>
       </c>
       <c r="F52" s="3">
-        <v>3974100</v>
+        <v>3991400</v>
       </c>
       <c r="G52" s="3">
-        <v>4110000</v>
+        <v>4127800</v>
       </c>
       <c r="H52" s="3">
-        <v>3798000</v>
+        <v>3814500</v>
       </c>
       <c r="I52" s="3">
-        <v>15476400</v>
+        <v>15543500</v>
       </c>
       <c r="J52" s="3">
-        <v>14640800</v>
+        <v>14704300</v>
       </c>
       <c r="K52" s="3">
         <v>13570900</v>
@@ -2783,25 +2783,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>414835500</v>
+        <v>416635300</v>
       </c>
       <c r="E54" s="3">
-        <v>415730300</v>
+        <v>417534000</v>
       </c>
       <c r="F54" s="3">
-        <v>410864300</v>
+        <v>412646900</v>
       </c>
       <c r="G54" s="3">
-        <v>401215000</v>
+        <v>402955700</v>
       </c>
       <c r="H54" s="3">
-        <v>400708400</v>
+        <v>402447000</v>
       </c>
       <c r="I54" s="3">
-        <v>371306200</v>
+        <v>372917200</v>
       </c>
       <c r="J54" s="3">
-        <v>377754300</v>
+        <v>379393200</v>
       </c>
       <c r="K54" s="3">
         <v>337029000</v>
@@ -2873,25 +2873,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>44465000</v>
+        <v>44657900</v>
       </c>
       <c r="E57" s="3">
-        <v>49943100</v>
+        <v>50159800</v>
       </c>
       <c r="F57" s="3">
-        <v>51251400</v>
+        <v>51473700</v>
       </c>
       <c r="G57" s="3">
-        <v>47473900</v>
+        <v>47679900</v>
       </c>
       <c r="H57" s="3">
-        <v>43706400</v>
+        <v>43896000</v>
       </c>
       <c r="I57" s="3">
-        <v>45612900</v>
+        <v>45810800</v>
       </c>
       <c r="J57" s="3">
-        <v>50975900</v>
+        <v>51197000</v>
       </c>
       <c r="K57" s="3">
         <v>42546300</v>
@@ -2923,25 +2923,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>44319700</v>
+        <v>44512000</v>
       </c>
       <c r="E58" s="3">
-        <v>27873400</v>
+        <v>27994300</v>
       </c>
       <c r="F58" s="3">
-        <v>26951100</v>
+        <v>27068000</v>
       </c>
       <c r="G58" s="3">
-        <v>25474600</v>
+        <v>25585100</v>
       </c>
       <c r="H58" s="3">
-        <v>20610700</v>
+        <v>20700200</v>
       </c>
       <c r="I58" s="3">
-        <v>22080200</v>
+        <v>22176000</v>
       </c>
       <c r="J58" s="3">
-        <v>23092100</v>
+        <v>23192300</v>
       </c>
       <c r="K58" s="3">
         <v>20725700</v>
@@ -2973,25 +2973,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>19519400</v>
+        <v>19604100</v>
       </c>
       <c r="E59" s="3">
-        <v>22798500</v>
+        <v>22897400</v>
       </c>
       <c r="F59" s="3">
-        <v>20447700</v>
+        <v>20536400</v>
       </c>
       <c r="G59" s="3">
-        <v>18675600</v>
+        <v>18756600</v>
       </c>
       <c r="H59" s="3">
-        <v>22037300</v>
+        <v>22132900</v>
       </c>
       <c r="I59" s="3">
-        <v>23035800</v>
+        <v>23135800</v>
       </c>
       <c r="J59" s="3">
-        <v>20828700</v>
+        <v>20919100</v>
       </c>
       <c r="K59" s="3">
         <v>15928600</v>
@@ -3023,25 +3023,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>108304100</v>
+        <v>108774000</v>
       </c>
       <c r="E60" s="3">
-        <v>100615100</v>
+        <v>101051600</v>
       </c>
       <c r="F60" s="3">
-        <v>98650100</v>
+        <v>99078100</v>
       </c>
       <c r="G60" s="3">
-        <v>91624200</v>
+        <v>92021700</v>
       </c>
       <c r="H60" s="3">
-        <v>86354400</v>
+        <v>86729100</v>
       </c>
       <c r="I60" s="3">
-        <v>90728900</v>
+        <v>91122600</v>
       </c>
       <c r="J60" s="3">
-        <v>94896700</v>
+        <v>95308400</v>
       </c>
       <c r="K60" s="3">
         <v>79200600</v>
@@ -3073,25 +3073,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>62813100</v>
+        <v>63085600</v>
       </c>
       <c r="E61" s="3">
-        <v>69218400</v>
+        <v>69518700</v>
       </c>
       <c r="F61" s="3">
-        <v>68567800</v>
+        <v>68865300</v>
       </c>
       <c r="G61" s="3">
-        <v>67095300</v>
+        <v>67386400</v>
       </c>
       <c r="H61" s="3">
-        <v>72137700</v>
+        <v>72450700</v>
       </c>
       <c r="I61" s="3">
-        <v>40984500</v>
+        <v>41162300</v>
       </c>
       <c r="J61" s="3">
-        <v>42730100</v>
+        <v>42915400</v>
       </c>
       <c r="K61" s="3">
         <v>39861900</v>
@@ -3123,25 +3123,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>26421600</v>
+        <v>26536200</v>
       </c>
       <c r="E62" s="3">
-        <v>26189100</v>
+        <v>26302800</v>
       </c>
       <c r="F62" s="3">
-        <v>25716600</v>
+        <v>25828200</v>
       </c>
       <c r="G62" s="3">
-        <v>25597500</v>
+        <v>25708600</v>
       </c>
       <c r="H62" s="3">
-        <v>25229400</v>
+        <v>25338900</v>
       </c>
       <c r="I62" s="3">
-        <v>25272300</v>
+        <v>25382000</v>
       </c>
       <c r="J62" s="3">
-        <v>24883300</v>
+        <v>24991300</v>
       </c>
       <c r="K62" s="3">
         <v>22023000</v>
@@ -3323,25 +3323,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>230433200</v>
+        <v>231433000</v>
       </c>
       <c r="E66" s="3">
-        <v>228598900</v>
+        <v>229590800</v>
       </c>
       <c r="F66" s="3">
-        <v>224478500</v>
+        <v>225452400</v>
       </c>
       <c r="G66" s="3">
-        <v>214611800</v>
+        <v>215542900</v>
       </c>
       <c r="H66" s="3">
-        <v>214225400</v>
+        <v>215154900</v>
       </c>
       <c r="I66" s="3">
-        <v>186665500</v>
+        <v>187475400</v>
       </c>
       <c r="J66" s="3">
-        <v>192556100</v>
+        <v>193391500</v>
       </c>
       <c r="K66" s="3">
         <v>167928300</v>
@@ -3593,25 +3593,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>156561100</v>
+        <v>157240400</v>
       </c>
       <c r="E72" s="3">
-        <v>159290200</v>
+        <v>159981300</v>
       </c>
       <c r="F72" s="3">
-        <v>158544600</v>
+        <v>159232500</v>
       </c>
       <c r="G72" s="3">
-        <v>158762000</v>
+        <v>159450800</v>
       </c>
       <c r="H72" s="3">
-        <v>158641800</v>
+        <v>159330100</v>
       </c>
       <c r="I72" s="3">
-        <v>187047400</v>
+        <v>187858900</v>
       </c>
       <c r="J72" s="3">
-        <v>157357000</v>
+        <v>158039800</v>
       </c>
       <c r="K72" s="3">
         <v>143485000</v>
@@ -3793,25 +3793,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>184402300</v>
+        <v>185202400</v>
       </c>
       <c r="E76" s="3">
-        <v>187131300</v>
+        <v>187943200</v>
       </c>
       <c r="F76" s="3">
-        <v>186385800</v>
+        <v>187194500</v>
       </c>
       <c r="G76" s="3">
-        <v>186603200</v>
+        <v>187412800</v>
       </c>
       <c r="H76" s="3">
-        <v>186483000</v>
+        <v>187292100</v>
       </c>
       <c r="I76" s="3">
-        <v>184640700</v>
+        <v>185441800</v>
       </c>
       <c r="J76" s="3">
-        <v>185198200</v>
+        <v>186001700</v>
       </c>
       <c r="K76" s="3">
         <v>169100700</v>
@@ -3948,25 +3948,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-2468900</v>
+        <v>-2479600</v>
       </c>
       <c r="E81" s="3">
-        <v>1282200</v>
+        <v>1287800</v>
       </c>
       <c r="F81" s="3">
-        <v>1343200</v>
+        <v>1349000</v>
       </c>
       <c r="G81" s="3">
-        <v>2763700</v>
+        <v>2775700</v>
       </c>
       <c r="H81" s="3">
-        <v>1559100</v>
+        <v>1565800</v>
       </c>
       <c r="I81" s="3">
-        <v>665500</v>
+        <v>668400</v>
       </c>
       <c r="J81" s="3">
-        <v>3228000</v>
+        <v>3242000</v>
       </c>
       <c r="K81" s="3">
         <v>2419600</v>
@@ -4018,25 +4018,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>8796300</v>
+        <v>8834500</v>
       </c>
       <c r="E83" s="3">
-        <v>9169900</v>
+        <v>9209700</v>
       </c>
       <c r="F83" s="3">
-        <v>8575600</v>
+        <v>8612800</v>
       </c>
       <c r="G83" s="3">
-        <v>8140900</v>
+        <v>8176200</v>
       </c>
       <c r="H83" s="3">
-        <v>8380400</v>
+        <v>8416800</v>
       </c>
       <c r="I83" s="3">
-        <v>9971800</v>
+        <v>10015000</v>
       </c>
       <c r="J83" s="3">
-        <v>7932300</v>
+        <v>7966700</v>
       </c>
       <c r="K83" s="3">
         <v>8830900</v>
@@ -4318,25 +4318,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-2752800</v>
+        <v>-2764700</v>
       </c>
       <c r="E89" s="3">
-        <v>18287000</v>
+        <v>18366300</v>
       </c>
       <c r="F89" s="3">
-        <v>15968200</v>
+        <v>16037500</v>
       </c>
       <c r="G89" s="3">
-        <v>11013900</v>
+        <v>11061700</v>
       </c>
       <c r="H89" s="3">
-        <v>9434800</v>
+        <v>9475700</v>
       </c>
       <c r="I89" s="3">
-        <v>14330000</v>
+        <v>14392200</v>
       </c>
       <c r="J89" s="3">
-        <v>16913800</v>
+        <v>16987100</v>
       </c>
       <c r="K89" s="3">
         <v>12045700</v>
@@ -4388,25 +4388,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-7440600</v>
+        <v>-7472900</v>
       </c>
       <c r="E91" s="3">
-        <v>-22106400</v>
+        <v>-22202300</v>
       </c>
       <c r="F91" s="3">
-        <v>-8398800</v>
+        <v>-8435300</v>
       </c>
       <c r="G91" s="3">
-        <v>-9159100</v>
+        <v>-9198900</v>
       </c>
       <c r="H91" s="3">
-        <v>-8966300</v>
+        <v>-9005200</v>
       </c>
       <c r="I91" s="3">
-        <v>-18123600</v>
+        <v>-18202200</v>
       </c>
       <c r="J91" s="3">
-        <v>-7658300</v>
+        <v>-7691600</v>
       </c>
       <c r="K91" s="3">
         <v>-5684600</v>
@@ -4538,25 +4538,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-7606200</v>
+        <v>-7639200</v>
       </c>
       <c r="E94" s="3">
-        <v>-19099700</v>
+        <v>-19182600</v>
       </c>
       <c r="F94" s="3">
-        <v>-11776800</v>
+        <v>-11827900</v>
       </c>
       <c r="G94" s="3">
-        <v>-10848900</v>
+        <v>-10896000</v>
       </c>
       <c r="H94" s="3">
-        <v>-8922600</v>
+        <v>-8961300</v>
       </c>
       <c r="I94" s="3">
-        <v>-17339900</v>
+        <v>-17415100</v>
       </c>
       <c r="J94" s="3">
-        <v>-8253000</v>
+        <v>-8288800</v>
       </c>
       <c r="K94" s="3">
         <v>-7082300</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1990200</v>
+        <v>-1998800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2472600</v>
+        <v>-2483300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4623,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1855000</v>
+        <v>-1863000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2189600</v>
+        <v>-2199100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4808,25 +4808,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>8841400</v>
+        <v>8879700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2757200</v>
+        <v>-2769100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1397100</v>
+        <v>-1403100</v>
       </c>
       <c r="G100" s="3">
-        <v>-4296800</v>
+        <v>-4315400</v>
       </c>
       <c r="H100" s="3">
-        <v>4301800</v>
+        <v>4320500</v>
       </c>
       <c r="I100" s="3">
-        <v>-7425400</v>
+        <v>-7457700</v>
       </c>
       <c r="J100" s="3">
-        <v>-3364000</v>
+        <v>-3378600</v>
       </c>
       <c r="K100" s="3">
         <v>-6233700</v>
@@ -4858,25 +4858,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>132600</v>
+        <v>133200</v>
       </c>
       <c r="E101" s="3">
-        <v>-257400</v>
+        <v>-258500</v>
       </c>
       <c r="F101" s="3">
-        <v>389400</v>
+        <v>391100</v>
       </c>
       <c r="G101" s="3">
-        <v>183300</v>
+        <v>184100</v>
       </c>
       <c r="H101" s="3">
-        <v>-152700</v>
+        <v>-153400</v>
       </c>
       <c r="I101" s="3">
-        <v>-104800</v>
+        <v>-105300</v>
       </c>
       <c r="J101" s="3">
-        <v>392500</v>
+        <v>394200</v>
       </c>
       <c r="K101" s="3">
         <v>376900</v>
@@ -4908,25 +4908,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1384900</v>
+        <v>-1390900</v>
       </c>
       <c r="E102" s="3">
-        <v>-3827300</v>
+        <v>-3843900</v>
       </c>
       <c r="F102" s="3">
-        <v>3183700</v>
+        <v>3197500</v>
       </c>
       <c r="G102" s="3">
-        <v>-3914000</v>
+        <v>-3931000</v>
       </c>
       <c r="H102" s="3">
-        <v>4626900</v>
+        <v>4647000</v>
       </c>
       <c r="I102" s="3">
-        <v>-10482900</v>
+        <v>-10528400</v>
       </c>
       <c r="J102" s="3">
-        <v>5633500</v>
+        <v>5657900</v>
       </c>
       <c r="K102" s="3">
         <v>-1132700</v>

--- a/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
@@ -731,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>77780000</v>
+        <v>79424400</v>
       </c>
       <c r="E8" s="3">
-        <v>107313900</v>
+        <v>109582700</v>
       </c>
       <c r="F8" s="3">
-        <v>94439900</v>
+        <v>96436500</v>
       </c>
       <c r="G8" s="3">
-        <v>92465200</v>
+        <v>94420100</v>
       </c>
       <c r="H8" s="3">
-        <v>90875800</v>
+        <v>92797100</v>
       </c>
       <c r="I8" s="3">
-        <v>99034600</v>
+        <v>101128300</v>
       </c>
       <c r="J8" s="3">
-        <v>92749700</v>
+        <v>94710600</v>
       </c>
       <c r="K8" s="3">
         <v>80754500</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>54173500</v>
+        <v>55318800</v>
       </c>
       <c r="E9" s="3">
-        <v>72968800</v>
+        <v>74511500</v>
       </c>
       <c r="F9" s="3">
-        <v>64797700</v>
+        <v>66167600</v>
       </c>
       <c r="G9" s="3">
-        <v>61385200</v>
+        <v>62682900</v>
       </c>
       <c r="H9" s="3">
-        <v>60634300</v>
+        <v>61916200</v>
       </c>
       <c r="I9" s="3">
-        <v>67259400</v>
+        <v>68681400</v>
       </c>
       <c r="J9" s="3">
-        <v>59200000</v>
+        <v>60451500</v>
       </c>
       <c r="K9" s="3">
         <v>51298600</v>
@@ -831,25 +831,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23606500</v>
+        <v>24105600</v>
       </c>
       <c r="E10" s="3">
-        <v>34345100</v>
+        <v>35071200</v>
       </c>
       <c r="F10" s="3">
-        <v>29642200</v>
+        <v>30268900</v>
       </c>
       <c r="G10" s="3">
-        <v>31080000</v>
+        <v>31737100</v>
       </c>
       <c r="H10" s="3">
-        <v>30241600</v>
+        <v>30880900</v>
       </c>
       <c r="I10" s="3">
-        <v>31775200</v>
+        <v>32447000</v>
       </c>
       <c r="J10" s="3">
-        <v>33549700</v>
+        <v>34259000</v>
       </c>
       <c r="K10" s="3">
         <v>29456000</v>
@@ -901,25 +901,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1152400</v>
+        <v>1176800</v>
       </c>
       <c r="E12" s="3">
-        <v>623800</v>
+        <v>637000</v>
       </c>
       <c r="F12" s="3">
-        <v>676100</v>
+        <v>690300</v>
       </c>
       <c r="G12" s="3">
-        <v>926600</v>
+        <v>946200</v>
       </c>
       <c r="H12" s="3">
-        <v>947500</v>
+        <v>967600</v>
       </c>
       <c r="I12" s="3">
-        <v>413900</v>
+        <v>422600</v>
       </c>
       <c r="J12" s="3">
-        <v>803300</v>
+        <v>820300</v>
       </c>
       <c r="K12" s="3">
         <v>638400</v>
@@ -1051,25 +1051,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>8834500</v>
+        <v>9021300</v>
       </c>
       <c r="E15" s="3">
-        <v>9209700</v>
+        <v>9404400</v>
       </c>
       <c r="F15" s="3">
-        <v>8612800</v>
+        <v>8794900</v>
       </c>
       <c r="G15" s="3">
-        <v>8188500</v>
+        <v>8361700</v>
       </c>
       <c r="H15" s="3">
-        <v>8416800</v>
+        <v>8594700</v>
       </c>
       <c r="I15" s="3">
-        <v>10015000</v>
+        <v>10226800</v>
       </c>
       <c r="J15" s="3">
-        <v>7966700</v>
+        <v>8135100</v>
       </c>
       <c r="K15" s="3">
         <v>8830900</v>
@@ -1118,25 +1118,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>78296200</v>
+        <v>79951500</v>
       </c>
       <c r="E17" s="3">
-        <v>103283700</v>
+        <v>105467300</v>
       </c>
       <c r="F17" s="3">
-        <v>90663200</v>
+        <v>92579900</v>
       </c>
       <c r="G17" s="3">
-        <v>86166700</v>
+        <v>87988400</v>
       </c>
       <c r="H17" s="3">
-        <v>86367600</v>
+        <v>88193500</v>
       </c>
       <c r="I17" s="3">
-        <v>97386200</v>
+        <v>99445100</v>
       </c>
       <c r="J17" s="3">
-        <v>85908300</v>
+        <v>87724600</v>
       </c>
       <c r="K17" s="3">
         <v>75249400</v>
@@ -1168,25 +1168,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-516200</v>
+        <v>-527200</v>
       </c>
       <c r="E18" s="3">
-        <v>4030200</v>
+        <v>4115400</v>
       </c>
       <c r="F18" s="3">
-        <v>3776700</v>
+        <v>3856600</v>
       </c>
       <c r="G18" s="3">
-        <v>6298500</v>
+        <v>6431700</v>
       </c>
       <c r="H18" s="3">
-        <v>4508200</v>
+        <v>4603500</v>
       </c>
       <c r="I18" s="3">
-        <v>1648300</v>
+        <v>1683200</v>
       </c>
       <c r="J18" s="3">
-        <v>6841300</v>
+        <v>6986000</v>
       </c>
       <c r="K18" s="3">
         <v>5505200</v>
@@ -1238,25 +1238,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>82200</v>
+        <v>83900</v>
       </c>
       <c r="E20" s="3">
-        <v>290400</v>
+        <v>296600</v>
       </c>
       <c r="F20" s="3">
-        <v>557600</v>
+        <v>569400</v>
       </c>
       <c r="G20" s="3">
-        <v>543400</v>
+        <v>554900</v>
       </c>
       <c r="H20" s="3">
-        <v>420800</v>
+        <v>429700</v>
       </c>
       <c r="I20" s="3">
-        <v>1258800</v>
+        <v>1285400</v>
       </c>
       <c r="J20" s="3">
-        <v>411900</v>
+        <v>420600</v>
       </c>
       <c r="K20" s="3">
         <v>526900</v>
@@ -1288,25 +1288,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>8400500</v>
+        <v>8578100</v>
       </c>
       <c r="E21" s="3">
-        <v>13530300</v>
+        <v>13816400</v>
       </c>
       <c r="F21" s="3">
-        <v>12947200</v>
+        <v>13220900</v>
       </c>
       <c r="G21" s="3">
-        <v>15018100</v>
+        <v>15335600</v>
       </c>
       <c r="H21" s="3">
-        <v>13345800</v>
+        <v>13627900</v>
       </c>
       <c r="I21" s="3">
-        <v>12922100</v>
+        <v>13195300</v>
       </c>
       <c r="J21" s="3">
-        <v>15219900</v>
+        <v>15541700</v>
       </c>
       <c r="K21" s="3">
         <v>14863100</v>
@@ -1338,25 +1338,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1196300</v>
+        <v>1221600</v>
       </c>
       <c r="E22" s="3">
-        <v>1185900</v>
+        <v>1210900</v>
       </c>
       <c r="F22" s="3">
-        <v>1138200</v>
+        <v>1162300</v>
       </c>
       <c r="G22" s="3">
-        <v>1160400</v>
+        <v>1184900</v>
       </c>
       <c r="H22" s="3">
-        <v>1174900</v>
+        <v>1199700</v>
       </c>
       <c r="I22" s="3">
-        <v>878000</v>
+        <v>896600</v>
       </c>
       <c r="J22" s="3">
-        <v>866300</v>
+        <v>884600</v>
       </c>
       <c r="K22" s="3">
         <v>798900</v>
@@ -1388,25 +1388,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1630300</v>
+        <v>-1664800</v>
       </c>
       <c r="E23" s="3">
-        <v>3134700</v>
+        <v>3201000</v>
       </c>
       <c r="F23" s="3">
-        <v>3196200</v>
+        <v>3263700</v>
       </c>
       <c r="G23" s="3">
-        <v>5681600</v>
+        <v>5801700</v>
       </c>
       <c r="H23" s="3">
-        <v>3754100</v>
+        <v>3833500</v>
       </c>
       <c r="I23" s="3">
-        <v>2029100</v>
+        <v>2072000</v>
       </c>
       <c r="J23" s="3">
-        <v>6387000</v>
+        <v>6522000</v>
       </c>
       <c r="K23" s="3">
         <v>5233200</v>
@@ -1438,25 +1438,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>409100</v>
+        <v>417800</v>
       </c>
       <c r="E24" s="3">
-        <v>1066100</v>
+        <v>1088600</v>
       </c>
       <c r="F24" s="3">
-        <v>1005800</v>
+        <v>1027000</v>
       </c>
       <c r="G24" s="3">
-        <v>2154000</v>
+        <v>2199600</v>
       </c>
       <c r="H24" s="3">
-        <v>1304600</v>
+        <v>1332200</v>
       </c>
       <c r="I24" s="3">
-        <v>697000</v>
+        <v>711700</v>
       </c>
       <c r="J24" s="3">
-        <v>2316300</v>
+        <v>2365300</v>
       </c>
       <c r="K24" s="3">
         <v>1957500</v>
@@ -1538,25 +1538,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-2039500</v>
+        <v>-2082600</v>
       </c>
       <c r="E26" s="3">
-        <v>2068600</v>
+        <v>2112400</v>
       </c>
       <c r="F26" s="3">
-        <v>2190400</v>
+        <v>2236700</v>
       </c>
       <c r="G26" s="3">
-        <v>3527500</v>
+        <v>3602100</v>
       </c>
       <c r="H26" s="3">
-        <v>2449500</v>
+        <v>2501300</v>
       </c>
       <c r="I26" s="3">
-        <v>1332100</v>
+        <v>1360300</v>
       </c>
       <c r="J26" s="3">
-        <v>4070700</v>
+        <v>4156700</v>
       </c>
       <c r="K26" s="3">
         <v>3275800</v>
@@ -1588,25 +1588,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-2479600</v>
+        <v>-2532000</v>
       </c>
       <c r="E27" s="3">
-        <v>1287800</v>
+        <v>1315000</v>
       </c>
       <c r="F27" s="3">
-        <v>1349000</v>
+        <v>1377600</v>
       </c>
       <c r="G27" s="3">
-        <v>2775700</v>
+        <v>2834400</v>
       </c>
       <c r="H27" s="3">
-        <v>1565800</v>
+        <v>1598900</v>
       </c>
       <c r="I27" s="3">
-        <v>668400</v>
+        <v>682500</v>
       </c>
       <c r="J27" s="3">
-        <v>3242000</v>
+        <v>3310500</v>
       </c>
       <c r="K27" s="3">
         <v>2419600</v>
@@ -1838,25 +1838,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-82200</v>
+        <v>-83900</v>
       </c>
       <c r="E32" s="3">
-        <v>-290400</v>
+        <v>-296600</v>
       </c>
       <c r="F32" s="3">
-        <v>-557600</v>
+        <v>-569400</v>
       </c>
       <c r="G32" s="3">
-        <v>-543400</v>
+        <v>-554900</v>
       </c>
       <c r="H32" s="3">
-        <v>-420800</v>
+        <v>-429700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1258800</v>
+        <v>-1285400</v>
       </c>
       <c r="J32" s="3">
-        <v>-411900</v>
+        <v>-420600</v>
       </c>
       <c r="K32" s="3">
         <v>-526900</v>
@@ -1888,25 +1888,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-2479600</v>
+        <v>-2532000</v>
       </c>
       <c r="E33" s="3">
-        <v>1287800</v>
+        <v>1315000</v>
       </c>
       <c r="F33" s="3">
-        <v>1349000</v>
+        <v>1377600</v>
       </c>
       <c r="G33" s="3">
-        <v>2775700</v>
+        <v>2834400</v>
       </c>
       <c r="H33" s="3">
-        <v>1565800</v>
+        <v>1598900</v>
       </c>
       <c r="I33" s="3">
-        <v>668400</v>
+        <v>682500</v>
       </c>
       <c r="J33" s="3">
-        <v>3242000</v>
+        <v>3310500</v>
       </c>
       <c r="K33" s="3">
         <v>2419600</v>
@@ -1988,25 +1988,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-2479600</v>
+        <v>-2532000</v>
       </c>
       <c r="E35" s="3">
-        <v>1287800</v>
+        <v>1315000</v>
       </c>
       <c r="F35" s="3">
-        <v>1349000</v>
+        <v>1377600</v>
       </c>
       <c r="G35" s="3">
-        <v>2775700</v>
+        <v>2834400</v>
       </c>
       <c r="H35" s="3">
-        <v>1565800</v>
+        <v>1598900</v>
       </c>
       <c r="I35" s="3">
-        <v>668400</v>
+        <v>682500</v>
       </c>
       <c r="J35" s="3">
-        <v>3242000</v>
+        <v>3310500</v>
       </c>
       <c r="K35" s="3">
         <v>2419600</v>
@@ -2133,25 +2133,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>11810700</v>
+        <v>12060400</v>
       </c>
       <c r="E41" s="3">
-        <v>13201600</v>
+        <v>13480700</v>
       </c>
       <c r="F41" s="3">
-        <v>17045500</v>
+        <v>17405900</v>
       </c>
       <c r="G41" s="3">
-        <v>13848000</v>
+        <v>14140700</v>
       </c>
       <c r="H41" s="3">
-        <v>17724600</v>
+        <v>18099300</v>
       </c>
       <c r="I41" s="3">
-        <v>13132100</v>
+        <v>13409700</v>
       </c>
       <c r="J41" s="3">
-        <v>23598400</v>
+        <v>24097300</v>
       </c>
       <c r="K41" s="3">
         <v>16442100</v>
@@ -2183,25 +2183,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3272100</v>
+        <v>3341300</v>
       </c>
       <c r="E42" s="3">
-        <v>3705800</v>
+        <v>3784200</v>
       </c>
       <c r="F42" s="3">
-        <v>5518900</v>
+        <v>5635500</v>
       </c>
       <c r="G42" s="3">
-        <v>3392500</v>
+        <v>3464200</v>
       </c>
       <c r="H42" s="3">
-        <v>1232500</v>
+        <v>1258500</v>
       </c>
       <c r="I42" s="3">
-        <v>1456800</v>
+        <v>1487600</v>
       </c>
       <c r="J42" s="3">
-        <v>1898600</v>
+        <v>1938700</v>
       </c>
       <c r="K42" s="3">
         <v>1549600</v>
@@ -2233,25 +2233,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>13065600</v>
+        <v>13341800</v>
       </c>
       <c r="E43" s="3">
-        <v>10877900</v>
+        <v>11107900</v>
       </c>
       <c r="F43" s="3">
-        <v>13329600</v>
+        <v>13611400</v>
       </c>
       <c r="G43" s="3">
-        <v>12644100</v>
+        <v>12911400</v>
       </c>
       <c r="H43" s="3">
-        <v>13991700</v>
+        <v>14287600</v>
       </c>
       <c r="I43" s="3">
-        <v>11585300</v>
+        <v>11830200</v>
       </c>
       <c r="J43" s="3">
-        <v>13416100</v>
+        <v>13699700</v>
       </c>
       <c r="K43" s="3">
         <v>12206500</v>
@@ -2283,25 +2283,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>28397200</v>
+        <v>28997600</v>
       </c>
       <c r="E44" s="3">
-        <v>27793900</v>
+        <v>28381500</v>
       </c>
       <c r="F44" s="3">
-        <v>25662900</v>
+        <v>26205500</v>
       </c>
       <c r="G44" s="3">
-        <v>26792100</v>
+        <v>27358500</v>
       </c>
       <c r="H44" s="3">
-        <v>25964500</v>
+        <v>26513400</v>
       </c>
       <c r="I44" s="3">
-        <v>27130200</v>
+        <v>27703800</v>
       </c>
       <c r="J44" s="3">
-        <v>27034400</v>
+        <v>27606000</v>
       </c>
       <c r="K44" s="3">
         <v>22366700</v>
@@ -2333,25 +2333,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>17921600</v>
+        <v>18300400</v>
       </c>
       <c r="E45" s="3">
-        <v>15755700</v>
+        <v>16088800</v>
       </c>
       <c r="F45" s="3">
-        <v>18009400</v>
+        <v>18390100</v>
       </c>
       <c r="G45" s="3">
-        <v>16870600</v>
+        <v>17227200</v>
       </c>
       <c r="H45" s="3">
-        <v>17345000</v>
+        <v>17711700</v>
       </c>
       <c r="I45" s="3">
-        <v>13650100</v>
+        <v>13938700</v>
       </c>
       <c r="J45" s="3">
-        <v>15775800</v>
+        <v>16109300</v>
       </c>
       <c r="K45" s="3">
         <v>12447100</v>
@@ -2383,25 +2383,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>74467100</v>
+        <v>76041500</v>
       </c>
       <c r="E46" s="3">
-        <v>71335000</v>
+        <v>72843100</v>
       </c>
       <c r="F46" s="3">
-        <v>79566300</v>
+        <v>81248400</v>
       </c>
       <c r="G46" s="3">
-        <v>73547200</v>
+        <v>75102100</v>
       </c>
       <c r="H46" s="3">
-        <v>76258300</v>
+        <v>77870500</v>
       </c>
       <c r="I46" s="3">
-        <v>66954500</v>
+        <v>68370000</v>
       </c>
       <c r="J46" s="3">
-        <v>81723200</v>
+        <v>83451000</v>
       </c>
       <c r="K46" s="3">
         <v>65012000</v>
@@ -2433,25 +2433,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>16248900</v>
+        <v>16592400</v>
       </c>
       <c r="E47" s="3">
-        <v>15753900</v>
+        <v>16087000</v>
       </c>
       <c r="F47" s="3">
-        <v>15269300</v>
+        <v>15592100</v>
       </c>
       <c r="G47" s="3">
-        <v>14493500</v>
+        <v>14799900</v>
       </c>
       <c r="H47" s="3">
-        <v>14626200</v>
+        <v>14935500</v>
       </c>
       <c r="I47" s="3">
-        <v>14239200</v>
+        <v>14540300</v>
       </c>
       <c r="J47" s="3">
-        <v>13773900</v>
+        <v>14065100</v>
       </c>
       <c r="K47" s="3">
         <v>12302800</v>
@@ -2483,25 +2483,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>306010500</v>
+        <v>312480100</v>
       </c>
       <c r="E48" s="3">
-        <v>311359500</v>
+        <v>317942100</v>
       </c>
       <c r="F48" s="3">
-        <v>297953400</v>
+        <v>304252600</v>
       </c>
       <c r="G48" s="3">
-        <v>295201200</v>
+        <v>301442200</v>
       </c>
       <c r="H48" s="3">
-        <v>292822400</v>
+        <v>299013100</v>
       </c>
       <c r="I48" s="3">
-        <v>261160300</v>
+        <v>266681600</v>
       </c>
       <c r="J48" s="3">
-        <v>253376800</v>
+        <v>258733500</v>
       </c>
       <c r="K48" s="3">
         <v>232003200</v>
@@ -2533,25 +2533,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>15493300</v>
+        <v>15820800</v>
       </c>
       <c r="E49" s="3">
-        <v>15379300</v>
+        <v>15704400</v>
       </c>
       <c r="F49" s="3">
-        <v>15866500</v>
+        <v>16202000</v>
       </c>
       <c r="G49" s="3">
-        <v>15586000</v>
+        <v>15915500</v>
       </c>
       <c r="H49" s="3">
-        <v>14925500</v>
+        <v>15241100</v>
       </c>
       <c r="I49" s="3">
-        <v>15019600</v>
+        <v>15337200</v>
       </c>
       <c r="J49" s="3">
-        <v>15815000</v>
+        <v>16149400</v>
       </c>
       <c r="K49" s="3">
         <v>14140200</v>
@@ -2683,25 +2683,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>4415500</v>
+        <v>4508800</v>
       </c>
       <c r="E52" s="3">
-        <v>3706300</v>
+        <v>3784600</v>
       </c>
       <c r="F52" s="3">
-        <v>3991400</v>
+        <v>4075800</v>
       </c>
       <c r="G52" s="3">
-        <v>4127800</v>
+        <v>4215100</v>
       </c>
       <c r="H52" s="3">
-        <v>3814500</v>
+        <v>3895100</v>
       </c>
       <c r="I52" s="3">
-        <v>15543500</v>
+        <v>15872100</v>
       </c>
       <c r="J52" s="3">
-        <v>14704300</v>
+        <v>15015200</v>
       </c>
       <c r="K52" s="3">
         <v>13570900</v>
@@ -2783,25 +2783,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>416635300</v>
+        <v>425443600</v>
       </c>
       <c r="E54" s="3">
-        <v>417534000</v>
+        <v>426361300</v>
       </c>
       <c r="F54" s="3">
-        <v>412646900</v>
+        <v>421370800</v>
       </c>
       <c r="G54" s="3">
-        <v>402955700</v>
+        <v>411474800</v>
       </c>
       <c r="H54" s="3">
-        <v>402447000</v>
+        <v>410955300</v>
       </c>
       <c r="I54" s="3">
-        <v>372917200</v>
+        <v>380801200</v>
       </c>
       <c r="J54" s="3">
-        <v>379393200</v>
+        <v>387414200</v>
       </c>
       <c r="K54" s="3">
         <v>337029000</v>
@@ -2873,25 +2873,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>44657900</v>
+        <v>45602000</v>
       </c>
       <c r="E57" s="3">
-        <v>50159800</v>
+        <v>51220300</v>
       </c>
       <c r="F57" s="3">
-        <v>51473700</v>
+        <v>52562000</v>
       </c>
       <c r="G57" s="3">
-        <v>47679900</v>
+        <v>48687900</v>
       </c>
       <c r="H57" s="3">
-        <v>43896000</v>
+        <v>44824000</v>
       </c>
       <c r="I57" s="3">
-        <v>45810800</v>
+        <v>46779300</v>
       </c>
       <c r="J57" s="3">
-        <v>51197000</v>
+        <v>52279400</v>
       </c>
       <c r="K57" s="3">
         <v>42546300</v>
@@ -2923,25 +2923,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>44512000</v>
+        <v>45453000</v>
       </c>
       <c r="E58" s="3">
-        <v>27994300</v>
+        <v>28586200</v>
       </c>
       <c r="F58" s="3">
-        <v>27068000</v>
+        <v>27640300</v>
       </c>
       <c r="G58" s="3">
-        <v>25585100</v>
+        <v>26126100</v>
       </c>
       <c r="H58" s="3">
-        <v>20700200</v>
+        <v>21137800</v>
       </c>
       <c r="I58" s="3">
-        <v>22176000</v>
+        <v>22644900</v>
       </c>
       <c r="J58" s="3">
-        <v>23192300</v>
+        <v>23682600</v>
       </c>
       <c r="K58" s="3">
         <v>20725700</v>
@@ -2973,25 +2973,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>19604100</v>
+        <v>20018600</v>
       </c>
       <c r="E59" s="3">
-        <v>22897400</v>
+        <v>23381500</v>
       </c>
       <c r="F59" s="3">
-        <v>20536400</v>
+        <v>20970600</v>
       </c>
       <c r="G59" s="3">
-        <v>18756600</v>
+        <v>19153200</v>
       </c>
       <c r="H59" s="3">
-        <v>22132900</v>
+        <v>22600900</v>
       </c>
       <c r="I59" s="3">
-        <v>23135800</v>
+        <v>23624900</v>
       </c>
       <c r="J59" s="3">
-        <v>20919100</v>
+        <v>21361400</v>
       </c>
       <c r="K59" s="3">
         <v>15928600</v>
@@ -3023,25 +3023,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>108774000</v>
+        <v>111073700</v>
       </c>
       <c r="E60" s="3">
-        <v>101051600</v>
+        <v>103188000</v>
       </c>
       <c r="F60" s="3">
-        <v>99078100</v>
+        <v>101172800</v>
       </c>
       <c r="G60" s="3">
-        <v>92021700</v>
+        <v>93967200</v>
       </c>
       <c r="H60" s="3">
-        <v>86729100</v>
+        <v>88562700</v>
       </c>
       <c r="I60" s="3">
-        <v>91122600</v>
+        <v>93049000</v>
       </c>
       <c r="J60" s="3">
-        <v>95308400</v>
+        <v>97323400</v>
       </c>
       <c r="K60" s="3">
         <v>79200600</v>
@@ -3073,25 +3073,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>63085600</v>
+        <v>64419300</v>
       </c>
       <c r="E61" s="3">
-        <v>69518700</v>
+        <v>70988500</v>
       </c>
       <c r="F61" s="3">
-        <v>68865300</v>
+        <v>70321200</v>
       </c>
       <c r="G61" s="3">
-        <v>67386400</v>
+        <v>68811000</v>
       </c>
       <c r="H61" s="3">
-        <v>72450700</v>
+        <v>73982400</v>
       </c>
       <c r="I61" s="3">
-        <v>41162300</v>
+        <v>42032500</v>
       </c>
       <c r="J61" s="3">
-        <v>42915400</v>
+        <v>43822700</v>
       </c>
       <c r="K61" s="3">
         <v>39861900</v>
@@ -3123,25 +3123,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>26536200</v>
+        <v>27097200</v>
       </c>
       <c r="E62" s="3">
-        <v>26302800</v>
+        <v>26858800</v>
       </c>
       <c r="F62" s="3">
-        <v>25828200</v>
+        <v>26374300</v>
       </c>
       <c r="G62" s="3">
-        <v>25708600</v>
+        <v>26252100</v>
       </c>
       <c r="H62" s="3">
-        <v>25338900</v>
+        <v>25874600</v>
       </c>
       <c r="I62" s="3">
-        <v>25382000</v>
+        <v>25918600</v>
       </c>
       <c r="J62" s="3">
-        <v>24991300</v>
+        <v>25519600</v>
       </c>
       <c r="K62" s="3">
         <v>22023000</v>
@@ -3323,25 +3323,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>231433000</v>
+        <v>236325800</v>
       </c>
       <c r="E66" s="3">
-        <v>229590800</v>
+        <v>234444700</v>
       </c>
       <c r="F66" s="3">
-        <v>225452400</v>
+        <v>230218800</v>
       </c>
       <c r="G66" s="3">
-        <v>215542900</v>
+        <v>220099800</v>
       </c>
       <c r="H66" s="3">
-        <v>215154900</v>
+        <v>219703600</v>
       </c>
       <c r="I66" s="3">
-        <v>187475400</v>
+        <v>191438900</v>
       </c>
       <c r="J66" s="3">
-        <v>193391500</v>
+        <v>197480100</v>
       </c>
       <c r="K66" s="3">
         <v>167928300</v>
@@ -3593,25 +3593,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>157240400</v>
+        <v>160564700</v>
       </c>
       <c r="E72" s="3">
-        <v>159981300</v>
+        <v>163363500</v>
       </c>
       <c r="F72" s="3">
-        <v>159232500</v>
+        <v>162598900</v>
       </c>
       <c r="G72" s="3">
-        <v>159450800</v>
+        <v>162821900</v>
       </c>
       <c r="H72" s="3">
-        <v>159330100</v>
+        <v>162698600</v>
       </c>
       <c r="I72" s="3">
-        <v>187858900</v>
+        <v>191830500</v>
       </c>
       <c r="J72" s="3">
-        <v>158039800</v>
+        <v>161381000</v>
       </c>
       <c r="K72" s="3">
         <v>143485000</v>
@@ -3793,25 +3793,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>185202400</v>
+        <v>189117800</v>
       </c>
       <c r="E76" s="3">
-        <v>187943200</v>
+        <v>191916600</v>
       </c>
       <c r="F76" s="3">
-        <v>187194500</v>
+        <v>191152000</v>
       </c>
       <c r="G76" s="3">
-        <v>187412800</v>
+        <v>191375000</v>
       </c>
       <c r="H76" s="3">
-        <v>187292100</v>
+        <v>191251700</v>
       </c>
       <c r="I76" s="3">
-        <v>185441800</v>
+        <v>189362300</v>
       </c>
       <c r="J76" s="3">
-        <v>186001700</v>
+        <v>189934100</v>
       </c>
       <c r="K76" s="3">
         <v>169100700</v>
@@ -3948,25 +3948,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-2479600</v>
+        <v>-2532000</v>
       </c>
       <c r="E81" s="3">
-        <v>1287800</v>
+        <v>1315000</v>
       </c>
       <c r="F81" s="3">
-        <v>1349000</v>
+        <v>1377600</v>
       </c>
       <c r="G81" s="3">
-        <v>2775700</v>
+        <v>2834400</v>
       </c>
       <c r="H81" s="3">
-        <v>1565800</v>
+        <v>1598900</v>
       </c>
       <c r="I81" s="3">
-        <v>668400</v>
+        <v>682500</v>
       </c>
       <c r="J81" s="3">
-        <v>3242000</v>
+        <v>3310500</v>
       </c>
       <c r="K81" s="3">
         <v>2419600</v>
@@ -4018,25 +4018,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>8834500</v>
+        <v>9021300</v>
       </c>
       <c r="E83" s="3">
-        <v>9209700</v>
+        <v>9404400</v>
       </c>
       <c r="F83" s="3">
-        <v>8612800</v>
+        <v>8794900</v>
       </c>
       <c r="G83" s="3">
-        <v>8176200</v>
+        <v>8349000</v>
       </c>
       <c r="H83" s="3">
-        <v>8416800</v>
+        <v>8594700</v>
       </c>
       <c r="I83" s="3">
-        <v>10015000</v>
+        <v>10226800</v>
       </c>
       <c r="J83" s="3">
-        <v>7966700</v>
+        <v>8135100</v>
       </c>
       <c r="K83" s="3">
         <v>8830900</v>
@@ -4318,25 +4318,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-2764700</v>
+        <v>-2823200</v>
       </c>
       <c r="E89" s="3">
-        <v>18366300</v>
+        <v>18754600</v>
       </c>
       <c r="F89" s="3">
-        <v>16037500</v>
+        <v>16376500</v>
       </c>
       <c r="G89" s="3">
-        <v>11061700</v>
+        <v>11295600</v>
       </c>
       <c r="H89" s="3">
-        <v>9475700</v>
+        <v>9676100</v>
       </c>
       <c r="I89" s="3">
-        <v>14392200</v>
+        <v>14696500</v>
       </c>
       <c r="J89" s="3">
-        <v>16987100</v>
+        <v>17346300</v>
       </c>
       <c r="K89" s="3">
         <v>12045700</v>
@@ -4388,25 +4388,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-7472900</v>
+        <v>-7630900</v>
       </c>
       <c r="E91" s="3">
-        <v>-22202300</v>
+        <v>-22671700</v>
       </c>
       <c r="F91" s="3">
-        <v>-8435300</v>
+        <v>-8613600</v>
       </c>
       <c r="G91" s="3">
-        <v>-9198900</v>
+        <v>-9393400</v>
       </c>
       <c r="H91" s="3">
-        <v>-9005200</v>
+        <v>-9195500</v>
       </c>
       <c r="I91" s="3">
-        <v>-18202200</v>
+        <v>-18587000</v>
       </c>
       <c r="J91" s="3">
-        <v>-7691600</v>
+        <v>-7854200</v>
       </c>
       <c r="K91" s="3">
         <v>-5684600</v>
@@ -4538,25 +4538,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-7639200</v>
+        <v>-7800700</v>
       </c>
       <c r="E94" s="3">
-        <v>-19182600</v>
+        <v>-19588100</v>
       </c>
       <c r="F94" s="3">
-        <v>-11827900</v>
+        <v>-12078000</v>
       </c>
       <c r="G94" s="3">
-        <v>-10896000</v>
+        <v>-11126300</v>
       </c>
       <c r="H94" s="3">
-        <v>-8961300</v>
+        <v>-9150800</v>
       </c>
       <c r="I94" s="3">
-        <v>-17415100</v>
+        <v>-17783300</v>
       </c>
       <c r="J94" s="3">
-        <v>-8288800</v>
+        <v>-8464000</v>
       </c>
       <c r="K94" s="3">
         <v>-7082300</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1998800</v>
+        <v>-2041100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2483300</v>
+        <v>-2535800</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4623,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1863000</v>
+        <v>-1902400</v>
       </c>
       <c r="J96" s="3">
-        <v>-2199100</v>
+        <v>-2245600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4808,25 +4808,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>8879700</v>
+        <v>9067500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2769100</v>
+        <v>-2827700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1403100</v>
+        <v>-1432800</v>
       </c>
       <c r="G100" s="3">
-        <v>-4315400</v>
+        <v>-4406700</v>
       </c>
       <c r="H100" s="3">
-        <v>4320500</v>
+        <v>4411800</v>
       </c>
       <c r="I100" s="3">
-        <v>-7457700</v>
+        <v>-7615300</v>
       </c>
       <c r="J100" s="3">
-        <v>-3378600</v>
+        <v>-3450000</v>
       </c>
       <c r="K100" s="3">
         <v>-6233700</v>
@@ -4858,25 +4858,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>133200</v>
+        <v>136000</v>
       </c>
       <c r="E101" s="3">
-        <v>-258500</v>
+        <v>-264000</v>
       </c>
       <c r="F101" s="3">
-        <v>391100</v>
+        <v>399400</v>
       </c>
       <c r="G101" s="3">
-        <v>184100</v>
+        <v>188000</v>
       </c>
       <c r="H101" s="3">
-        <v>-153400</v>
+        <v>-156600</v>
       </c>
       <c r="I101" s="3">
-        <v>-105300</v>
+        <v>-107500</v>
       </c>
       <c r="J101" s="3">
-        <v>394200</v>
+        <v>402500</v>
       </c>
       <c r="K101" s="3">
         <v>376900</v>
@@ -4908,25 +4908,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1390900</v>
+        <v>-1420300</v>
       </c>
       <c r="E102" s="3">
-        <v>-3843900</v>
+        <v>-3925200</v>
       </c>
       <c r="F102" s="3">
-        <v>3197500</v>
+        <v>3265100</v>
       </c>
       <c r="G102" s="3">
-        <v>-3931000</v>
+        <v>-4014100</v>
       </c>
       <c r="H102" s="3">
-        <v>4647000</v>
+        <v>4745200</v>
       </c>
       <c r="I102" s="3">
-        <v>-10528400</v>
+        <v>-10751000</v>
       </c>
       <c r="J102" s="3">
-        <v>5657900</v>
+        <v>5777500</v>
       </c>
       <c r="K102" s="3">
         <v>-1132700</v>

--- a/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
@@ -731,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79424400</v>
+        <v>78390900</v>
       </c>
       <c r="E8" s="3">
-        <v>109582700</v>
+        <v>108156800</v>
       </c>
       <c r="F8" s="3">
-        <v>96436500</v>
+        <v>95181700</v>
       </c>
       <c r="G8" s="3">
-        <v>94420100</v>
+        <v>93191500</v>
       </c>
       <c r="H8" s="3">
-        <v>92797100</v>
+        <v>91589600</v>
       </c>
       <c r="I8" s="3">
-        <v>101128300</v>
+        <v>99812500</v>
       </c>
       <c r="J8" s="3">
-        <v>94710600</v>
+        <v>93478200</v>
       </c>
       <c r="K8" s="3">
         <v>80754500</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>55318800</v>
+        <v>54599000</v>
       </c>
       <c r="E9" s="3">
-        <v>74511500</v>
+        <v>73541900</v>
       </c>
       <c r="F9" s="3">
-        <v>66167600</v>
+        <v>65306600</v>
       </c>
       <c r="G9" s="3">
-        <v>62682900</v>
+        <v>61867300</v>
       </c>
       <c r="H9" s="3">
-        <v>61916200</v>
+        <v>61110500</v>
       </c>
       <c r="I9" s="3">
-        <v>68681400</v>
+        <v>67787700</v>
       </c>
       <c r="J9" s="3">
-        <v>60451500</v>
+        <v>59664900</v>
       </c>
       <c r="K9" s="3">
         <v>51298600</v>
@@ -831,25 +831,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24105600</v>
+        <v>23791900</v>
       </c>
       <c r="E10" s="3">
-        <v>35071200</v>
+        <v>34614900</v>
       </c>
       <c r="F10" s="3">
-        <v>30268900</v>
+        <v>29875000</v>
       </c>
       <c r="G10" s="3">
-        <v>31737100</v>
+        <v>31324200</v>
       </c>
       <c r="H10" s="3">
-        <v>30880900</v>
+        <v>30479100</v>
       </c>
       <c r="I10" s="3">
-        <v>32447000</v>
+        <v>32024800</v>
       </c>
       <c r="J10" s="3">
-        <v>34259000</v>
+        <v>33813200</v>
       </c>
       <c r="K10" s="3">
         <v>29456000</v>
@@ -901,25 +901,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1176800</v>
+        <v>1161500</v>
       </c>
       <c r="E12" s="3">
-        <v>637000</v>
+        <v>628700</v>
       </c>
       <c r="F12" s="3">
-        <v>690300</v>
+        <v>681400</v>
       </c>
       <c r="G12" s="3">
-        <v>946200</v>
+        <v>933900</v>
       </c>
       <c r="H12" s="3">
-        <v>967600</v>
+        <v>955000</v>
       </c>
       <c r="I12" s="3">
-        <v>422600</v>
+        <v>417100</v>
       </c>
       <c r="J12" s="3">
-        <v>820300</v>
+        <v>809600</v>
       </c>
       <c r="K12" s="3">
         <v>638400</v>
@@ -1051,25 +1051,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>9021300</v>
+        <v>8903900</v>
       </c>
       <c r="E15" s="3">
-        <v>9404400</v>
+        <v>9282100</v>
       </c>
       <c r="F15" s="3">
-        <v>8794900</v>
+        <v>8680500</v>
       </c>
       <c r="G15" s="3">
-        <v>8361700</v>
+        <v>8252900</v>
       </c>
       <c r="H15" s="3">
-        <v>8594700</v>
+        <v>8482900</v>
       </c>
       <c r="I15" s="3">
-        <v>10226800</v>
+        <v>10093700</v>
       </c>
       <c r="J15" s="3">
-        <v>8135100</v>
+        <v>8029300</v>
       </c>
       <c r="K15" s="3">
         <v>8830900</v>
@@ -1118,25 +1118,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>79951500</v>
+        <v>78911200</v>
       </c>
       <c r="E17" s="3">
-        <v>105467300</v>
+        <v>104094900</v>
       </c>
       <c r="F17" s="3">
-        <v>92579900</v>
+        <v>91375300</v>
       </c>
       <c r="G17" s="3">
-        <v>87988400</v>
+        <v>86843500</v>
       </c>
       <c r="H17" s="3">
-        <v>88193500</v>
+        <v>87046000</v>
       </c>
       <c r="I17" s="3">
-        <v>99445100</v>
+        <v>98151200</v>
       </c>
       <c r="J17" s="3">
-        <v>87724600</v>
+        <v>86583100</v>
       </c>
       <c r="K17" s="3">
         <v>75249400</v>
@@ -1168,25 +1168,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-527200</v>
+        <v>-520300</v>
       </c>
       <c r="E18" s="3">
-        <v>4115400</v>
+        <v>4061800</v>
       </c>
       <c r="F18" s="3">
-        <v>3856600</v>
+        <v>3806400</v>
       </c>
       <c r="G18" s="3">
-        <v>6431700</v>
+        <v>6348000</v>
       </c>
       <c r="H18" s="3">
-        <v>4603500</v>
+        <v>4543600</v>
       </c>
       <c r="I18" s="3">
-        <v>1683200</v>
+        <v>1661300</v>
       </c>
       <c r="J18" s="3">
-        <v>6986000</v>
+        <v>6895100</v>
       </c>
       <c r="K18" s="3">
         <v>5505200</v>
@@ -1238,25 +1238,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>83900</v>
+        <v>82800</v>
       </c>
       <c r="E20" s="3">
-        <v>296600</v>
+        <v>292700</v>
       </c>
       <c r="F20" s="3">
-        <v>569400</v>
+        <v>562000</v>
       </c>
       <c r="G20" s="3">
-        <v>554900</v>
+        <v>547700</v>
       </c>
       <c r="H20" s="3">
-        <v>429700</v>
+        <v>424100</v>
       </c>
       <c r="I20" s="3">
-        <v>1285400</v>
+        <v>1268600</v>
       </c>
       <c r="J20" s="3">
-        <v>420600</v>
+        <v>415100</v>
       </c>
       <c r="K20" s="3">
         <v>526900</v>
@@ -1288,25 +1288,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>8578100</v>
+        <v>8466400</v>
       </c>
       <c r="E21" s="3">
-        <v>13816400</v>
+        <v>13636600</v>
       </c>
       <c r="F21" s="3">
-        <v>13220900</v>
+        <v>13048900</v>
       </c>
       <c r="G21" s="3">
-        <v>15335600</v>
+        <v>15136100</v>
       </c>
       <c r="H21" s="3">
-        <v>13627900</v>
+        <v>13450600</v>
       </c>
       <c r="I21" s="3">
-        <v>13195300</v>
+        <v>13023600</v>
       </c>
       <c r="J21" s="3">
-        <v>15541700</v>
+        <v>15339500</v>
       </c>
       <c r="K21" s="3">
         <v>14863100</v>
@@ -1338,25 +1338,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1221600</v>
+        <v>1205700</v>
       </c>
       <c r="E22" s="3">
-        <v>1210900</v>
+        <v>1195200</v>
       </c>
       <c r="F22" s="3">
-        <v>1162300</v>
+        <v>1147200</v>
       </c>
       <c r="G22" s="3">
-        <v>1184900</v>
+        <v>1169500</v>
       </c>
       <c r="H22" s="3">
-        <v>1199700</v>
+        <v>1184100</v>
       </c>
       <c r="I22" s="3">
-        <v>896600</v>
+        <v>884900</v>
       </c>
       <c r="J22" s="3">
-        <v>884600</v>
+        <v>873100</v>
       </c>
       <c r="K22" s="3">
         <v>798900</v>
@@ -1388,25 +1388,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1664800</v>
+        <v>-1643100</v>
       </c>
       <c r="E23" s="3">
-        <v>3201000</v>
+        <v>3159400</v>
       </c>
       <c r="F23" s="3">
-        <v>3263700</v>
+        <v>3221300</v>
       </c>
       <c r="G23" s="3">
-        <v>5801700</v>
+        <v>5726200</v>
       </c>
       <c r="H23" s="3">
-        <v>3833500</v>
+        <v>3783600</v>
       </c>
       <c r="I23" s="3">
-        <v>2072000</v>
+        <v>2045000</v>
       </c>
       <c r="J23" s="3">
-        <v>6522000</v>
+        <v>6437100</v>
       </c>
       <c r="K23" s="3">
         <v>5233200</v>
@@ -1438,25 +1438,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>417800</v>
+        <v>412400</v>
       </c>
       <c r="E24" s="3">
-        <v>1088600</v>
+        <v>1074500</v>
       </c>
       <c r="F24" s="3">
-        <v>1027000</v>
+        <v>1013700</v>
       </c>
       <c r="G24" s="3">
-        <v>2199600</v>
+        <v>2171000</v>
       </c>
       <c r="H24" s="3">
-        <v>1332200</v>
+        <v>1314800</v>
       </c>
       <c r="I24" s="3">
-        <v>711700</v>
+        <v>702500</v>
       </c>
       <c r="J24" s="3">
-        <v>2365300</v>
+        <v>2334500</v>
       </c>
       <c r="K24" s="3">
         <v>1957500</v>
@@ -1538,25 +1538,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-2082600</v>
+        <v>-2055500</v>
       </c>
       <c r="E26" s="3">
-        <v>2112400</v>
+        <v>2084900</v>
       </c>
       <c r="F26" s="3">
-        <v>2236700</v>
+        <v>2207600</v>
       </c>
       <c r="G26" s="3">
-        <v>3602100</v>
+        <v>3555200</v>
       </c>
       <c r="H26" s="3">
-        <v>2501300</v>
+        <v>2468800</v>
       </c>
       <c r="I26" s="3">
-        <v>1360300</v>
+        <v>1342600</v>
       </c>
       <c r="J26" s="3">
-        <v>4156700</v>
+        <v>4102600</v>
       </c>
       <c r="K26" s="3">
         <v>3275800</v>
@@ -1588,25 +1588,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-2532000</v>
+        <v>-2499100</v>
       </c>
       <c r="E27" s="3">
-        <v>1315000</v>
+        <v>1297900</v>
       </c>
       <c r="F27" s="3">
-        <v>1377600</v>
+        <v>1359600</v>
       </c>
       <c r="G27" s="3">
-        <v>2834400</v>
+        <v>2797500</v>
       </c>
       <c r="H27" s="3">
-        <v>1598900</v>
+        <v>1578100</v>
       </c>
       <c r="I27" s="3">
-        <v>682500</v>
+        <v>673700</v>
       </c>
       <c r="J27" s="3">
-        <v>3310500</v>
+        <v>3267500</v>
       </c>
       <c r="K27" s="3">
         <v>2419600</v>
@@ -1838,25 +1838,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-83900</v>
+        <v>-82800</v>
       </c>
       <c r="E32" s="3">
-        <v>-296600</v>
+        <v>-292700</v>
       </c>
       <c r="F32" s="3">
-        <v>-569400</v>
+        <v>-562000</v>
       </c>
       <c r="G32" s="3">
-        <v>-554900</v>
+        <v>-547700</v>
       </c>
       <c r="H32" s="3">
-        <v>-429700</v>
+        <v>-424100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1285400</v>
+        <v>-1268600</v>
       </c>
       <c r="J32" s="3">
-        <v>-420600</v>
+        <v>-415100</v>
       </c>
       <c r="K32" s="3">
         <v>-526900</v>
@@ -1888,25 +1888,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-2532000</v>
+        <v>-2499100</v>
       </c>
       <c r="E33" s="3">
-        <v>1315000</v>
+        <v>1297900</v>
       </c>
       <c r="F33" s="3">
-        <v>1377600</v>
+        <v>1359600</v>
       </c>
       <c r="G33" s="3">
-        <v>2834400</v>
+        <v>2797500</v>
       </c>
       <c r="H33" s="3">
-        <v>1598900</v>
+        <v>1578100</v>
       </c>
       <c r="I33" s="3">
-        <v>682500</v>
+        <v>673700</v>
       </c>
       <c r="J33" s="3">
-        <v>3310500</v>
+        <v>3267500</v>
       </c>
       <c r="K33" s="3">
         <v>2419600</v>
@@ -1988,25 +1988,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-2532000</v>
+        <v>-2499100</v>
       </c>
       <c r="E35" s="3">
-        <v>1315000</v>
+        <v>1297900</v>
       </c>
       <c r="F35" s="3">
-        <v>1377600</v>
+        <v>1359600</v>
       </c>
       <c r="G35" s="3">
-        <v>2834400</v>
+        <v>2797500</v>
       </c>
       <c r="H35" s="3">
-        <v>1598900</v>
+        <v>1578100</v>
       </c>
       <c r="I35" s="3">
-        <v>682500</v>
+        <v>673700</v>
       </c>
       <c r="J35" s="3">
-        <v>3310500</v>
+        <v>3267500</v>
       </c>
       <c r="K35" s="3">
         <v>2419600</v>
@@ -2133,25 +2133,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>12060400</v>
+        <v>11903400</v>
       </c>
       <c r="E41" s="3">
-        <v>13480700</v>
+        <v>13305300</v>
       </c>
       <c r="F41" s="3">
-        <v>17405900</v>
+        <v>17179400</v>
       </c>
       <c r="G41" s="3">
-        <v>14140700</v>
+        <v>13956700</v>
       </c>
       <c r="H41" s="3">
-        <v>18099300</v>
+        <v>17863800</v>
       </c>
       <c r="I41" s="3">
-        <v>13409700</v>
+        <v>13235200</v>
       </c>
       <c r="J41" s="3">
-        <v>24097300</v>
+        <v>23783800</v>
       </c>
       <c r="K41" s="3">
         <v>16442100</v>
@@ -2183,25 +2183,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3341300</v>
+        <v>3297800</v>
       </c>
       <c r="E42" s="3">
-        <v>3784200</v>
+        <v>3734900</v>
       </c>
       <c r="F42" s="3">
-        <v>5635500</v>
+        <v>5562200</v>
       </c>
       <c r="G42" s="3">
-        <v>3464200</v>
+        <v>3419100</v>
       </c>
       <c r="H42" s="3">
-        <v>1258500</v>
+        <v>1242200</v>
       </c>
       <c r="I42" s="3">
-        <v>1487600</v>
+        <v>1468200</v>
       </c>
       <c r="J42" s="3">
-        <v>1938700</v>
+        <v>1913500</v>
       </c>
       <c r="K42" s="3">
         <v>1549600</v>
@@ -2233,25 +2233,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>13341800</v>
+        <v>13168200</v>
       </c>
       <c r="E43" s="3">
-        <v>11107900</v>
+        <v>10963400</v>
       </c>
       <c r="F43" s="3">
-        <v>13611400</v>
+        <v>13434300</v>
       </c>
       <c r="G43" s="3">
-        <v>12911400</v>
+        <v>12743400</v>
       </c>
       <c r="H43" s="3">
-        <v>14287600</v>
+        <v>14101600</v>
       </c>
       <c r="I43" s="3">
-        <v>11830200</v>
+        <v>11676300</v>
       </c>
       <c r="J43" s="3">
-        <v>13699700</v>
+        <v>13521400</v>
       </c>
       <c r="K43" s="3">
         <v>12206500</v>
@@ -2283,25 +2283,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>28997600</v>
+        <v>28620300</v>
       </c>
       <c r="E44" s="3">
-        <v>28381500</v>
+        <v>28012200</v>
       </c>
       <c r="F44" s="3">
-        <v>26205500</v>
+        <v>25864500</v>
       </c>
       <c r="G44" s="3">
-        <v>27358500</v>
+        <v>27002500</v>
       </c>
       <c r="H44" s="3">
-        <v>26513400</v>
+        <v>26168400</v>
       </c>
       <c r="I44" s="3">
-        <v>27703800</v>
+        <v>27343300</v>
       </c>
       <c r="J44" s="3">
-        <v>27606000</v>
+        <v>27246800</v>
       </c>
       <c r="K44" s="3">
         <v>22366700</v>
@@ -2333,25 +2333,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>18300400</v>
+        <v>18062300</v>
       </c>
       <c r="E45" s="3">
-        <v>16088800</v>
+        <v>15879500</v>
       </c>
       <c r="F45" s="3">
-        <v>18390100</v>
+        <v>18150900</v>
       </c>
       <c r="G45" s="3">
-        <v>17227200</v>
+        <v>17003100</v>
       </c>
       <c r="H45" s="3">
-        <v>17711700</v>
+        <v>17481200</v>
       </c>
       <c r="I45" s="3">
-        <v>13938700</v>
+        <v>13757300</v>
       </c>
       <c r="J45" s="3">
-        <v>16109300</v>
+        <v>15899700</v>
       </c>
       <c r="K45" s="3">
         <v>12447100</v>
@@ -2383,25 +2383,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>76041500</v>
+        <v>75052000</v>
       </c>
       <c r="E46" s="3">
-        <v>72843100</v>
+        <v>71895300</v>
       </c>
       <c r="F46" s="3">
-        <v>81248400</v>
+        <v>80191200</v>
       </c>
       <c r="G46" s="3">
-        <v>75102100</v>
+        <v>74124900</v>
       </c>
       <c r="H46" s="3">
-        <v>77870500</v>
+        <v>76857300</v>
       </c>
       <c r="I46" s="3">
-        <v>68370000</v>
+        <v>67480300</v>
       </c>
       <c r="J46" s="3">
-        <v>83451000</v>
+        <v>82365100</v>
       </c>
       <c r="K46" s="3">
         <v>65012000</v>
@@ -2433,25 +2433,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>16592400</v>
+        <v>16376500</v>
       </c>
       <c r="E47" s="3">
-        <v>16087000</v>
+        <v>15877600</v>
       </c>
       <c r="F47" s="3">
-        <v>15592100</v>
+        <v>15389200</v>
       </c>
       <c r="G47" s="3">
-        <v>14799900</v>
+        <v>14607300</v>
       </c>
       <c r="H47" s="3">
-        <v>14935500</v>
+        <v>14741100</v>
       </c>
       <c r="I47" s="3">
-        <v>14540300</v>
+        <v>14351100</v>
       </c>
       <c r="J47" s="3">
-        <v>14065100</v>
+        <v>13882100</v>
       </c>
       <c r="K47" s="3">
         <v>12302800</v>
@@ -2483,25 +2483,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>312480100</v>
+        <v>308414100</v>
       </c>
       <c r="E48" s="3">
-        <v>317942100</v>
+        <v>313805100</v>
       </c>
       <c r="F48" s="3">
-        <v>304252600</v>
+        <v>300293600</v>
       </c>
       <c r="G48" s="3">
-        <v>301442200</v>
+        <v>297519800</v>
       </c>
       <c r="H48" s="3">
-        <v>299013100</v>
+        <v>295122400</v>
       </c>
       <c r="I48" s="3">
-        <v>266681600</v>
+        <v>263211600</v>
       </c>
       <c r="J48" s="3">
-        <v>258733500</v>
+        <v>255366900</v>
       </c>
       <c r="K48" s="3">
         <v>232003200</v>
@@ -2533,25 +2533,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>15820800</v>
+        <v>15615000</v>
       </c>
       <c r="E49" s="3">
-        <v>15704400</v>
+        <v>15500100</v>
       </c>
       <c r="F49" s="3">
-        <v>16202000</v>
+        <v>15991100</v>
       </c>
       <c r="G49" s="3">
-        <v>15915500</v>
+        <v>15708400</v>
       </c>
       <c r="H49" s="3">
-        <v>15241100</v>
+        <v>15042800</v>
       </c>
       <c r="I49" s="3">
-        <v>15337200</v>
+        <v>15137600</v>
       </c>
       <c r="J49" s="3">
-        <v>16149400</v>
+        <v>15939200</v>
       </c>
       <c r="K49" s="3">
         <v>14140200</v>
@@ -2683,25 +2683,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>4508800</v>
+        <v>4450200</v>
       </c>
       <c r="E52" s="3">
-        <v>3784600</v>
+        <v>3735400</v>
       </c>
       <c r="F52" s="3">
-        <v>4075800</v>
+        <v>4022700</v>
       </c>
       <c r="G52" s="3">
-        <v>4215100</v>
+        <v>4160200</v>
       </c>
       <c r="H52" s="3">
-        <v>3895100</v>
+        <v>3844400</v>
       </c>
       <c r="I52" s="3">
-        <v>15872100</v>
+        <v>15665600</v>
       </c>
       <c r="J52" s="3">
-        <v>15015200</v>
+        <v>14819800</v>
       </c>
       <c r="K52" s="3">
         <v>13570900</v>
@@ -2783,25 +2783,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>425443600</v>
+        <v>419907800</v>
       </c>
       <c r="E54" s="3">
-        <v>426361300</v>
+        <v>420813500</v>
       </c>
       <c r="F54" s="3">
-        <v>421370800</v>
+        <v>415888000</v>
       </c>
       <c r="G54" s="3">
-        <v>411474800</v>
+        <v>406120700</v>
       </c>
       <c r="H54" s="3">
-        <v>410955300</v>
+        <v>405608000</v>
       </c>
       <c r="I54" s="3">
-        <v>380801200</v>
+        <v>375846200</v>
       </c>
       <c r="J54" s="3">
-        <v>387414200</v>
+        <v>382373100</v>
       </c>
       <c r="K54" s="3">
         <v>337029000</v>
@@ -2873,25 +2873,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>45602000</v>
+        <v>45008700</v>
       </c>
       <c r="E57" s="3">
-        <v>51220300</v>
+        <v>50553800</v>
       </c>
       <c r="F57" s="3">
-        <v>52562000</v>
+        <v>51878000</v>
       </c>
       <c r="G57" s="3">
-        <v>48687900</v>
+        <v>48054400</v>
       </c>
       <c r="H57" s="3">
-        <v>44824000</v>
+        <v>44240800</v>
       </c>
       <c r="I57" s="3">
-        <v>46779300</v>
+        <v>46170600</v>
       </c>
       <c r="J57" s="3">
-        <v>52279400</v>
+        <v>51599200</v>
       </c>
       <c r="K57" s="3">
         <v>42546300</v>
@@ -2923,25 +2923,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>45453000</v>
+        <v>44861600</v>
       </c>
       <c r="E58" s="3">
-        <v>28586200</v>
+        <v>28214200</v>
       </c>
       <c r="F58" s="3">
-        <v>27640300</v>
+        <v>27280600</v>
       </c>
       <c r="G58" s="3">
-        <v>26126100</v>
+        <v>25786100</v>
       </c>
       <c r="H58" s="3">
-        <v>21137800</v>
+        <v>20862800</v>
       </c>
       <c r="I58" s="3">
-        <v>22644900</v>
+        <v>22350200</v>
       </c>
       <c r="J58" s="3">
-        <v>23682600</v>
+        <v>23374500</v>
       </c>
       <c r="K58" s="3">
         <v>20725700</v>
@@ -2973,25 +2973,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>20018600</v>
+        <v>19758100</v>
       </c>
       <c r="E59" s="3">
-        <v>23381500</v>
+        <v>23077300</v>
       </c>
       <c r="F59" s="3">
-        <v>20970600</v>
+        <v>20697700</v>
       </c>
       <c r="G59" s="3">
-        <v>19153200</v>
+        <v>18904000</v>
       </c>
       <c r="H59" s="3">
-        <v>22600900</v>
+        <v>22306800</v>
       </c>
       <c r="I59" s="3">
-        <v>23624900</v>
+        <v>23317500</v>
       </c>
       <c r="J59" s="3">
-        <v>21361400</v>
+        <v>21083400</v>
       </c>
       <c r="K59" s="3">
         <v>15928600</v>
@@ -3023,25 +3023,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>111073700</v>
+        <v>109628400</v>
       </c>
       <c r="E60" s="3">
-        <v>103188000</v>
+        <v>101845300</v>
       </c>
       <c r="F60" s="3">
-        <v>101172800</v>
+        <v>99856300</v>
       </c>
       <c r="G60" s="3">
-        <v>93967200</v>
+        <v>92744500</v>
       </c>
       <c r="H60" s="3">
-        <v>88562700</v>
+        <v>87410300</v>
       </c>
       <c r="I60" s="3">
-        <v>93049000</v>
+        <v>91838300</v>
       </c>
       <c r="J60" s="3">
-        <v>97323400</v>
+        <v>96057000</v>
       </c>
       <c r="K60" s="3">
         <v>79200600</v>
@@ -3073,25 +3073,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>64419300</v>
+        <v>63581100</v>
       </c>
       <c r="E61" s="3">
-        <v>70988500</v>
+        <v>70064700</v>
       </c>
       <c r="F61" s="3">
-        <v>70321200</v>
+        <v>69406200</v>
       </c>
       <c r="G61" s="3">
-        <v>68811000</v>
+        <v>67915700</v>
       </c>
       <c r="H61" s="3">
-        <v>73982400</v>
+        <v>73019800</v>
       </c>
       <c r="I61" s="3">
-        <v>42032500</v>
+        <v>41485600</v>
       </c>
       <c r="J61" s="3">
-        <v>43822700</v>
+        <v>43252500</v>
       </c>
       <c r="K61" s="3">
         <v>39861900</v>
@@ -3123,25 +3123,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>27097200</v>
+        <v>26744600</v>
       </c>
       <c r="E62" s="3">
-        <v>26858800</v>
+        <v>26509400</v>
       </c>
       <c r="F62" s="3">
-        <v>26374300</v>
+        <v>26031100</v>
       </c>
       <c r="G62" s="3">
-        <v>26252100</v>
+        <v>25910500</v>
       </c>
       <c r="H62" s="3">
-        <v>25874600</v>
+        <v>25537900</v>
       </c>
       <c r="I62" s="3">
-        <v>25918600</v>
+        <v>25581300</v>
       </c>
       <c r="J62" s="3">
-        <v>25519600</v>
+        <v>25187600</v>
       </c>
       <c r="K62" s="3">
         <v>22023000</v>
@@ -3323,25 +3323,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>236325800</v>
+        <v>233250800</v>
       </c>
       <c r="E66" s="3">
-        <v>234444700</v>
+        <v>231394100</v>
       </c>
       <c r="F66" s="3">
-        <v>230218800</v>
+        <v>227223200</v>
       </c>
       <c r="G66" s="3">
-        <v>220099800</v>
+        <v>217235900</v>
       </c>
       <c r="H66" s="3">
-        <v>219703600</v>
+        <v>216844800</v>
       </c>
       <c r="I66" s="3">
-        <v>191438900</v>
+        <v>188947900</v>
       </c>
       <c r="J66" s="3">
-        <v>197480100</v>
+        <v>194910500</v>
       </c>
       <c r="K66" s="3">
         <v>167928300</v>
@@ -3593,25 +3593,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>160564700</v>
+        <v>158475400</v>
       </c>
       <c r="E72" s="3">
-        <v>163363500</v>
+        <v>161237800</v>
       </c>
       <c r="F72" s="3">
-        <v>162598900</v>
+        <v>160483200</v>
       </c>
       <c r="G72" s="3">
-        <v>162821900</v>
+        <v>160703200</v>
       </c>
       <c r="H72" s="3">
-        <v>162698600</v>
+        <v>160581600</v>
       </c>
       <c r="I72" s="3">
-        <v>191830500</v>
+        <v>189334400</v>
       </c>
       <c r="J72" s="3">
-        <v>161381000</v>
+        <v>159281100</v>
       </c>
       <c r="K72" s="3">
         <v>143485000</v>
@@ -3793,25 +3793,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>189117800</v>
+        <v>186657000</v>
       </c>
       <c r="E76" s="3">
-        <v>191916600</v>
+        <v>189419400</v>
       </c>
       <c r="F76" s="3">
-        <v>191152000</v>
+        <v>188664800</v>
       </c>
       <c r="G76" s="3">
-        <v>191375000</v>
+        <v>188884800</v>
       </c>
       <c r="H76" s="3">
-        <v>191251700</v>
+        <v>188763200</v>
       </c>
       <c r="I76" s="3">
-        <v>189362300</v>
+        <v>186898300</v>
       </c>
       <c r="J76" s="3">
-        <v>189934100</v>
+        <v>187462600</v>
       </c>
       <c r="K76" s="3">
         <v>169100700</v>
@@ -3948,25 +3948,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-2532000</v>
+        <v>-2499100</v>
       </c>
       <c r="E81" s="3">
-        <v>1315000</v>
+        <v>1297900</v>
       </c>
       <c r="F81" s="3">
-        <v>1377600</v>
+        <v>1359600</v>
       </c>
       <c r="G81" s="3">
-        <v>2834400</v>
+        <v>2797500</v>
       </c>
       <c r="H81" s="3">
-        <v>1598900</v>
+        <v>1578100</v>
       </c>
       <c r="I81" s="3">
-        <v>682500</v>
+        <v>673700</v>
       </c>
       <c r="J81" s="3">
-        <v>3310500</v>
+        <v>3267500</v>
       </c>
       <c r="K81" s="3">
         <v>2419600</v>
@@ -4018,25 +4018,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>9021300</v>
+        <v>8903900</v>
       </c>
       <c r="E83" s="3">
-        <v>9404400</v>
+        <v>9282100</v>
       </c>
       <c r="F83" s="3">
-        <v>8794900</v>
+        <v>8680500</v>
       </c>
       <c r="G83" s="3">
-        <v>8349000</v>
+        <v>8240400</v>
       </c>
       <c r="H83" s="3">
-        <v>8594700</v>
+        <v>8482900</v>
       </c>
       <c r="I83" s="3">
-        <v>10226800</v>
+        <v>10093700</v>
       </c>
       <c r="J83" s="3">
-        <v>8135100</v>
+        <v>8029300</v>
       </c>
       <c r="K83" s="3">
         <v>8830900</v>
@@ -4318,25 +4318,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-2823200</v>
+        <v>-2786400</v>
       </c>
       <c r="E89" s="3">
-        <v>18754600</v>
+        <v>18510600</v>
       </c>
       <c r="F89" s="3">
-        <v>16376500</v>
+        <v>16163400</v>
       </c>
       <c r="G89" s="3">
-        <v>11295600</v>
+        <v>11148600</v>
       </c>
       <c r="H89" s="3">
-        <v>9676100</v>
+        <v>9550100</v>
       </c>
       <c r="I89" s="3">
-        <v>14696500</v>
+        <v>14505200</v>
       </c>
       <c r="J89" s="3">
-        <v>17346300</v>
+        <v>17120600</v>
       </c>
       <c r="K89" s="3">
         <v>12045700</v>
@@ -4388,25 +4388,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-7630900</v>
+        <v>-7531600</v>
       </c>
       <c r="E91" s="3">
-        <v>-22671700</v>
+        <v>-22376700</v>
       </c>
       <c r="F91" s="3">
-        <v>-8613600</v>
+        <v>-8501500</v>
       </c>
       <c r="G91" s="3">
-        <v>-9393400</v>
+        <v>-9271100</v>
       </c>
       <c r="H91" s="3">
-        <v>-9195500</v>
+        <v>-9075900</v>
       </c>
       <c r="I91" s="3">
-        <v>-18587000</v>
+        <v>-18345200</v>
       </c>
       <c r="J91" s="3">
-        <v>-7854200</v>
+        <v>-7752000</v>
       </c>
       <c r="K91" s="3">
         <v>-5684600</v>
@@ -4538,25 +4538,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-7800700</v>
+        <v>-7699200</v>
       </c>
       <c r="E94" s="3">
-        <v>-19588100</v>
+        <v>-19333300</v>
       </c>
       <c r="F94" s="3">
-        <v>-12078000</v>
+        <v>-11920800</v>
       </c>
       <c r="G94" s="3">
-        <v>-11126300</v>
+        <v>-10981500</v>
       </c>
       <c r="H94" s="3">
-        <v>-9150800</v>
+        <v>-9031700</v>
       </c>
       <c r="I94" s="3">
-        <v>-17783300</v>
+        <v>-17551900</v>
       </c>
       <c r="J94" s="3">
-        <v>-8464000</v>
+        <v>-8353900</v>
       </c>
       <c r="K94" s="3">
         <v>-7082300</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2041100</v>
+        <v>-2014500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2535800</v>
+        <v>-2502800</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4623,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1902400</v>
+        <v>-1877600</v>
       </c>
       <c r="J96" s="3">
-        <v>-2245600</v>
+        <v>-2216400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4808,25 +4808,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>9067500</v>
+        <v>8949500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2827700</v>
+        <v>-2790900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1432800</v>
+        <v>-1414200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4406700</v>
+        <v>-4349300</v>
       </c>
       <c r="H100" s="3">
-        <v>4411800</v>
+        <v>4354400</v>
       </c>
       <c r="I100" s="3">
-        <v>-7615300</v>
+        <v>-7516200</v>
       </c>
       <c r="J100" s="3">
-        <v>-3450000</v>
+        <v>-3405100</v>
       </c>
       <c r="K100" s="3">
         <v>-6233700</v>
@@ -4858,25 +4858,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>136000</v>
+        <v>134300</v>
       </c>
       <c r="E101" s="3">
-        <v>-264000</v>
+        <v>-260500</v>
       </c>
       <c r="F101" s="3">
-        <v>399400</v>
+        <v>394200</v>
       </c>
       <c r="G101" s="3">
-        <v>188000</v>
+        <v>185500</v>
       </c>
       <c r="H101" s="3">
-        <v>-156600</v>
+        <v>-154600</v>
       </c>
       <c r="I101" s="3">
-        <v>-107500</v>
+        <v>-106100</v>
       </c>
       <c r="J101" s="3">
-        <v>402500</v>
+        <v>397300</v>
       </c>
       <c r="K101" s="3">
         <v>376900</v>
@@ -4908,25 +4908,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1420300</v>
+        <v>-1401800</v>
       </c>
       <c r="E102" s="3">
-        <v>-3925200</v>
+        <v>-3874100</v>
       </c>
       <c r="F102" s="3">
-        <v>3265100</v>
+        <v>3222600</v>
       </c>
       <c r="G102" s="3">
-        <v>-4014100</v>
+        <v>-3961900</v>
       </c>
       <c r="H102" s="3">
-        <v>4745200</v>
+        <v>4683500</v>
       </c>
       <c r="I102" s="3">
-        <v>-10751000</v>
+        <v>-10611100</v>
       </c>
       <c r="J102" s="3">
-        <v>5777500</v>
+        <v>5702300</v>
       </c>
       <c r="K102" s="3">
         <v>-1132700</v>

--- a/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
@@ -731,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>78390900</v>
+        <v>79704400</v>
       </c>
       <c r="E8" s="3">
-        <v>108156800</v>
+        <v>109969000</v>
       </c>
       <c r="F8" s="3">
-        <v>95181700</v>
+        <v>96776500</v>
       </c>
       <c r="G8" s="3">
-        <v>93191500</v>
+        <v>94752900</v>
       </c>
       <c r="H8" s="3">
-        <v>91589600</v>
+        <v>93124200</v>
       </c>
       <c r="I8" s="3">
-        <v>99812500</v>
+        <v>101484900</v>
       </c>
       <c r="J8" s="3">
-        <v>93478200</v>
+        <v>95044400</v>
       </c>
       <c r="K8" s="3">
         <v>80754500</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>54599000</v>
+        <v>55513800</v>
       </c>
       <c r="E9" s="3">
-        <v>73541900</v>
+        <v>74774200</v>
       </c>
       <c r="F9" s="3">
-        <v>65306600</v>
+        <v>66400900</v>
       </c>
       <c r="G9" s="3">
-        <v>61867300</v>
+        <v>62903900</v>
       </c>
       <c r="H9" s="3">
-        <v>61110500</v>
+        <v>62134400</v>
       </c>
       <c r="I9" s="3">
-        <v>67787700</v>
+        <v>68923500</v>
       </c>
       <c r="J9" s="3">
-        <v>59664900</v>
+        <v>60664700</v>
       </c>
       <c r="K9" s="3">
         <v>51298600</v>
@@ -831,25 +831,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23791900</v>
+        <v>24190600</v>
       </c>
       <c r="E10" s="3">
-        <v>34614900</v>
+        <v>35194800</v>
       </c>
       <c r="F10" s="3">
-        <v>29875000</v>
+        <v>30375600</v>
       </c>
       <c r="G10" s="3">
-        <v>31324200</v>
+        <v>31849000</v>
       </c>
       <c r="H10" s="3">
-        <v>30479100</v>
+        <v>30989800</v>
       </c>
       <c r="I10" s="3">
-        <v>32024800</v>
+        <v>32561300</v>
       </c>
       <c r="J10" s="3">
-        <v>33813200</v>
+        <v>34379800</v>
       </c>
       <c r="K10" s="3">
         <v>29456000</v>
@@ -901,25 +901,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1161500</v>
+        <v>1180900</v>
       </c>
       <c r="E12" s="3">
-        <v>628700</v>
+        <v>639200</v>
       </c>
       <c r="F12" s="3">
-        <v>681400</v>
+        <v>692800</v>
       </c>
       <c r="G12" s="3">
-        <v>933900</v>
+        <v>949500</v>
       </c>
       <c r="H12" s="3">
-        <v>955000</v>
+        <v>971000</v>
       </c>
       <c r="I12" s="3">
-        <v>417100</v>
+        <v>424100</v>
       </c>
       <c r="J12" s="3">
-        <v>809600</v>
+        <v>823200</v>
       </c>
       <c r="K12" s="3">
         <v>638400</v>
@@ -1051,25 +1051,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>8903900</v>
+        <v>9053100</v>
       </c>
       <c r="E15" s="3">
-        <v>9282100</v>
+        <v>9437600</v>
       </c>
       <c r="F15" s="3">
-        <v>8680500</v>
+        <v>8825900</v>
       </c>
       <c r="G15" s="3">
-        <v>8252900</v>
+        <v>8391100</v>
       </c>
       <c r="H15" s="3">
-        <v>8482900</v>
+        <v>8625000</v>
       </c>
       <c r="I15" s="3">
-        <v>10093700</v>
+        <v>10262800</v>
       </c>
       <c r="J15" s="3">
-        <v>8029300</v>
+        <v>8163800</v>
       </c>
       <c r="K15" s="3">
         <v>8830900</v>
@@ -1118,25 +1118,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>78911200</v>
+        <v>80233400</v>
       </c>
       <c r="E17" s="3">
-        <v>104094900</v>
+        <v>105839100</v>
       </c>
       <c r="F17" s="3">
-        <v>91375300</v>
+        <v>92906300</v>
       </c>
       <c r="G17" s="3">
-        <v>86843500</v>
+        <v>88298600</v>
       </c>
       <c r="H17" s="3">
-        <v>87046000</v>
+        <v>88504500</v>
       </c>
       <c r="I17" s="3">
-        <v>98151200</v>
+        <v>99795700</v>
       </c>
       <c r="J17" s="3">
-        <v>86583100</v>
+        <v>88033800</v>
       </c>
       <c r="K17" s="3">
         <v>75249400</v>
@@ -1168,25 +1168,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-520300</v>
+        <v>-529000</v>
       </c>
       <c r="E18" s="3">
-        <v>4061800</v>
+        <v>4129900</v>
       </c>
       <c r="F18" s="3">
-        <v>3806400</v>
+        <v>3870200</v>
       </c>
       <c r="G18" s="3">
-        <v>6348000</v>
+        <v>6454300</v>
       </c>
       <c r="H18" s="3">
-        <v>4543600</v>
+        <v>4619800</v>
       </c>
       <c r="I18" s="3">
-        <v>1661300</v>
+        <v>1689100</v>
       </c>
       <c r="J18" s="3">
-        <v>6895100</v>
+        <v>7010600</v>
       </c>
       <c r="K18" s="3">
         <v>5505200</v>
@@ -1238,25 +1238,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>82800</v>
+        <v>84200</v>
       </c>
       <c r="E20" s="3">
-        <v>292700</v>
+        <v>297600</v>
       </c>
       <c r="F20" s="3">
-        <v>562000</v>
+        <v>571400</v>
       </c>
       <c r="G20" s="3">
-        <v>547700</v>
+        <v>556900</v>
       </c>
       <c r="H20" s="3">
-        <v>424100</v>
+        <v>431200</v>
       </c>
       <c r="I20" s="3">
-        <v>1268600</v>
+        <v>1289900</v>
       </c>
       <c r="J20" s="3">
-        <v>415100</v>
+        <v>422100</v>
       </c>
       <c r="K20" s="3">
         <v>526900</v>
@@ -1288,25 +1288,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>8466400</v>
+        <v>8608300</v>
       </c>
       <c r="E21" s="3">
-        <v>13636600</v>
+        <v>13865100</v>
       </c>
       <c r="F21" s="3">
-        <v>13048900</v>
+        <v>13267500</v>
       </c>
       <c r="G21" s="3">
-        <v>15136100</v>
+        <v>15389700</v>
       </c>
       <c r="H21" s="3">
-        <v>13450600</v>
+        <v>13676000</v>
       </c>
       <c r="I21" s="3">
-        <v>13023600</v>
+        <v>13241800</v>
       </c>
       <c r="J21" s="3">
-        <v>15339500</v>
+        <v>15596500</v>
       </c>
       <c r="K21" s="3">
         <v>14863100</v>
@@ -1338,25 +1338,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1205700</v>
+        <v>1225900</v>
       </c>
       <c r="E22" s="3">
-        <v>1195200</v>
+        <v>1215200</v>
       </c>
       <c r="F22" s="3">
-        <v>1147200</v>
+        <v>1166400</v>
       </c>
       <c r="G22" s="3">
-        <v>1169500</v>
+        <v>1189100</v>
       </c>
       <c r="H22" s="3">
-        <v>1184100</v>
+        <v>1203900</v>
       </c>
       <c r="I22" s="3">
-        <v>884900</v>
+        <v>899800</v>
       </c>
       <c r="J22" s="3">
-        <v>873100</v>
+        <v>887700</v>
       </c>
       <c r="K22" s="3">
         <v>798900</v>
@@ -1388,25 +1388,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1643100</v>
+        <v>-1670700</v>
       </c>
       <c r="E23" s="3">
-        <v>3159400</v>
+        <v>3212300</v>
       </c>
       <c r="F23" s="3">
-        <v>3221300</v>
+        <v>3275200</v>
       </c>
       <c r="G23" s="3">
-        <v>5726200</v>
+        <v>5822200</v>
       </c>
       <c r="H23" s="3">
-        <v>3783600</v>
+        <v>3847000</v>
       </c>
       <c r="I23" s="3">
-        <v>2045000</v>
+        <v>2079300</v>
       </c>
       <c r="J23" s="3">
-        <v>6437100</v>
+        <v>6545000</v>
       </c>
       <c r="K23" s="3">
         <v>5233200</v>
@@ -1438,25 +1438,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>412400</v>
+        <v>419300</v>
       </c>
       <c r="E24" s="3">
-        <v>1074500</v>
+        <v>1092500</v>
       </c>
       <c r="F24" s="3">
-        <v>1013700</v>
+        <v>1030600</v>
       </c>
       <c r="G24" s="3">
-        <v>2171000</v>
+        <v>2207300</v>
       </c>
       <c r="H24" s="3">
-        <v>1314800</v>
+        <v>1336900</v>
       </c>
       <c r="I24" s="3">
-        <v>702500</v>
+        <v>714200</v>
       </c>
       <c r="J24" s="3">
-        <v>2334500</v>
+        <v>2373600</v>
       </c>
       <c r="K24" s="3">
         <v>1957500</v>
@@ -1538,25 +1538,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-2055500</v>
+        <v>-2089900</v>
       </c>
       <c r="E26" s="3">
-        <v>2084900</v>
+        <v>2119800</v>
       </c>
       <c r="F26" s="3">
-        <v>2207600</v>
+        <v>2244600</v>
       </c>
       <c r="G26" s="3">
-        <v>3555200</v>
+        <v>3614800</v>
       </c>
       <c r="H26" s="3">
-        <v>2468800</v>
+        <v>2510100</v>
       </c>
       <c r="I26" s="3">
-        <v>1342600</v>
+        <v>1365000</v>
       </c>
       <c r="J26" s="3">
-        <v>4102600</v>
+        <v>4171400</v>
       </c>
       <c r="K26" s="3">
         <v>3275800</v>
@@ -1588,25 +1588,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-2499100</v>
+        <v>-2541000</v>
       </c>
       <c r="E27" s="3">
-        <v>1297900</v>
+        <v>1319600</v>
       </c>
       <c r="F27" s="3">
-        <v>1359600</v>
+        <v>1382400</v>
       </c>
       <c r="G27" s="3">
-        <v>2797500</v>
+        <v>2844400</v>
       </c>
       <c r="H27" s="3">
-        <v>1578100</v>
+        <v>1604600</v>
       </c>
       <c r="I27" s="3">
-        <v>673700</v>
+        <v>685000</v>
       </c>
       <c r="J27" s="3">
-        <v>3267500</v>
+        <v>3322200</v>
       </c>
       <c r="K27" s="3">
         <v>2419600</v>
@@ -1838,25 +1838,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-82800</v>
+        <v>-84200</v>
       </c>
       <c r="E32" s="3">
-        <v>-292700</v>
+        <v>-297600</v>
       </c>
       <c r="F32" s="3">
-        <v>-562000</v>
+        <v>-571400</v>
       </c>
       <c r="G32" s="3">
-        <v>-547700</v>
+        <v>-556900</v>
       </c>
       <c r="H32" s="3">
-        <v>-424100</v>
+        <v>-431200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1268600</v>
+        <v>-1289900</v>
       </c>
       <c r="J32" s="3">
-        <v>-415100</v>
+        <v>-422100</v>
       </c>
       <c r="K32" s="3">
         <v>-526900</v>
@@ -1888,25 +1888,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-2499100</v>
+        <v>-2541000</v>
       </c>
       <c r="E33" s="3">
-        <v>1297900</v>
+        <v>1319600</v>
       </c>
       <c r="F33" s="3">
-        <v>1359600</v>
+        <v>1382400</v>
       </c>
       <c r="G33" s="3">
-        <v>2797500</v>
+        <v>2844400</v>
       </c>
       <c r="H33" s="3">
-        <v>1578100</v>
+        <v>1604600</v>
       </c>
       <c r="I33" s="3">
-        <v>673700</v>
+        <v>685000</v>
       </c>
       <c r="J33" s="3">
-        <v>3267500</v>
+        <v>3322200</v>
       </c>
       <c r="K33" s="3">
         <v>2419600</v>
@@ -1988,25 +1988,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-2499100</v>
+        <v>-2541000</v>
       </c>
       <c r="E35" s="3">
-        <v>1297900</v>
+        <v>1319600</v>
       </c>
       <c r="F35" s="3">
-        <v>1359600</v>
+        <v>1382400</v>
       </c>
       <c r="G35" s="3">
-        <v>2797500</v>
+        <v>2844400</v>
       </c>
       <c r="H35" s="3">
-        <v>1578100</v>
+        <v>1604600</v>
       </c>
       <c r="I35" s="3">
-        <v>673700</v>
+        <v>685000</v>
       </c>
       <c r="J35" s="3">
-        <v>3267500</v>
+        <v>3322200</v>
       </c>
       <c r="K35" s="3">
         <v>2419600</v>
@@ -2133,25 +2133,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>11903400</v>
+        <v>12102900</v>
       </c>
       <c r="E41" s="3">
-        <v>13305300</v>
+        <v>13528200</v>
       </c>
       <c r="F41" s="3">
-        <v>17179400</v>
+        <v>17467200</v>
       </c>
       <c r="G41" s="3">
-        <v>13956700</v>
+        <v>14190600</v>
       </c>
       <c r="H41" s="3">
-        <v>17863800</v>
+        <v>18163200</v>
       </c>
       <c r="I41" s="3">
-        <v>13235200</v>
+        <v>13457000</v>
       </c>
       <c r="J41" s="3">
-        <v>23783800</v>
+        <v>24182300</v>
       </c>
       <c r="K41" s="3">
         <v>16442100</v>
@@ -2183,25 +2183,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3297800</v>
+        <v>3353000</v>
       </c>
       <c r="E42" s="3">
-        <v>3734900</v>
+        <v>3797500</v>
       </c>
       <c r="F42" s="3">
-        <v>5562200</v>
+        <v>5655400</v>
       </c>
       <c r="G42" s="3">
-        <v>3419100</v>
+        <v>3476400</v>
       </c>
       <c r="H42" s="3">
-        <v>1242200</v>
+        <v>1263000</v>
       </c>
       <c r="I42" s="3">
-        <v>1468200</v>
+        <v>1492800</v>
       </c>
       <c r="J42" s="3">
-        <v>1913500</v>
+        <v>1945600</v>
       </c>
       <c r="K42" s="3">
         <v>1549600</v>
@@ -2233,25 +2233,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>13168200</v>
+        <v>13388900</v>
       </c>
       <c r="E43" s="3">
-        <v>10963400</v>
+        <v>11147100</v>
       </c>
       <c r="F43" s="3">
-        <v>13434300</v>
+        <v>13659400</v>
       </c>
       <c r="G43" s="3">
-        <v>12743400</v>
+        <v>12956900</v>
       </c>
       <c r="H43" s="3">
-        <v>14101600</v>
+        <v>14337900</v>
       </c>
       <c r="I43" s="3">
-        <v>11676300</v>
+        <v>11871900</v>
       </c>
       <c r="J43" s="3">
-        <v>13521400</v>
+        <v>13748000</v>
       </c>
       <c r="K43" s="3">
         <v>12206500</v>
@@ -2283,25 +2283,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>28620300</v>
+        <v>29099800</v>
       </c>
       <c r="E44" s="3">
-        <v>28012200</v>
+        <v>28481600</v>
       </c>
       <c r="F44" s="3">
-        <v>25864500</v>
+        <v>26297900</v>
       </c>
       <c r="G44" s="3">
-        <v>27002500</v>
+        <v>27455000</v>
       </c>
       <c r="H44" s="3">
-        <v>26168400</v>
+        <v>26606900</v>
       </c>
       <c r="I44" s="3">
-        <v>27343300</v>
+        <v>27801500</v>
       </c>
       <c r="J44" s="3">
-        <v>27246800</v>
+        <v>27703300</v>
       </c>
       <c r="K44" s="3">
         <v>22366700</v>
@@ -2333,25 +2333,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>18062300</v>
+        <v>18365000</v>
       </c>
       <c r="E45" s="3">
-        <v>15879500</v>
+        <v>16145600</v>
       </c>
       <c r="F45" s="3">
-        <v>18150900</v>
+        <v>18455000</v>
       </c>
       <c r="G45" s="3">
-        <v>17003100</v>
+        <v>17288000</v>
       </c>
       <c r="H45" s="3">
-        <v>17481200</v>
+        <v>17774100</v>
       </c>
       <c r="I45" s="3">
-        <v>13757300</v>
+        <v>13987900</v>
       </c>
       <c r="J45" s="3">
-        <v>15899700</v>
+        <v>16166100</v>
       </c>
       <c r="K45" s="3">
         <v>12447100</v>
@@ -2383,25 +2383,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>75052000</v>
+        <v>76309500</v>
       </c>
       <c r="E46" s="3">
-        <v>71895300</v>
+        <v>73099900</v>
       </c>
       <c r="F46" s="3">
-        <v>80191200</v>
+        <v>81534900</v>
       </c>
       <c r="G46" s="3">
-        <v>74124900</v>
+        <v>75366900</v>
       </c>
       <c r="H46" s="3">
-        <v>76857300</v>
+        <v>78145000</v>
       </c>
       <c r="I46" s="3">
-        <v>67480300</v>
+        <v>68611000</v>
       </c>
       <c r="J46" s="3">
-        <v>82365100</v>
+        <v>83745200</v>
       </c>
       <c r="K46" s="3">
         <v>65012000</v>
@@ -2433,25 +2433,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>16376500</v>
+        <v>16650900</v>
       </c>
       <c r="E47" s="3">
-        <v>15877600</v>
+        <v>16143700</v>
       </c>
       <c r="F47" s="3">
-        <v>15389200</v>
+        <v>15647100</v>
       </c>
       <c r="G47" s="3">
-        <v>14607300</v>
+        <v>14852100</v>
       </c>
       <c r="H47" s="3">
-        <v>14741100</v>
+        <v>14988100</v>
       </c>
       <c r="I47" s="3">
-        <v>14351100</v>
+        <v>14591500</v>
       </c>
       <c r="J47" s="3">
-        <v>13882100</v>
+        <v>14114700</v>
       </c>
       <c r="K47" s="3">
         <v>12302800</v>
@@ -2483,25 +2483,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>308414100</v>
+        <v>313581700</v>
       </c>
       <c r="E48" s="3">
-        <v>313805100</v>
+        <v>319063000</v>
       </c>
       <c r="F48" s="3">
-        <v>300293600</v>
+        <v>305325200</v>
       </c>
       <c r="G48" s="3">
-        <v>297519800</v>
+        <v>302504900</v>
       </c>
       <c r="H48" s="3">
-        <v>295122400</v>
+        <v>300067300</v>
       </c>
       <c r="I48" s="3">
-        <v>263211600</v>
+        <v>267621800</v>
       </c>
       <c r="J48" s="3">
-        <v>255366900</v>
+        <v>259645700</v>
       </c>
       <c r="K48" s="3">
         <v>232003200</v>
@@ -2533,25 +2533,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>15615000</v>
+        <v>15876600</v>
       </c>
       <c r="E49" s="3">
-        <v>15500100</v>
+        <v>15759800</v>
       </c>
       <c r="F49" s="3">
-        <v>15991100</v>
+        <v>16259100</v>
       </c>
       <c r="G49" s="3">
-        <v>15708400</v>
+        <v>15971600</v>
       </c>
       <c r="H49" s="3">
-        <v>15042800</v>
+        <v>15294800</v>
       </c>
       <c r="I49" s="3">
-        <v>15137600</v>
+        <v>15391300</v>
       </c>
       <c r="J49" s="3">
-        <v>15939200</v>
+        <v>16206300</v>
       </c>
       <c r="K49" s="3">
         <v>14140200</v>
@@ -2683,25 +2683,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>4450200</v>
+        <v>4524700</v>
       </c>
       <c r="E52" s="3">
-        <v>3735400</v>
+        <v>3798000</v>
       </c>
       <c r="F52" s="3">
-        <v>4022700</v>
+        <v>4090100</v>
       </c>
       <c r="G52" s="3">
-        <v>4160200</v>
+        <v>4229900</v>
       </c>
       <c r="H52" s="3">
-        <v>3844400</v>
+        <v>3908800</v>
       </c>
       <c r="I52" s="3">
-        <v>15665600</v>
+        <v>15928100</v>
       </c>
       <c r="J52" s="3">
-        <v>14819800</v>
+        <v>15068100</v>
       </c>
       <c r="K52" s="3">
         <v>13570900</v>
@@ -2783,25 +2783,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>419907800</v>
+        <v>426943500</v>
       </c>
       <c r="E54" s="3">
-        <v>420813500</v>
+        <v>427864400</v>
       </c>
       <c r="F54" s="3">
-        <v>415888000</v>
+        <v>422856300</v>
       </c>
       <c r="G54" s="3">
-        <v>406120700</v>
+        <v>412925400</v>
       </c>
       <c r="H54" s="3">
-        <v>405608000</v>
+        <v>412404100</v>
       </c>
       <c r="I54" s="3">
-        <v>375846200</v>
+        <v>382143700</v>
       </c>
       <c r="J54" s="3">
-        <v>382373100</v>
+        <v>388780000</v>
       </c>
       <c r="K54" s="3">
         <v>337029000</v>
@@ -2873,25 +2873,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>45008700</v>
+        <v>45762800</v>
       </c>
       <c r="E57" s="3">
-        <v>50553800</v>
+        <v>51400800</v>
       </c>
       <c r="F57" s="3">
-        <v>51878000</v>
+        <v>52747300</v>
       </c>
       <c r="G57" s="3">
-        <v>48054400</v>
+        <v>48859600</v>
       </c>
       <c r="H57" s="3">
-        <v>44240800</v>
+        <v>44982000</v>
       </c>
       <c r="I57" s="3">
-        <v>46170600</v>
+        <v>46944200</v>
       </c>
       <c r="J57" s="3">
-        <v>51599200</v>
+        <v>52463700</v>
       </c>
       <c r="K57" s="3">
         <v>42546300</v>
@@ -2923,25 +2923,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>44861600</v>
+        <v>45613300</v>
       </c>
       <c r="E58" s="3">
-        <v>28214200</v>
+        <v>28687000</v>
       </c>
       <c r="F58" s="3">
-        <v>27280600</v>
+        <v>27737700</v>
       </c>
       <c r="G58" s="3">
-        <v>25786100</v>
+        <v>26218200</v>
       </c>
       <c r="H58" s="3">
-        <v>20862800</v>
+        <v>21212300</v>
       </c>
       <c r="I58" s="3">
-        <v>22350200</v>
+        <v>22724700</v>
       </c>
       <c r="J58" s="3">
-        <v>23374500</v>
+        <v>23766100</v>
       </c>
       <c r="K58" s="3">
         <v>20725700</v>
@@ -2973,25 +2973,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>19758100</v>
+        <v>20089200</v>
       </c>
       <c r="E59" s="3">
-        <v>23077300</v>
+        <v>23464000</v>
       </c>
       <c r="F59" s="3">
-        <v>20697700</v>
+        <v>21044500</v>
       </c>
       <c r="G59" s="3">
-        <v>18904000</v>
+        <v>19220700</v>
       </c>
       <c r="H59" s="3">
-        <v>22306800</v>
+        <v>22680500</v>
       </c>
       <c r="I59" s="3">
-        <v>23317500</v>
+        <v>23708200</v>
       </c>
       <c r="J59" s="3">
-        <v>21083400</v>
+        <v>21436700</v>
       </c>
       <c r="K59" s="3">
         <v>15928600</v>
@@ -3023,25 +3023,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>109628400</v>
+        <v>111465200</v>
       </c>
       <c r="E60" s="3">
-        <v>101845300</v>
+        <v>103551800</v>
       </c>
       <c r="F60" s="3">
-        <v>99856300</v>
+        <v>101529500</v>
       </c>
       <c r="G60" s="3">
-        <v>92744500</v>
+        <v>94298400</v>
       </c>
       <c r="H60" s="3">
-        <v>87410300</v>
+        <v>88874900</v>
       </c>
       <c r="I60" s="3">
-        <v>91838300</v>
+        <v>93377100</v>
       </c>
       <c r="J60" s="3">
-        <v>96057000</v>
+        <v>97666500</v>
       </c>
       <c r="K60" s="3">
         <v>79200600</v>
@@ -3073,25 +3073,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>63581100</v>
+        <v>64646400</v>
       </c>
       <c r="E61" s="3">
-        <v>70064700</v>
+        <v>71238700</v>
       </c>
       <c r="F61" s="3">
-        <v>69406200</v>
+        <v>70569100</v>
       </c>
       <c r="G61" s="3">
-        <v>67915700</v>
+        <v>69053600</v>
       </c>
       <c r="H61" s="3">
-        <v>73019800</v>
+        <v>74243300</v>
       </c>
       <c r="I61" s="3">
-        <v>41485600</v>
+        <v>42180700</v>
       </c>
       <c r="J61" s="3">
-        <v>43252500</v>
+        <v>43977200</v>
       </c>
       <c r="K61" s="3">
         <v>39861900</v>
@@ -3123,25 +3123,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>26744600</v>
+        <v>27192700</v>
       </c>
       <c r="E62" s="3">
-        <v>26509400</v>
+        <v>26953500</v>
       </c>
       <c r="F62" s="3">
-        <v>26031100</v>
+        <v>26467300</v>
       </c>
       <c r="G62" s="3">
-        <v>25910500</v>
+        <v>26344700</v>
       </c>
       <c r="H62" s="3">
-        <v>25537900</v>
+        <v>25965800</v>
       </c>
       <c r="I62" s="3">
-        <v>25581300</v>
+        <v>26009900</v>
       </c>
       <c r="J62" s="3">
-        <v>25187600</v>
+        <v>25609600</v>
       </c>
       <c r="K62" s="3">
         <v>22023000</v>
@@ -3323,25 +3323,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>233250800</v>
+        <v>237159000</v>
       </c>
       <c r="E66" s="3">
-        <v>231394100</v>
+        <v>235271200</v>
       </c>
       <c r="F66" s="3">
-        <v>227223200</v>
+        <v>231030400</v>
       </c>
       <c r="G66" s="3">
-        <v>217235900</v>
+        <v>220875800</v>
       </c>
       <c r="H66" s="3">
-        <v>216844800</v>
+        <v>220478100</v>
       </c>
       <c r="I66" s="3">
-        <v>188947900</v>
+        <v>192113800</v>
       </c>
       <c r="J66" s="3">
-        <v>194910500</v>
+        <v>198176300</v>
       </c>
       <c r="K66" s="3">
         <v>167928300</v>
@@ -3593,25 +3593,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>158475400</v>
+        <v>161130800</v>
       </c>
       <c r="E72" s="3">
-        <v>161237800</v>
+        <v>163939500</v>
       </c>
       <c r="F72" s="3">
-        <v>160483200</v>
+        <v>163172200</v>
       </c>
       <c r="G72" s="3">
-        <v>160703200</v>
+        <v>163395900</v>
       </c>
       <c r="H72" s="3">
-        <v>160581600</v>
+        <v>163272200</v>
       </c>
       <c r="I72" s="3">
-        <v>189334400</v>
+        <v>192506800</v>
       </c>
       <c r="J72" s="3">
-        <v>159281100</v>
+        <v>161949900</v>
       </c>
       <c r="K72" s="3">
         <v>143485000</v>
@@ -3793,25 +3793,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>186657000</v>
+        <v>189784500</v>
       </c>
       <c r="E76" s="3">
-        <v>189419400</v>
+        <v>192593200</v>
       </c>
       <c r="F76" s="3">
-        <v>188664800</v>
+        <v>191825900</v>
       </c>
       <c r="G76" s="3">
-        <v>188884800</v>
+        <v>192049600</v>
       </c>
       <c r="H76" s="3">
-        <v>188763200</v>
+        <v>191926000</v>
       </c>
       <c r="I76" s="3">
-        <v>186898300</v>
+        <v>190029900</v>
       </c>
       <c r="J76" s="3">
-        <v>187462600</v>
+        <v>190603700</v>
       </c>
       <c r="K76" s="3">
         <v>169100700</v>
@@ -3948,25 +3948,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-2499100</v>
+        <v>-2541000</v>
       </c>
       <c r="E81" s="3">
-        <v>1297900</v>
+        <v>1319600</v>
       </c>
       <c r="F81" s="3">
-        <v>1359600</v>
+        <v>1382400</v>
       </c>
       <c r="G81" s="3">
-        <v>2797500</v>
+        <v>2844400</v>
       </c>
       <c r="H81" s="3">
-        <v>1578100</v>
+        <v>1604600</v>
       </c>
       <c r="I81" s="3">
-        <v>673700</v>
+        <v>685000</v>
       </c>
       <c r="J81" s="3">
-        <v>3267500</v>
+        <v>3322200</v>
       </c>
       <c r="K81" s="3">
         <v>2419600</v>
@@ -4018,25 +4018,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>8903900</v>
+        <v>9053100</v>
       </c>
       <c r="E83" s="3">
-        <v>9282100</v>
+        <v>9437600</v>
       </c>
       <c r="F83" s="3">
-        <v>8680500</v>
+        <v>8825900</v>
       </c>
       <c r="G83" s="3">
-        <v>8240400</v>
+        <v>8378500</v>
       </c>
       <c r="H83" s="3">
-        <v>8482900</v>
+        <v>8625000</v>
       </c>
       <c r="I83" s="3">
-        <v>10093700</v>
+        <v>10262800</v>
       </c>
       <c r="J83" s="3">
-        <v>8029300</v>
+        <v>8163800</v>
       </c>
       <c r="K83" s="3">
         <v>8830900</v>
@@ -4318,25 +4318,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-2786400</v>
+        <v>-2833100</v>
       </c>
       <c r="E89" s="3">
-        <v>18510600</v>
+        <v>18820700</v>
       </c>
       <c r="F89" s="3">
-        <v>16163400</v>
+        <v>16434300</v>
       </c>
       <c r="G89" s="3">
-        <v>11148600</v>
+        <v>11335400</v>
       </c>
       <c r="H89" s="3">
-        <v>9550100</v>
+        <v>9710200</v>
       </c>
       <c r="I89" s="3">
-        <v>14505200</v>
+        <v>14748300</v>
       </c>
       <c r="J89" s="3">
-        <v>17120600</v>
+        <v>17407400</v>
       </c>
       <c r="K89" s="3">
         <v>12045700</v>
@@ -4388,25 +4388,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-7531600</v>
+        <v>-7657800</v>
       </c>
       <c r="E91" s="3">
-        <v>-22376700</v>
+        <v>-22751600</v>
       </c>
       <c r="F91" s="3">
-        <v>-8501500</v>
+        <v>-8644000</v>
       </c>
       <c r="G91" s="3">
-        <v>-9271100</v>
+        <v>-9426500</v>
       </c>
       <c r="H91" s="3">
-        <v>-9075900</v>
+        <v>-9228000</v>
       </c>
       <c r="I91" s="3">
-        <v>-18345200</v>
+        <v>-18652600</v>
       </c>
       <c r="J91" s="3">
-        <v>-7752000</v>
+        <v>-7881900</v>
       </c>
       <c r="K91" s="3">
         <v>-5684600</v>
@@ -4538,25 +4538,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-7699200</v>
+        <v>-7828200</v>
       </c>
       <c r="E94" s="3">
-        <v>-19333300</v>
+        <v>-19657200</v>
       </c>
       <c r="F94" s="3">
-        <v>-11920800</v>
+        <v>-12120600</v>
       </c>
       <c r="G94" s="3">
-        <v>-10981500</v>
+        <v>-11165500</v>
       </c>
       <c r="H94" s="3">
-        <v>-9031700</v>
+        <v>-9183000</v>
       </c>
       <c r="I94" s="3">
-        <v>-17551900</v>
+        <v>-17846000</v>
       </c>
       <c r="J94" s="3">
-        <v>-8353900</v>
+        <v>-8493800</v>
       </c>
       <c r="K94" s="3">
         <v>-7082300</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2014500</v>
+        <v>-2048300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2502800</v>
+        <v>-2544700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4623,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1877600</v>
+        <v>-1909100</v>
       </c>
       <c r="J96" s="3">
-        <v>-2216400</v>
+        <v>-2253500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4808,25 +4808,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>8949500</v>
+        <v>9099400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2790900</v>
+        <v>-2837700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1414200</v>
+        <v>-1437800</v>
       </c>
       <c r="G100" s="3">
-        <v>-4349300</v>
+        <v>-4422200</v>
       </c>
       <c r="H100" s="3">
-        <v>4354400</v>
+        <v>4427400</v>
       </c>
       <c r="I100" s="3">
-        <v>-7516200</v>
+        <v>-7642200</v>
       </c>
       <c r="J100" s="3">
-        <v>-3405100</v>
+        <v>-3462200</v>
       </c>
       <c r="K100" s="3">
         <v>-6233700</v>
@@ -4858,25 +4858,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>134300</v>
+        <v>136500</v>
       </c>
       <c r="E101" s="3">
-        <v>-260500</v>
+        <v>-264900</v>
       </c>
       <c r="F101" s="3">
-        <v>394200</v>
+        <v>400800</v>
       </c>
       <c r="G101" s="3">
-        <v>185500</v>
+        <v>188700</v>
       </c>
       <c r="H101" s="3">
-        <v>-154600</v>
+        <v>-157200</v>
       </c>
       <c r="I101" s="3">
-        <v>-106100</v>
+        <v>-107900</v>
       </c>
       <c r="J101" s="3">
-        <v>397300</v>
+        <v>403900</v>
       </c>
       <c r="K101" s="3">
         <v>376900</v>
@@ -4908,25 +4908,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1401800</v>
+        <v>-1425300</v>
       </c>
       <c r="E102" s="3">
-        <v>-3874100</v>
+        <v>-3939000</v>
       </c>
       <c r="F102" s="3">
-        <v>3222600</v>
+        <v>3276600</v>
       </c>
       <c r="G102" s="3">
-        <v>-3961900</v>
+        <v>-4028300</v>
       </c>
       <c r="H102" s="3">
-        <v>4683500</v>
+        <v>4761900</v>
       </c>
       <c r="I102" s="3">
-        <v>-10611100</v>
+        <v>-10788900</v>
       </c>
       <c r="J102" s="3">
-        <v>5702300</v>
+        <v>5797900</v>
       </c>
       <c r="K102" s="3">
         <v>-1132700</v>

--- a/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,221 +662,293 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79704400</v>
+        <v>107870000</v>
       </c>
       <c r="E8" s="3">
+        <v>101701200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>87071400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>80089400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>78426400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>66250800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>80315300</v>
+      </c>
+      <c r="K8" s="3">
         <v>109969000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="L8" s="3">
         <v>96776500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="M8" s="3">
         <v>94752900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="N8" s="3">
         <v>93124200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="O8" s="3">
         <v>101484900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="P8" s="3">
         <v>95044400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="Q8" s="3">
         <v>80754500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="R8" s="3">
         <v>77860000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="S8" s="3">
         <v>82840400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="T8" s="3">
         <v>71503200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="U8" s="3">
         <v>71585600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="V8" s="3">
         <v>73249100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="W8" s="3">
         <v>67838200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="X8" s="3">
         <v>59825500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>55513800</v>
+        <v>75980400</v>
       </c>
       <c r="E9" s="3">
+        <v>72650100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>54967100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>50301100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>50761300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>43005800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>55939300</v>
+      </c>
+      <c r="K9" s="3">
         <v>74774200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="L9" s="3">
         <v>66400900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="M9" s="3">
         <v>62903900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="N9" s="3">
         <v>62134400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="O9" s="3">
         <v>68923500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="P9" s="3">
         <v>60664700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="Q9" s="3">
         <v>51298600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="R9" s="3">
         <v>51586700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="S9" s="3">
         <v>51639600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="T9" s="3">
         <v>45592700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="U9" s="3">
         <v>46653400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="V9" s="3">
         <v>46927400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="W9" s="3">
         <v>40599300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="X9" s="3">
         <v>36726700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24190600</v>
+        <v>31889600</v>
       </c>
       <c r="E10" s="3">
+        <v>29051200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>32104300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>29788200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>27665100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>23245000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>24376000</v>
+      </c>
+      <c r="K10" s="3">
         <v>35194800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="L10" s="3">
         <v>30375600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="M10" s="3">
         <v>31849000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="N10" s="3">
         <v>30989800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="O10" s="3">
         <v>32561300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="P10" s="3">
         <v>34379800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="Q10" s="3">
         <v>29456000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="R10" s="3">
         <v>26273300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="S10" s="3">
         <v>31200800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="T10" s="3">
         <v>25910500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="U10" s="3">
         <v>24932100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="V10" s="3">
         <v>26321700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="W10" s="3">
         <v>27238900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="X10" s="3">
         <v>23098800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,58 +967,82 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1180900</v>
+        <v>429300</v>
       </c>
       <c r="E12" s="3">
+        <v>644300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1113300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>684700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>697900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>477400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1190000</v>
+      </c>
+      <c r="K12" s="3">
         <v>639200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="L12" s="3">
         <v>692800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="M12" s="3">
         <v>949500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="N12" s="3">
         <v>971000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="O12" s="3">
         <v>424100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="P12" s="3">
         <v>823200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="Q12" s="3">
         <v>638400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="R12" s="3">
         <v>889300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="S12" s="3">
         <v>1494900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="T12" s="3">
         <v>1031700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="U12" s="3">
         <v>339700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="V12" s="3">
         <v>678200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="W12" s="3">
         <v>403100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="X12" s="3">
         <v>986500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -995,8 +1091,26 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,58 +1159,94 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>9053100</v>
+        <v>7489000</v>
       </c>
       <c r="E15" s="3">
+        <v>8291700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8802400</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7649200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8045900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8923400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9122500</v>
+      </c>
+      <c r="K15" s="3">
         <v>9437600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="L15" s="3">
         <v>8825900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="M15" s="3">
         <v>8391100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="N15" s="3">
         <v>8625000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="O15" s="3">
         <v>10262800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="P15" s="3">
         <v>8163800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="Q15" s="3">
         <v>8830900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="R15" s="3">
         <v>7386800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="S15" s="3">
         <v>10734300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="T15" s="3">
         <v>7262600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="U15" s="3">
         <v>8584000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="V15" s="3">
         <v>8647900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="W15" s="3">
         <v>8956600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="X15" s="3">
         <v>7355100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1112,108 +1262,150 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>80233400</v>
+        <v>102143300</v>
       </c>
       <c r="E17" s="3">
+        <v>94809800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>80006900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>77619500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>67963200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>66671100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>80848400</v>
+      </c>
+      <c r="K17" s="3">
         <v>105839100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="L17" s="3">
         <v>92906300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="M17" s="3">
         <v>88298600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="N17" s="3">
         <v>88504500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="O17" s="3">
         <v>99795700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="P17" s="3">
         <v>88033800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="Q17" s="3">
         <v>75249400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="R17" s="3">
         <v>73836800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="S17" s="3">
         <v>80708900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="T17" s="3">
         <v>68998500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="U17" s="3">
         <v>69092100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="V17" s="3">
         <v>70328100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="W17" s="3">
         <v>65639200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="X17" s="3">
         <v>58229400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-529000</v>
+        <v>5726700</v>
       </c>
       <c r="E18" s="3">
+        <v>6891400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7064500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2469900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10463300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-420300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-533100</v>
+      </c>
+      <c r="K18" s="3">
         <v>4129900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="L18" s="3">
         <v>3870200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="M18" s="3">
         <v>6454300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="N18" s="3">
         <v>4619800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="O18" s="3">
         <v>1689100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="P18" s="3">
         <v>7010600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="Q18" s="3">
         <v>5505200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="R18" s="3">
         <v>4023200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="S18" s="3">
         <v>2131500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="T18" s="3">
         <v>2504700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="U18" s="3">
         <v>2493400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="V18" s="3">
         <v>2921000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="W18" s="3">
         <v>2198900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="X18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1232,258 +1424,354 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>84200</v>
+        <v>712900</v>
       </c>
       <c r="E20" s="3">
+        <v>755400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>624600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>494700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>176500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>295200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K20" s="3">
         <v>297600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="L20" s="3">
         <v>571400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="M20" s="3">
         <v>556900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="N20" s="3">
         <v>431200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="O20" s="3">
         <v>1289900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="P20" s="3">
         <v>422100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="Q20" s="3">
         <v>526900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="R20" s="3">
         <v>264900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="S20" s="3">
         <v>570200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="T20" s="3">
         <v>186000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="U20" s="3">
         <v>213000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="V20" s="3">
         <v>184800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="W20" s="3">
         <v>255200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="X20" s="3">
         <v>306400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>8608300</v>
+        <v>13928600</v>
       </c>
       <c r="E21" s="3">
+        <v>15938500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>16491400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10613800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>18685700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8798300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>8674300</v>
+      </c>
+      <c r="K21" s="3">
         <v>13865100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="L21" s="3">
         <v>13267500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="M21" s="3">
         <v>15389700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="N21" s="3">
         <v>13676000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="O21" s="3">
         <v>13241800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="P21" s="3">
         <v>15596500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="Q21" s="3">
         <v>14863100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="R21" s="3">
         <v>11674800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="S21" s="3">
         <v>13416900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="T21" s="3">
         <v>9972400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="U21" s="3">
         <v>11290400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="V21" s="3">
         <v>11753600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="W21" s="3">
         <v>11410700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="X21" s="3">
         <v>9257600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1225900</v>
+        <v>730400</v>
       </c>
       <c r="E22" s="3">
+        <v>775700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>832500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>895300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>941400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1113200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1235300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1215200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="L22" s="3">
         <v>1166400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="M22" s="3">
         <v>1189100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="N22" s="3">
         <v>1203900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="O22" s="3">
         <v>899800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="P22" s="3">
         <v>887700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="Q22" s="3">
         <v>798900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="R22" s="3">
         <v>802500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="S22" s="3">
         <v>825000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="T22" s="3">
         <v>818800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="U22" s="3">
         <v>813300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="V22" s="3">
         <v>868500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="W22" s="3">
         <v>752200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="X22" s="3">
         <v>908200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1670700</v>
+        <v>5709200</v>
       </c>
       <c r="E23" s="3">
+        <v>6871100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6856600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2069300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>9698500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1238300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1683500</v>
+      </c>
+      <c r="K23" s="3">
         <v>3212300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="L23" s="3">
         <v>3275200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="M23" s="3">
         <v>5822200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="N23" s="3">
         <v>3847000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="O23" s="3">
         <v>2079300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="P23" s="3">
         <v>6545000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="Q23" s="3">
         <v>5233200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="R23" s="3">
         <v>3485600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="S23" s="3">
         <v>1876600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="T23" s="3">
         <v>1871900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="U23" s="3">
         <v>1893100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="V23" s="3">
         <v>2237300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="W23" s="3">
         <v>1702000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="X23" s="3">
         <v>994300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>419300</v>
+        <v>1727000</v>
       </c>
       <c r="E24" s="3">
+        <v>1164600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1864200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>48900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2756700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>335400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>422500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1092500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="L24" s="3">
         <v>1030600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="M24" s="3">
         <v>2207300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="N24" s="3">
         <v>1336900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="O24" s="3">
         <v>714200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="P24" s="3">
         <v>2373600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="Q24" s="3">
         <v>1957500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="R24" s="3">
         <v>1302900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="S24" s="3">
         <v>852800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="T24" s="3">
         <v>546400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="U24" s="3">
         <v>358000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="V24" s="3">
         <v>661300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="W24" s="3">
         <v>454500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="X24" s="3">
         <v>428700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1532,108 +1820,162 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-2089900</v>
+        <v>3982200</v>
       </c>
       <c r="E26" s="3">
+        <v>5706500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4992300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2020400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6941800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1573700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2105900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2119800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="L26" s="3">
         <v>2244600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="M26" s="3">
         <v>3614800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="N26" s="3">
         <v>2510100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="O26" s="3">
         <v>1365000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="P26" s="3">
         <v>4171400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="Q26" s="3">
         <v>3275800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="R26" s="3">
         <v>2182600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="S26" s="3">
         <v>1023900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="T26" s="3">
         <v>1325400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="U26" s="3">
         <v>1535200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="V26" s="3">
         <v>1576000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="W26" s="3">
         <v>1247500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="X26" s="3">
         <v>565600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-2541000</v>
+        <v>3484800</v>
       </c>
       <c r="E27" s="3">
+        <v>3993900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4373300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1410200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>6318300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-2169700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2560400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1319600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="L27" s="3">
         <v>1382400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="M27" s="3">
         <v>2844400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="N27" s="3">
         <v>1604600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="O27" s="3">
         <v>685000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="P27" s="3">
         <v>3322200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="Q27" s="3">
         <v>2419600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="R27" s="3">
         <v>1456800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="S27" s="3">
         <v>806200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="T27" s="3">
         <v>696000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="U27" s="3">
         <v>1035200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="V27" s="3">
         <v>846100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="W27" s="3">
         <v>890900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="X27" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1682,8 +2024,26 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1732,8 +2092,26 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,8 +2160,26 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1832,108 +2228,162 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-84200</v>
+        <v>-712900</v>
       </c>
       <c r="E32" s="3">
+        <v>-755400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-624600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-494700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-176500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-295200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-297600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="L32" s="3">
         <v>-571400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="M32" s="3">
         <v>-556900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="N32" s="3">
         <v>-431200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="O32" s="3">
         <v>-1289900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="P32" s="3">
         <v>-422100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="Q32" s="3">
         <v>-526900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="R32" s="3">
         <v>-264900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="S32" s="3">
         <v>-570200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="T32" s="3">
         <v>-186000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="U32" s="3">
         <v>-213000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="V32" s="3">
         <v>-184800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="W32" s="3">
         <v>-255200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="X32" s="3">
         <v>-306400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-2541000</v>
+        <v>3484800</v>
       </c>
       <c r="E33" s="3">
+        <v>3993900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4373300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1410200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>6318300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-2169700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2560400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1319600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="L33" s="3">
         <v>1382400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="M33" s="3">
         <v>2844400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="N33" s="3">
         <v>1604600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="O33" s="3">
         <v>685000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="P33" s="3">
         <v>3322200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="Q33" s="3">
         <v>2419600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="R33" s="3">
         <v>1456800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="S33" s="3">
         <v>806200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="T33" s="3">
         <v>696000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="U33" s="3">
         <v>1035200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="V33" s="3">
         <v>846100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="W33" s="3">
         <v>890900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="X33" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1982,113 +2432,167 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-2541000</v>
+        <v>3484800</v>
       </c>
       <c r="E35" s="3">
+        <v>3993900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4373300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1410200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>6318300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-2169700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2560400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1319600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="L35" s="3">
         <v>1382400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="M35" s="3">
         <v>2844400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="N35" s="3">
         <v>1604600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="O35" s="3">
         <v>685000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="P35" s="3">
         <v>3322200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="Q35" s="3">
         <v>2419600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="R35" s="3">
         <v>1456800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="S35" s="3">
         <v>806200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="T35" s="3">
         <v>696000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="U35" s="3">
         <v>1035200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="V35" s="3">
         <v>846100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="W35" s="3">
         <v>890900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="X35" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2107,8 +2611,14 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2127,458 +2637,626 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>12102900</v>
+        <v>27226200</v>
       </c>
       <c r="E41" s="3">
+        <v>24357200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>17637300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>18715200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>11914500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>14251200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>12195600</v>
+      </c>
+      <c r="K41" s="3">
         <v>13528200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="L41" s="3">
         <v>17467200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="M41" s="3">
         <v>14190600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="N41" s="3">
         <v>18163200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="O41" s="3">
         <v>13457000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="P41" s="3">
         <v>24182300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="Q41" s="3">
         <v>16442100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="R41" s="3">
         <v>18016800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="S41" s="3">
         <v>18221300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="T41" s="3">
         <v>24510100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="U41" s="3">
         <v>16998600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="V41" s="3">
         <v>14294600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="W41" s="3">
         <v>14242100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="X41" s="3">
         <v>17443900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3353000</v>
+        <v>5115500</v>
       </c>
       <c r="E42" s="3">
+        <v>5306900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5423900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4309800</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4857100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3693800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3378700</v>
+      </c>
+      <c r="K42" s="3">
         <v>3797500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="L42" s="3">
         <v>5655400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="M42" s="3">
         <v>3476400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="N42" s="3">
         <v>1263000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="O42" s="3">
         <v>1492800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="P42" s="3">
         <v>1945600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="Q42" s="3">
         <v>1549600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="R42" s="3">
         <v>121800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="S42" s="3">
         <v>1980400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="T42" s="3">
         <v>640800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="U42" s="3">
         <v>966700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="V42" s="3">
         <v>700300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="W42" s="3">
         <v>99800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="X42" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>13388900</v>
+        <v>14434400</v>
       </c>
       <c r="E43" s="3">
+        <v>12461500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>13969600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>9528900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>26322900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10730500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>13491500</v>
+      </c>
+      <c r="K43" s="3">
         <v>11147100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="L43" s="3">
         <v>13659400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="M43" s="3">
         <v>12956900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="N43" s="3">
         <v>14337900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="O43" s="3">
         <v>11871900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="P43" s="3">
         <v>13748000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="Q43" s="3">
         <v>12206500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="R43" s="3">
         <v>13386500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="S43" s="3">
         <v>13192600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="T43" s="3">
         <v>11651700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="U43" s="3">
         <v>11264900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="V43" s="3">
         <v>11134500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="W43" s="3">
         <v>10442700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="X43" s="3">
         <v>10267900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>29099800</v>
+        <v>23341700</v>
       </c>
       <c r="E44" s="3">
+        <v>26592300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>25842000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>20278300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>25106600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>27655000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>29322900</v>
+      </c>
+      <c r="K44" s="3">
         <v>28481600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="L44" s="3">
         <v>26297900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="M44" s="3">
         <v>27455000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="N44" s="3">
         <v>26606900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="O44" s="3">
         <v>27801500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="P44" s="3">
         <v>27703300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="Q44" s="3">
         <v>22366700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="R44" s="3">
         <v>20906000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="S44" s="3">
         <v>21470300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="T44" s="3">
         <v>20192200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="U44" s="3">
         <v>20663100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="V44" s="3">
         <v>21943200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="W44" s="3">
         <v>21358600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="X44" s="3">
         <v>19165300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>18365000</v>
+        <v>16325500</v>
       </c>
       <c r="E45" s="3">
+        <v>17590200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>23506400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>23960100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>18863700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>18152200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>18505700</v>
+      </c>
+      <c r="K45" s="3">
         <v>16145600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="L45" s="3">
         <v>18455000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="M45" s="3">
         <v>17288000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="N45" s="3">
         <v>17774100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="O45" s="3">
         <v>13987900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="P45" s="3">
         <v>16166100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="Q45" s="3">
         <v>12447100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="R45" s="3">
         <v>12031700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="S45" s="3">
         <v>8233600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="T45" s="3">
         <v>14302700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="U45" s="3">
         <v>14036300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="V45" s="3">
         <v>13055200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="W45" s="3">
         <v>9362300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="X45" s="3">
         <v>13363900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>76309500</v>
+        <v>86443300</v>
       </c>
       <c r="E46" s="3">
+        <v>86308100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>86379300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>76792400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>87064700</v>
+      </c>
+      <c r="I46" s="3">
+        <v>74482800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>76894400</v>
+      </c>
+      <c r="K46" s="3">
         <v>73099900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="L46" s="3">
         <v>81534900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="M46" s="3">
         <v>75366900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="N46" s="3">
         <v>78145000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="O46" s="3">
         <v>68611000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="P46" s="3">
         <v>83745200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="Q46" s="3">
         <v>65012000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="R46" s="3">
         <v>64462800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="S46" s="3">
         <v>63098300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="T46" s="3">
         <v>71297500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="U46" s="3">
         <v>63929700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="V46" s="3">
         <v>61127700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="W46" s="3">
         <v>55505500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="X46" s="3">
         <v>60368300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>16650900</v>
+        <v>43225600</v>
       </c>
       <c r="E47" s="3">
+        <v>42351900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>41647900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>41116000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>40774000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>17095000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>16778600</v>
+      </c>
+      <c r="K47" s="3">
         <v>16143700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="L47" s="3">
         <v>15647100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="M47" s="3">
         <v>14852100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="N47" s="3">
         <v>14988100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="O47" s="3">
         <v>14591500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="P47" s="3">
         <v>14114700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="Q47" s="3">
         <v>12302800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="R47" s="3">
         <v>12443200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="S47" s="3">
         <v>12329300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="T47" s="3">
         <v>12628400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="U47" s="3">
         <v>12429500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="V47" s="3">
         <v>12305400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="W47" s="3">
         <v>11776600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="X47" s="3">
         <v>12256300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>313581700</v>
+        <v>258238900</v>
       </c>
       <c r="E48" s="3">
+        <v>256806500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>257475400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>262177700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>263987200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>309674700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>315985200</v>
+      </c>
+      <c r="K48" s="3">
         <v>319063000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="L48" s="3">
         <v>305325200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="M48" s="3">
         <v>302504900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="N48" s="3">
         <v>300067300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="O48" s="3">
         <v>267621800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="P48" s="3">
         <v>259645700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="Q48" s="3">
         <v>232003200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="R48" s="3">
         <v>239610200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="S48" s="3">
         <v>252714500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="T48" s="3">
         <v>249594500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="U48" s="3">
         <v>250351300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="V48" s="3">
         <v>252390500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="W48" s="3">
         <v>252982000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="X48" s="3">
         <v>250101600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>15876600</v>
+        <v>12085400</v>
       </c>
       <c r="E49" s="3">
+        <v>11812900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>11399300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>10647900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>11453500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>16489100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>15998300</v>
+      </c>
+      <c r="K49" s="3">
         <v>15759800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="L49" s="3">
         <v>16259100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="M49" s="3">
         <v>15971600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="N49" s="3">
         <v>15294800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="O49" s="3">
         <v>15391300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="P49" s="3">
         <v>16206300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="Q49" s="3">
         <v>14140200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="R49" s="3">
         <v>13285000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="S49" s="3">
         <v>13793400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="T49" s="3">
         <v>15283600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="U49" s="3">
         <v>15246000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="V49" s="3">
         <v>15119300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="W49" s="3">
         <v>14942900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="X49" s="3">
         <v>14515700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2627,8 +3305,26 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2677,58 +3373,94 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>4524700</v>
+        <v>1925600</v>
       </c>
       <c r="E52" s="3">
+        <v>2145400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1876700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1792800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1634200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4636700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4559400</v>
+      </c>
+      <c r="K52" s="3">
         <v>3798000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="L52" s="3">
         <v>4090100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="M52" s="3">
         <v>4229900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="N52" s="3">
         <v>3908800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="O52" s="3">
         <v>15928100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="P52" s="3">
         <v>15068100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="Q52" s="3">
         <v>13570900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="R52" s="3">
         <v>14205500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="S52" s="3">
         <v>14933000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="T52" s="3">
         <v>14179100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="U52" s="3">
         <v>14180400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="V52" s="3">
         <v>13734900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="W52" s="3">
         <v>13337800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="X52" s="3">
         <v>12619700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2777,58 +3509,94 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>426943500</v>
+        <v>401918800</v>
       </c>
       <c r="E54" s="3">
+        <v>399424800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>398778500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>392526800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>404913800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>422378300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>430215900</v>
+      </c>
+      <c r="K54" s="3">
         <v>427864400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="L54" s="3">
         <v>422856300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="M54" s="3">
         <v>412925400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="N54" s="3">
         <v>412404100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="O54" s="3">
         <v>382143700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="P54" s="3">
         <v>388780000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="Q54" s="3">
         <v>337029000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="R54" s="3">
         <v>344006600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="S54" s="3">
         <v>356868500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="T54" s="3">
         <v>362983000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="U54" s="3">
         <v>356137000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="V54" s="3">
         <v>354677800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="W54" s="3">
         <v>348545000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="X54" s="3">
         <v>349861500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2847,8 +3615,14 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2867,308 +3641,422 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>45762800</v>
+        <v>58355900</v>
       </c>
       <c r="E57" s="3">
+        <v>54906900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45429500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>49874200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>49666000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>48556300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>46113600</v>
+      </c>
+      <c r="K57" s="3">
         <v>51400800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="L57" s="3">
         <v>52747300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="M57" s="3">
         <v>48859600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="N57" s="3">
         <v>44982000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="O57" s="3">
         <v>46944200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="P57" s="3">
         <v>52463700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="Q57" s="3">
         <v>42546300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="R57" s="3">
         <v>39314200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="S57" s="3">
         <v>51026200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="T57" s="3">
         <v>55311800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="U57" s="3">
         <v>49480600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="V57" s="3">
         <v>47220200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="W57" s="3">
         <v>45182200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="X57" s="3">
         <v>48224900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>45613300</v>
+        <v>16493200</v>
       </c>
       <c r="E58" s="3">
+        <v>19096100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>20655700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>19581300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>36329400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>34658500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>45962900</v>
+      </c>
+      <c r="K58" s="3">
         <v>28687000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="L58" s="3">
         <v>27737700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="M58" s="3">
         <v>26218200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="N58" s="3">
         <v>21212300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="O58" s="3">
         <v>22724700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="P58" s="3">
         <v>23766100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="Q58" s="3">
         <v>20725700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="R58" s="3">
         <v>22920400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="S58" s="3">
         <v>26033600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="T58" s="3">
         <v>29375700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="U58" s="3">
         <v>28622100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="V58" s="3">
         <v>29476900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="W58" s="3">
         <v>20852300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="X58" s="3">
         <v>20508000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>20089200</v>
+        <v>21295100</v>
       </c>
       <c r="E59" s="3">
+        <v>21069600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>24007100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>26055200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>21592600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>21557300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>20243100</v>
+      </c>
+      <c r="K59" s="3">
         <v>23464000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="L59" s="3">
         <v>21044500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="M59" s="3">
         <v>19220700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="N59" s="3">
         <v>22680500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="O59" s="3">
         <v>23708200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="P59" s="3">
         <v>21436700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="Q59" s="3">
         <v>15928600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="R59" s="3">
         <v>16735100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="S59" s="3">
         <v>8523300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="T59" s="3">
         <v>5901100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="U59" s="3">
         <v>5291000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="V59" s="3">
         <v>6047400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="W59" s="3">
         <v>6573300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="X59" s="3">
         <v>5292100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>111465200</v>
+        <v>96144200</v>
       </c>
       <c r="E60" s="3">
+        <v>95072600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>90092300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>95510700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>107588100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>104772000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>112319600</v>
+      </c>
+      <c r="K60" s="3">
         <v>103551800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="L60" s="3">
         <v>101529500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="M60" s="3">
         <v>94298400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="N60" s="3">
         <v>88874900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="O60" s="3">
         <v>93377100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="P60" s="3">
         <v>97666500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="Q60" s="3">
         <v>79200600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="R60" s="3">
         <v>78969700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="S60" s="3">
         <v>85583100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="T60" s="3">
         <v>90588600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="U60" s="3">
         <v>83393700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="V60" s="3">
         <v>82744500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="W60" s="3">
         <v>72607800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="X60" s="3">
         <v>74024900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>64646400</v>
+        <v>63492400</v>
       </c>
       <c r="E61" s="3">
+        <v>61860700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>65726800</v>
+      </c>
+      <c r="G61" s="3">
+        <v>59005900</v>
+      </c>
+      <c r="H61" s="3">
+        <v>57072000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>70105400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>65141900</v>
+      </c>
+      <c r="K61" s="3">
         <v>71238700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="L61" s="3">
         <v>70569100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="M61" s="3">
         <v>69053600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="N61" s="3">
         <v>74243300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="O61" s="3">
         <v>42180700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="P61" s="3">
         <v>43977200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="Q61" s="3">
         <v>39861900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="R61" s="3">
         <v>42939800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="S61" s="3">
         <v>43017800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="T61" s="3">
         <v>44511900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="U61" s="3">
         <v>44551300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="V61" s="3">
         <v>43683400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="W61" s="3">
         <v>54229000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="X61" s="3">
         <v>55836500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>27192700</v>
+        <v>23227000</v>
       </c>
       <c r="E62" s="3">
+        <v>22786700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>22702000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>22412000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>25544700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>26574500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>27401200</v>
+      </c>
+      <c r="K62" s="3">
         <v>26953500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="L62" s="3">
         <v>26467300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="M62" s="3">
         <v>26344700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="N62" s="3">
         <v>25965800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="O62" s="3">
         <v>26009900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="P62" s="3">
         <v>25609600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="Q62" s="3">
         <v>22023000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="R62" s="3">
         <v>22429900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="S62" s="3">
         <v>23265900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="T62" s="3">
         <v>23135000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="U62" s="3">
         <v>22808800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="V62" s="3">
         <v>22540100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="W62" s="3">
         <v>22071300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="X62" s="3">
         <v>21586900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3217,8 +4105,26 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3267,8 +4173,26 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3317,58 +4241,94 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>237159000</v>
+        <v>205409500</v>
       </c>
       <c r="E66" s="3">
+        <v>201993700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>202877600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>200823400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>213978900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>234841500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>238976700</v>
+      </c>
+      <c r="K66" s="3">
         <v>235271200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="L66" s="3">
         <v>231030400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="M66" s="3">
         <v>220875800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="N66" s="3">
         <v>220478100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="O66" s="3">
         <v>192113800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="P66" s="3">
         <v>198176300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="Q66" s="3">
         <v>167928300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="R66" s="3">
         <v>171721000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="S66" s="3">
         <v>179738200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="T66" s="3">
         <v>185934900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="U66" s="3">
         <v>178388700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="V66" s="3">
         <v>176946600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="W66" s="3">
         <v>175625200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="X66" s="3">
         <v>177976400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3387,8 +4347,14 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3437,8 +4403,26 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3487,8 +4471,26 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3537,8 +4539,26 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3587,58 +4607,94 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>161130800</v>
+        <v>167635900</v>
       </c>
       <c r="E72" s="3">
+        <v>168557700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>167027500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>162829900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>162061500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>158663300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>162365800</v>
+      </c>
+      <c r="K72" s="3">
         <v>163939500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>163172200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>163395900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>163272200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>192506800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="P72" s="3">
         <v>161949900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>143485000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="R72" s="3">
         <v>146025800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="S72" s="3">
         <v>149968200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="T72" s="3">
         <v>149885900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="U72" s="3">
         <v>150586100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="V72" s="3">
         <v>150569100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="W72" s="3">
         <v>131176300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="X72" s="3">
         <v>145268400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3687,8 +4743,26 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3737,8 +4811,26 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3787,58 +4879,94 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>189784500</v>
+        <v>196509300</v>
       </c>
       <c r="E76" s="3">
+        <v>197431100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>195900800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>191703300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>190934900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>187536700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>191239200</v>
+      </c>
+      <c r="K76" s="3">
         <v>192593200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="L76" s="3">
         <v>191825900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="M76" s="3">
         <v>192049600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="N76" s="3">
         <v>191926000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="O76" s="3">
         <v>190029900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="P76" s="3">
         <v>190603700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="Q76" s="3">
         <v>169100700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="R76" s="3">
         <v>172285600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="S76" s="3">
         <v>177130300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="T76" s="3">
         <v>177048100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="U76" s="3">
         <v>177748300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="V76" s="3">
         <v>177731200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="W76" s="3">
         <v>172919800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="X76" s="3">
         <v>171885200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3887,113 +5015,167 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-2541000</v>
+        <v>3484800</v>
       </c>
       <c r="E81" s="3">
+        <v>3993900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4373300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1410200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>6318300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-2169700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2560400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1319600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="L81" s="3">
         <v>1382400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="M81" s="3">
         <v>2844400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="N81" s="3">
         <v>1604600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="O81" s="3">
         <v>685000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="P81" s="3">
         <v>3322200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="Q81" s="3">
         <v>2419600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="R81" s="3">
         <v>1456800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="S81" s="3">
         <v>806200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="T81" s="3">
         <v>696000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="U81" s="3">
         <v>1035200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="V81" s="3">
         <v>846100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="W81" s="3">
         <v>890900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="X81" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4012,58 +5194,82 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>9053100</v>
+        <v>7489000</v>
       </c>
       <c r="E83" s="3">
+        <v>8291700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>8802400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>7649200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>8045900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>8923400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>9122500</v>
+      </c>
+      <c r="K83" s="3">
         <v>9437600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="L83" s="3">
         <v>8825900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="M83" s="3">
         <v>8378500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="N83" s="3">
         <v>8625000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="O83" s="3">
         <v>10262800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="P83" s="3">
         <v>8163800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="Q83" s="3">
         <v>8830900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="R83" s="3">
         <v>7386800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="S83" s="3">
         <v>10715200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="T83" s="3">
         <v>7281700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="U83" s="3">
         <v>8584000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="V83" s="3">
         <v>8647900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="W83" s="3">
         <v>8956600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="X83" s="3">
         <v>7355100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4112,8 +5318,26 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4162,8 +5386,26 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4212,8 +5454,26 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4262,8 +5522,26 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4312,58 +5590,94 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-2833100</v>
+        <v>17466100</v>
       </c>
       <c r="E89" s="3">
+        <v>18589500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-284000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>24495700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>13287000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>15330500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-2854800</v>
+      </c>
+      <c r="K89" s="3">
         <v>18820700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="L89" s="3">
         <v>16434300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="M89" s="3">
         <v>11335400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="N89" s="3">
         <v>9710200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="O89" s="3">
         <v>14748300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="P89" s="3">
         <v>17407400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="Q89" s="3">
         <v>12045700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="R89" s="3">
         <v>8867400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="S89" s="3">
         <v>18159400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="T89" s="3">
         <v>14761200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="U89" s="3">
         <v>10662500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="V89" s="3">
         <v>10832100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="W89" s="3">
         <v>10799900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="X89" s="3">
         <v>11499900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4382,58 +5696,82 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-7657800</v>
+        <v>-9151500</v>
       </c>
       <c r="E91" s="3">
+        <v>-11737700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-5831900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-13813500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-8742700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-8911100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-7716500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-22751600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="L91" s="3">
         <v>-8644000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="M91" s="3">
         <v>-9426500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="N91" s="3">
         <v>-9228000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="O91" s="3">
         <v>-18652600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="P91" s="3">
         <v>-7881900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="Q91" s="3">
         <v>-5684600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="R91" s="3">
         <v>-8195600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="S91" s="3">
         <v>-15536600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="T91" s="3">
         <v>-6542700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="U91" s="3">
         <v>-5956400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="V91" s="3">
         <v>-5985700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="W91" s="3">
         <v>-9864700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="X91" s="3">
         <v>-4758300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4482,8 +5820,26 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4532,58 +5888,94 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-7828200</v>
+        <v>-8560400</v>
       </c>
       <c r="E94" s="3">
+        <v>-5031100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-6769600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-716200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-10517900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-9587900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-7888200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-19657200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="L94" s="3">
         <v>-12120600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="M94" s="3">
         <v>-11165500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="N94" s="3">
         <v>-9183000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="O94" s="3">
         <v>-17846000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="P94" s="3">
         <v>-8493800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="Q94" s="3">
         <v>-7082300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="R94" s="3">
         <v>-7014600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="S94" s="3">
         <v>-16897700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="T94" s="3">
         <v>-6297800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="U94" s="3">
         <v>-6228600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="V94" s="3">
         <v>-6720600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="W94" s="3">
         <v>-9875000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="X94" s="3">
         <v>-3600000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4602,58 +5994,82 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2628600</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-2317200</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-1943400</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2048300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="L96" s="3">
         <v>-2544700</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1909100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="P96" s="3">
         <v>-2253500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1808700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="T96" s="3">
         <v>-1068100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-552900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="X96" s="3">
         <v>-661900</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4702,8 +6118,26 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4752,8 +6186,26 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4802,154 +6254,226 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>9099400</v>
+        <v>-6048400</v>
       </c>
       <c r="E100" s="3">
+        <v>-6643700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>5925300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-16439100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-4705300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-3706100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>9169200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2837700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="L100" s="3">
         <v>-1437800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="M100" s="3">
         <v>-4422200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="N100" s="3">
         <v>4427400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="O100" s="3">
         <v>-7642200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="P100" s="3">
         <v>-3462200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="Q100" s="3">
         <v>-6233700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="R100" s="3">
         <v>-1154900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="S100" s="3">
         <v>-7396600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="T100" s="3">
         <v>-781200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="U100" s="3">
         <v>-1573600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="V100" s="3">
         <v>-4306700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="W100" s="3">
         <v>-4349800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="X100" s="3">
         <v>-5225900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>136500</v>
+        <v>11700</v>
       </c>
       <c r="E101" s="3">
+        <v>-194700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>50300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-539700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-400600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>137600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-264900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="L101" s="3">
         <v>400800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="M101" s="3">
         <v>188700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="N101" s="3">
         <v>-157200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="O101" s="3">
         <v>-107900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="P101" s="3">
         <v>403900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="Q101" s="3">
         <v>376900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="R101" s="3">
         <v>-297100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="S101" s="3">
         <v>-153900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="T101" s="3">
         <v>-170700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="U101" s="3">
         <v>-156300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="V101" s="3">
         <v>-44200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="W101" s="3">
         <v>223100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="X101" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1425300</v>
+        <v>2869000</v>
       </c>
       <c r="E102" s="3">
+        <v>6719900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-1078000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>6800700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-2336700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2055600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1436200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3939000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="L102" s="3">
         <v>3276600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="M102" s="3">
         <v>-4028300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="N102" s="3">
         <v>4761900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="O102" s="3">
         <v>-10788900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="P102" s="3">
         <v>5797900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="Q102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="R102" s="3">
         <v>400700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="S102" s="3">
         <v>-6288700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="T102" s="3">
         <v>7511500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="U102" s="3">
         <v>2704000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="V102" s="3">
         <v>-239400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="W102" s="3">
         <v>-3201800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="X102" s="3">
         <v>2708600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,293 +662,317 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>107870000</v>
+        <v>114847700</v>
       </c>
       <c r="E8" s="3">
-        <v>101701200</v>
+        <v>108163400</v>
       </c>
       <c r="F8" s="3">
-        <v>87071400</v>
+        <v>100758900</v>
       </c>
       <c r="G8" s="3">
-        <v>80089400</v>
+        <v>94996800</v>
       </c>
       <c r="H8" s="3">
-        <v>78426400</v>
+        <v>81331400</v>
       </c>
       <c r="I8" s="3">
+        <v>74809700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>73256300</v>
+      </c>
+      <c r="K8" s="3">
         <v>66250800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>80315300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>109969000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>96776500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>94752900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>93124200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>101484900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>95044400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>80754500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>77860000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>82840400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>71503200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>71585600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>73249100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>67838200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>59825500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>75980400</v>
+        <v>81207000</v>
       </c>
       <c r="E9" s="3">
-        <v>72650100</v>
+        <v>70654300</v>
       </c>
       <c r="F9" s="3">
-        <v>54967100</v>
+        <v>70971500</v>
       </c>
       <c r="G9" s="3">
-        <v>50301100</v>
+        <v>67860800</v>
       </c>
       <c r="H9" s="3">
-        <v>50761300</v>
+        <v>51343500</v>
       </c>
       <c r="I9" s="3">
+        <v>46985100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>47415000</v>
+      </c>
+      <c r="K9" s="3">
         <v>43005800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>55939300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>74774200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>66400900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>62903900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>62134400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>68923500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>60664700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>51298600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>51586700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>51639600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>45592700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>46653400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>46927400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>40599300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>36726700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31889600</v>
+        <v>33640700</v>
       </c>
       <c r="E10" s="3">
-        <v>29051200</v>
+        <v>37509200</v>
       </c>
       <c r="F10" s="3">
-        <v>32104300</v>
+        <v>29787400</v>
       </c>
       <c r="G10" s="3">
-        <v>29788200</v>
+        <v>27136000</v>
       </c>
       <c r="H10" s="3">
-        <v>27665100</v>
+        <v>29987900</v>
       </c>
       <c r="I10" s="3">
+        <v>27824500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>25841300</v>
+      </c>
+      <c r="K10" s="3">
         <v>23245000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>24376000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>35194800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>30375600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>31849000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>30989800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>32561300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>34379800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>29456000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>26273300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>31200800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>25910500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>24932100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>26321700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>27238900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>23098800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,76 +997,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>429300</v>
+        <v>673300</v>
       </c>
       <c r="E12" s="3">
-        <v>644300</v>
+        <v>1530500</v>
       </c>
       <c r="F12" s="3">
-        <v>1113300</v>
+        <v>401000</v>
       </c>
       <c r="G12" s="3">
-        <v>684700</v>
+        <v>601800</v>
       </c>
       <c r="H12" s="3">
-        <v>697900</v>
+        <v>1039900</v>
       </c>
       <c r="I12" s="3">
+        <v>639500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>651900</v>
+      </c>
+      <c r="K12" s="3">
         <v>477400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1190000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>639200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>692800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>949500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>971000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>424100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>823200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>638400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>889300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1494900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1031700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>339700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>678200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>403100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>986500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1141,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1177,76 +1215,88 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>7489000</v>
+        <v>7647800</v>
       </c>
       <c r="E15" s="3">
-        <v>8291700</v>
+        <v>11117300</v>
       </c>
       <c r="F15" s="3">
-        <v>8802400</v>
+        <v>6995300</v>
       </c>
       <c r="G15" s="3">
-        <v>7649200</v>
+        <v>7745100</v>
       </c>
       <c r="H15" s="3">
-        <v>8045900</v>
+        <v>8222100</v>
       </c>
       <c r="I15" s="3">
+        <v>7144900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>7515500</v>
+      </c>
+      <c r="K15" s="3">
         <v>8923400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>9122500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>9437600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>8825900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>8391100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>8625000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>10262800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>8163800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>8830900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>7386800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>10734300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>7262600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>8584000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>8647900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>8956600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>7355100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1268,144 +1318,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>102143300</v>
+        <v>106409500</v>
       </c>
       <c r="E17" s="3">
-        <v>94809800</v>
+        <v>102801000</v>
       </c>
       <c r="F17" s="3">
-        <v>80006900</v>
+        <v>95409700</v>
       </c>
       <c r="G17" s="3">
-        <v>77619500</v>
+        <v>88559700</v>
       </c>
       <c r="H17" s="3">
-        <v>67963200</v>
+        <v>74732600</v>
       </c>
       <c r="I17" s="3">
+        <v>72502600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>63482800</v>
+      </c>
+      <c r="K17" s="3">
         <v>66671100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>80848400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>105839100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>92906300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>88298600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>88504500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>99795700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>88033800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>75249400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>73836800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>80708900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>68998500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>69092100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>70328100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>65639200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>58229400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5726700</v>
+        <v>8438100</v>
       </c>
       <c r="E18" s="3">
-        <v>6891400</v>
+        <v>5362400</v>
       </c>
       <c r="F18" s="3">
-        <v>7064500</v>
+        <v>5349200</v>
       </c>
       <c r="G18" s="3">
-        <v>2469900</v>
+        <v>6437100</v>
       </c>
       <c r="H18" s="3">
-        <v>10463300</v>
+        <v>6598800</v>
       </c>
       <c r="I18" s="3">
+        <v>2307100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9773500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-420300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-533100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4129900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3870200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6454300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4619800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1689100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>7010600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>5505200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>4023200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2131500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2504700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2493400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2921000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2198900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1596100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1430,348 +1494,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>712900</v>
+        <v>643500</v>
       </c>
       <c r="E20" s="3">
-        <v>755400</v>
+        <v>519100</v>
       </c>
       <c r="F20" s="3">
-        <v>624600</v>
+        <v>665900</v>
       </c>
       <c r="G20" s="3">
-        <v>494700</v>
+        <v>705600</v>
       </c>
       <c r="H20" s="3">
-        <v>176500</v>
+        <v>583400</v>
       </c>
       <c r="I20" s="3">
+        <v>462100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>164900</v>
+      </c>
+      <c r="K20" s="3">
         <v>295200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>84900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>297600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>571400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>556900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>431200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1289900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>422100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>526900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>264900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>570200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>186000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>213000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>184800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>255200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>306400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>13928600</v>
+        <v>16729500</v>
       </c>
       <c r="E21" s="3">
-        <v>15938500</v>
+        <v>16998900</v>
       </c>
       <c r="F21" s="3">
-        <v>16491400</v>
+        <v>13010400</v>
       </c>
       <c r="G21" s="3">
-        <v>10613800</v>
+        <v>14887800</v>
       </c>
       <c r="H21" s="3">
-        <v>18685700</v>
+        <v>15404300</v>
       </c>
       <c r="I21" s="3">
+        <v>9914100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>17453900</v>
+      </c>
+      <c r="K21" s="3">
         <v>8798300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>8674300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>13865100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>13267500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>15389700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>13676000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>13241800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>15596500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>14863100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>11674800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>13416900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>9972400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>11290400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>11753600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>11410700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>9257600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>730400</v>
+        <v>716000</v>
       </c>
       <c r="E22" s="3">
-        <v>775700</v>
+        <v>724300</v>
       </c>
       <c r="F22" s="3">
-        <v>832500</v>
+        <v>682300</v>
       </c>
       <c r="G22" s="3">
-        <v>895300</v>
+        <v>724600</v>
       </c>
       <c r="H22" s="3">
-        <v>941400</v>
+        <v>777600</v>
       </c>
       <c r="I22" s="3">
+        <v>836300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>879300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1113200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1235300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1215200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1166400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1189100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1203900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>899800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>887700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>798900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>802500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>825000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>818800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>813300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>868500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>752200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>908200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>5709200</v>
+        <v>8365600</v>
       </c>
       <c r="E23" s="3">
-        <v>6871100</v>
+        <v>5157300</v>
       </c>
       <c r="F23" s="3">
-        <v>6856600</v>
+        <v>5332800</v>
       </c>
       <c r="G23" s="3">
-        <v>2069300</v>
+        <v>6418100</v>
       </c>
       <c r="H23" s="3">
-        <v>9698500</v>
+        <v>6404600</v>
       </c>
       <c r="I23" s="3">
+        <v>1932900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>9059100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1238300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1683500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3212300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3275200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5822200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3847000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2079300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6545000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>5233200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3485600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1876600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1871900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1893100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2237300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1702000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>994300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1727000</v>
+        <v>1935400</v>
       </c>
       <c r="E24" s="3">
-        <v>1164600</v>
+        <v>1968900</v>
       </c>
       <c r="F24" s="3">
-        <v>1864200</v>
+        <v>1613100</v>
       </c>
       <c r="G24" s="3">
-        <v>48900</v>
+        <v>1087800</v>
       </c>
       <c r="H24" s="3">
-        <v>2756700</v>
+        <v>1741400</v>
       </c>
       <c r="I24" s="3">
+        <v>45700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2575000</v>
+      </c>
+      <c r="K24" s="3">
         <v>335400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>422500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1092500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1030600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2207300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1336900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>714200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2373600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1957500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1302900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>852800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>546400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>358000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>661300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>454500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>428700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1838,144 +1934,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>3982200</v>
+        <v>6430200</v>
       </c>
       <c r="E26" s="3">
-        <v>5706500</v>
+        <v>3188400</v>
       </c>
       <c r="F26" s="3">
-        <v>4992300</v>
+        <v>3719700</v>
       </c>
       <c r="G26" s="3">
-        <v>2020400</v>
+        <v>5330300</v>
       </c>
       <c r="H26" s="3">
-        <v>6941800</v>
+        <v>4663200</v>
       </c>
       <c r="I26" s="3">
+        <v>1887200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>6484100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1573700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2105900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2119800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2244600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3614800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2510100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1365000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4171400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3275800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2182600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1023900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1325400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1535200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1576000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1247500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>565600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>3484800</v>
+        <v>5755900</v>
       </c>
       <c r="E27" s="3">
-        <v>3993900</v>
+        <v>2511600</v>
       </c>
       <c r="F27" s="3">
-        <v>4373300</v>
+        <v>3255000</v>
       </c>
       <c r="G27" s="3">
-        <v>1410200</v>
+        <v>3730600</v>
       </c>
       <c r="H27" s="3">
-        <v>6318300</v>
+        <v>4085000</v>
       </c>
       <c r="I27" s="3">
+        <v>1317300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5901800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2169700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2560400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1319600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1382400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2844400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1604600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>685000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3322200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2419600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1456800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>806200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>696000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1035200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>846100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>890900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2042,8 +2156,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2110,8 +2230,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2178,8 +2304,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2246,144 +2378,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-712900</v>
+        <v>-643500</v>
       </c>
       <c r="E32" s="3">
-        <v>-755400</v>
+        <v>-519100</v>
       </c>
       <c r="F32" s="3">
-        <v>-624600</v>
+        <v>-665900</v>
       </c>
       <c r="G32" s="3">
-        <v>-494700</v>
+        <v>-705600</v>
       </c>
       <c r="H32" s="3">
-        <v>-176500</v>
+        <v>-583400</v>
       </c>
       <c r="I32" s="3">
+        <v>-462100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-164900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-295200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-84900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-297600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-571400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-556900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-431200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1289900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-422100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-526900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-264900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-570200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-186000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-213000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-184800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-255200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-306400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>3484800</v>
+        <v>5755900</v>
       </c>
       <c r="E33" s="3">
-        <v>3993900</v>
+        <v>2511600</v>
       </c>
       <c r="F33" s="3">
-        <v>4373300</v>
+        <v>3255000</v>
       </c>
       <c r="G33" s="3">
-        <v>1410200</v>
+        <v>3730600</v>
       </c>
       <c r="H33" s="3">
-        <v>6318300</v>
+        <v>4085000</v>
       </c>
       <c r="I33" s="3">
+        <v>1317300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5901800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2169700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2560400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1319600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1382400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2844400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1604600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>685000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3322200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2419600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1456800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>806200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>696000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1035200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>846100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>890900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2450,149 +2600,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>3484800</v>
+        <v>5755900</v>
       </c>
       <c r="E35" s="3">
-        <v>3993900</v>
+        <v>2511600</v>
       </c>
       <c r="F35" s="3">
-        <v>4373300</v>
+        <v>3255000</v>
       </c>
       <c r="G35" s="3">
-        <v>1410200</v>
+        <v>3730600</v>
       </c>
       <c r="H35" s="3">
-        <v>6318300</v>
+        <v>4085000</v>
       </c>
       <c r="I35" s="3">
+        <v>1317300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5901800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2169700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2560400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1319600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1382400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2844400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1604600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>685000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3322200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2419600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1456800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>806200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>696000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1035200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>846100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>890900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2617,8 +2785,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2643,620 +2813,676 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>27226200</v>
+        <v>25129000</v>
       </c>
       <c r="E41" s="3">
-        <v>24357200</v>
+        <v>20157200</v>
       </c>
       <c r="F41" s="3">
-        <v>17637300</v>
+        <v>25431400</v>
       </c>
       <c r="G41" s="3">
-        <v>18715200</v>
+        <v>22751500</v>
       </c>
       <c r="H41" s="3">
-        <v>11914500</v>
+        <v>16474600</v>
       </c>
       <c r="I41" s="3">
+        <v>17481500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>11129100</v>
+      </c>
+      <c r="K41" s="3">
         <v>14251200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12195600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>13528200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>17467200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>14190600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>18163200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>13457000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>24182300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>16442100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>18016800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>18221300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>24510100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>16998600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>14294600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>14242100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>17443900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>5115500</v>
+        <v>2930800</v>
       </c>
       <c r="E42" s="3">
-        <v>5306900</v>
+        <v>3941400</v>
       </c>
       <c r="F42" s="3">
-        <v>5423900</v>
+        <v>4778300</v>
       </c>
       <c r="G42" s="3">
-        <v>4309800</v>
+        <v>4957000</v>
       </c>
       <c r="H42" s="3">
-        <v>4857100</v>
+        <v>5066400</v>
       </c>
       <c r="I42" s="3">
+        <v>4025700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4536900</v>
+      </c>
+      <c r="K42" s="3">
         <v>3693800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3378700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3797500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5655400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3476400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1263000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1492800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1945600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1549600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>121800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1980400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>640800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>966700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>700300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>99800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>14434400</v>
+        <v>14662200</v>
       </c>
       <c r="E43" s="3">
-        <v>12461500</v>
+        <v>8935000</v>
       </c>
       <c r="F43" s="3">
-        <v>13969600</v>
+        <v>13482900</v>
       </c>
       <c r="G43" s="3">
-        <v>9528900</v>
+        <v>11640000</v>
       </c>
       <c r="H43" s="3">
-        <v>26322900</v>
+        <v>13048700</v>
       </c>
       <c r="I43" s="3">
+        <v>8900700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>24587600</v>
+      </c>
+      <c r="K43" s="3">
         <v>10730500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>13491500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>11147100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>13659400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>12956900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>14337900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>11871900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>13748000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>12206500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>13386500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>13192600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>11651700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>11264900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>11134500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>10442700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>10267900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>23341700</v>
+        <v>25655100</v>
       </c>
       <c r="E44" s="3">
-        <v>26592300</v>
+        <v>21197400</v>
       </c>
       <c r="F44" s="3">
-        <v>25842000</v>
+        <v>21802900</v>
       </c>
       <c r="G44" s="3">
-        <v>20278300</v>
+        <v>24839300</v>
       </c>
       <c r="H44" s="3">
-        <v>25106600</v>
+        <v>24138500</v>
       </c>
       <c r="I44" s="3">
+        <v>18941500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>23451500</v>
+      </c>
+      <c r="K44" s="3">
         <v>27655000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>29322900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>28481600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>26297900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>27455000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>26606900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>27801500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>27703300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>22366700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>20906000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>21470300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>20192200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>20663100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>21943200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>21358600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>19165300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>16325500</v>
+        <v>20401300</v>
       </c>
       <c r="E45" s="3">
-        <v>17590200</v>
+        <v>16625200</v>
       </c>
       <c r="F45" s="3">
-        <v>23506400</v>
+        <v>15249300</v>
       </c>
       <c r="G45" s="3">
-        <v>23960100</v>
+        <v>16430600</v>
       </c>
       <c r="H45" s="3">
-        <v>18863700</v>
+        <v>21956800</v>
       </c>
       <c r="I45" s="3">
+        <v>22380600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>17620100</v>
+      </c>
+      <c r="K45" s="3">
         <v>18152200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>18505700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>16145600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>18455000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>17288000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>17774100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>13987900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>16166100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>12447100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>12031700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>8233600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>14302700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>14036300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>13055200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>9362300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>13363900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>86443300</v>
+        <v>88778400</v>
       </c>
       <c r="E46" s="3">
-        <v>86308100</v>
+        <v>70856300</v>
       </c>
       <c r="F46" s="3">
-        <v>86379300</v>
+        <v>80744700</v>
       </c>
       <c r="G46" s="3">
-        <v>76792400</v>
+        <v>80618400</v>
       </c>
       <c r="H46" s="3">
-        <v>87064700</v>
+        <v>80684900</v>
       </c>
       <c r="I46" s="3">
+        <v>71730000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>81325200</v>
+      </c>
+      <c r="K46" s="3">
         <v>74482800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>76894400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>73099900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>81534900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>75366900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>78145000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>68611000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>83745200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>65012000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>64462800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>63098300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>71297500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>63929700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>61127700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>55505500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>60368300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>43225600</v>
+        <v>41551500</v>
       </c>
       <c r="E47" s="3">
-        <v>42351900</v>
+        <v>40526500</v>
       </c>
       <c r="F47" s="3">
-        <v>41647900</v>
+        <v>40376100</v>
       </c>
       <c r="G47" s="3">
-        <v>41116000</v>
+        <v>39560000</v>
       </c>
       <c r="H47" s="3">
-        <v>40774000</v>
+        <v>38902300</v>
       </c>
       <c r="I47" s="3">
+        <v>38405600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>38086100</v>
+      </c>
+      <c r="K47" s="3">
         <v>17095000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>16778600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>16143700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>15647100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>14852100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>14988100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>14591500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>14114700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>12302800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>12443200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>12329300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>12628400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>12429500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>12305400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>11776600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>12256300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>258238900</v>
+        <v>242240100</v>
       </c>
       <c r="E48" s="3">
-        <v>256806500</v>
+        <v>245782000</v>
       </c>
       <c r="F48" s="3">
-        <v>257475400</v>
+        <v>241215100</v>
       </c>
       <c r="G48" s="3">
-        <v>262177700</v>
+        <v>239877000</v>
       </c>
       <c r="H48" s="3">
-        <v>263987200</v>
+        <v>240501800</v>
       </c>
       <c r="I48" s="3">
+        <v>244894200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>246584400</v>
+      </c>
+      <c r="K48" s="3">
         <v>309674700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>315985200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>319063000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>305325200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>302504900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>300067300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>267621800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>259645700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>232003200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>239610200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>252714500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>249594500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>250351300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>252390500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>252982000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>250101600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>12085400</v>
+        <v>10412000</v>
       </c>
       <c r="E49" s="3">
-        <v>11812900</v>
+        <v>9776500</v>
       </c>
       <c r="F49" s="3">
-        <v>11399300</v>
+        <v>11288700</v>
       </c>
       <c r="G49" s="3">
-        <v>10647900</v>
+        <v>11034200</v>
       </c>
       <c r="H49" s="3">
-        <v>11453500</v>
+        <v>10647800</v>
       </c>
       <c r="I49" s="3">
+        <v>9945900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10698500</v>
+      </c>
+      <c r="K49" s="3">
         <v>16489100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15998300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15759800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>16259100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>15971600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>15294800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>15391300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>16206300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>14140200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>13285000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>13793400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>15283600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>15246000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>15119300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>14942900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>14515700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3323,8 +3549,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3391,76 +3623,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1925600</v>
+        <v>1745800</v>
       </c>
       <c r="E52" s="3">
-        <v>2145400</v>
+        <v>1792000</v>
       </c>
       <c r="F52" s="3">
-        <v>1876700</v>
+        <v>1798700</v>
       </c>
       <c r="G52" s="3">
-        <v>1792800</v>
+        <v>2003900</v>
       </c>
       <c r="H52" s="3">
-        <v>1634200</v>
+        <v>1753000</v>
       </c>
       <c r="I52" s="3">
+        <v>1674600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1526500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4636700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4559400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3798000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4090100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4229900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3908800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>15928100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>15068100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>13570900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>14205500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>14933000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>14179100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>14180400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>13734900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>13337800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>12619700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3527,76 +3771,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>401918800</v>
+        <v>384727800</v>
       </c>
       <c r="E54" s="3">
-        <v>399424800</v>
+        <v>368733300</v>
       </c>
       <c r="F54" s="3">
-        <v>398778500</v>
+        <v>375423200</v>
       </c>
       <c r="G54" s="3">
-        <v>392526800</v>
+        <v>373093600</v>
       </c>
       <c r="H54" s="3">
-        <v>404913800</v>
+        <v>372489800</v>
       </c>
       <c r="I54" s="3">
+        <v>366650200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>378220700</v>
+      </c>
+      <c r="K54" s="3">
         <v>422378300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>430215900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>427864400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>422856300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>412925400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>412404100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>382143700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>388780000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>337029000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>344006600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>356868500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>362983000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>356137000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>354677800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>348545000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>349861500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3621,8 +3877,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3647,416 +3905,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>58355900</v>
+        <v>56612900</v>
       </c>
       <c r="E57" s="3">
-        <v>54906900</v>
+        <v>44650400</v>
       </c>
       <c r="F57" s="3">
-        <v>45429500</v>
+        <v>54508900</v>
       </c>
       <c r="G57" s="3">
-        <v>49874200</v>
+        <v>51287300</v>
       </c>
       <c r="H57" s="3">
-        <v>49666000</v>
+        <v>42434700</v>
       </c>
       <c r="I57" s="3">
+        <v>46586400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>46391900</v>
+      </c>
+      <c r="K57" s="3">
         <v>48556300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>46113600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>51400800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>52747300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>48859600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>44982000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>46944200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>52463700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>42546300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>39314200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>51026200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>55311800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>49480600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>47220200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>45182200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>48224900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>16493200</v>
+        <v>11533100</v>
       </c>
       <c r="E58" s="3">
-        <v>19096100</v>
+        <v>8827000</v>
       </c>
       <c r="F58" s="3">
-        <v>20655700</v>
+        <v>15405900</v>
       </c>
       <c r="G58" s="3">
-        <v>19581300</v>
+        <v>17837200</v>
       </c>
       <c r="H58" s="3">
-        <v>36329400</v>
+        <v>19294000</v>
       </c>
       <c r="I58" s="3">
+        <v>18290500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>33934500</v>
+      </c>
+      <c r="K58" s="3">
         <v>34658500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>45962900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>28687000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>27737700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>26218200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>21212300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>22724700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>23766100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>20725700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>22920400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>26033600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>29375700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>28622100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>29476900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>20852300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>20508000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>21295100</v>
+        <v>20796000</v>
       </c>
       <c r="E59" s="3">
-        <v>21069600</v>
+        <v>22878400</v>
       </c>
       <c r="F59" s="3">
-        <v>24007100</v>
+        <v>19891200</v>
       </c>
       <c r="G59" s="3">
-        <v>26055200</v>
+        <v>19680700</v>
       </c>
       <c r="H59" s="3">
-        <v>21592600</v>
+        <v>22424500</v>
       </c>
       <c r="I59" s="3">
+        <v>24337500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>20169200</v>
+      </c>
+      <c r="K59" s="3">
         <v>21557300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>20243100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>23464000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>21044500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>19220700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>22680500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>23708200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>21436700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>15928600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>16735100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>8523300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5901100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>5291000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>6047400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>6573300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>5292100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>96144200</v>
+        <v>88942100</v>
       </c>
       <c r="E60" s="3">
-        <v>95072600</v>
+        <v>76355800</v>
       </c>
       <c r="F60" s="3">
-        <v>90092300</v>
+        <v>89806000</v>
       </c>
       <c r="G60" s="3">
-        <v>95510700</v>
+        <v>88805200</v>
       </c>
       <c r="H60" s="3">
-        <v>107588100</v>
+        <v>84153200</v>
       </c>
       <c r="I60" s="3">
+        <v>89214400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>100495500</v>
+      </c>
+      <c r="K60" s="3">
         <v>104772000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>112319600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>103551800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>101529500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>94298400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>88874900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>93377100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>97666500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>79200600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>78969700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>85583100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>90588600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>83393700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>82744500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>72607800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>74024900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>63492400</v>
+        <v>58009300</v>
       </c>
       <c r="E61" s="3">
-        <v>61860700</v>
+        <v>60476100</v>
       </c>
       <c r="F61" s="3">
-        <v>65726800</v>
+        <v>59306800</v>
       </c>
       <c r="G61" s="3">
-        <v>59005900</v>
+        <v>57782700</v>
       </c>
       <c r="H61" s="3">
-        <v>57072000</v>
+        <v>61393900</v>
       </c>
       <c r="I61" s="3">
+        <v>55116000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>53309700</v>
+      </c>
+      <c r="K61" s="3">
         <v>70105400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>65141900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>71238700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>70569100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>69053600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>74243300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>42180700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>43977200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>39861900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>42939800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>43017800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>44511900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>44551300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>43683400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>54229000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>55836500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>23227000</v>
+        <v>23763100</v>
       </c>
       <c r="E62" s="3">
-        <v>22786700</v>
+        <v>24290500</v>
       </c>
       <c r="F62" s="3">
-        <v>22702000</v>
+        <v>21695800</v>
       </c>
       <c r="G62" s="3">
-        <v>22412000</v>
+        <v>21284500</v>
       </c>
       <c r="H62" s="3">
-        <v>25544700</v>
+        <v>21205400</v>
       </c>
       <c r="I62" s="3">
+        <v>20934600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>23860700</v>
+      </c>
+      <c r="K62" s="3">
         <v>26574500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>27401200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>26953500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>26467300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>26344700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>25965800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>26009900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>25609600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>22023000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>22429900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>23265900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>23135000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>22808800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>22540100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>22071300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>21586900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4123,8 +4419,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4191,8 +4493,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4259,76 +4567,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>205409500</v>
+        <v>192600000</v>
       </c>
       <c r="E66" s="3">
-        <v>201993700</v>
+        <v>182535000</v>
       </c>
       <c r="F66" s="3">
-        <v>202877600</v>
+        <v>191868300</v>
       </c>
       <c r="G66" s="3">
-        <v>200823400</v>
+        <v>188677700</v>
       </c>
       <c r="H66" s="3">
-        <v>213978900</v>
+        <v>189503300</v>
       </c>
       <c r="I66" s="3">
+        <v>187584600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>199872800</v>
+      </c>
+      <c r="K66" s="3">
         <v>234841500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>238976700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>235271200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>231030400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>220875800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>220478100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>192113800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>198176300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>167928300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>171721000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>179738200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>185934900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>178388700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>176946600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>175625200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>177976400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4353,8 +4673,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4421,8 +4743,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4489,8 +4817,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4557,8 +4891,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4625,76 +4965,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>167635900</v>
+        <v>165157800</v>
       </c>
       <c r="E72" s="3">
-        <v>168557700</v>
+        <v>159228400</v>
       </c>
       <c r="F72" s="3">
-        <v>167027500</v>
+        <v>156584900</v>
       </c>
       <c r="G72" s="3">
-        <v>162829900</v>
+        <v>157445900</v>
       </c>
       <c r="H72" s="3">
-        <v>162061500</v>
+        <v>156016500</v>
       </c>
       <c r="I72" s="3">
+        <v>152095700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>151377900</v>
+      </c>
+      <c r="K72" s="3">
         <v>158663300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>162365800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>163939500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>163172200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>163395900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>163272200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>192506800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>161949900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>143485000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>146025800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>149968200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>149885900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>150586100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>150569100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>131176300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>145268400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4761,8 +5113,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4829,8 +5187,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4897,76 +5261,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>196509300</v>
+        <v>192127800</v>
       </c>
       <c r="E76" s="3">
-        <v>197431100</v>
+        <v>186198300</v>
       </c>
       <c r="F76" s="3">
-        <v>195900800</v>
+        <v>183554900</v>
       </c>
       <c r="G76" s="3">
-        <v>191703300</v>
+        <v>184415900</v>
       </c>
       <c r="H76" s="3">
-        <v>190934900</v>
+        <v>182986500</v>
       </c>
       <c r="I76" s="3">
+        <v>179065700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>178347900</v>
+      </c>
+      <c r="K76" s="3">
         <v>187536700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>191239200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>192593200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>191825900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>192049600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>191926000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>190029900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>190603700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>169100700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>172285600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>177130300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>177048100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>177748300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>177731200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>172919800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>171885200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5033,149 +5409,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>3484800</v>
+        <v>5755900</v>
       </c>
       <c r="E81" s="3">
-        <v>3993900</v>
+        <v>2511600</v>
       </c>
       <c r="F81" s="3">
-        <v>4373300</v>
+        <v>3255000</v>
       </c>
       <c r="G81" s="3">
-        <v>1410200</v>
+        <v>3730600</v>
       </c>
       <c r="H81" s="3">
-        <v>6318300</v>
+        <v>4085000</v>
       </c>
       <c r="I81" s="3">
+        <v>1317300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5901800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2169700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2560400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1319600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1382400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2844400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1604600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>685000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3322200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2419600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1456800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>806200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>696000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1035200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>846100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>890900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5200,76 +5594,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>7489000</v>
+        <v>7647800</v>
       </c>
       <c r="E83" s="3">
-        <v>8291700</v>
+        <v>11117300</v>
       </c>
       <c r="F83" s="3">
-        <v>8802400</v>
+        <v>6995300</v>
       </c>
       <c r="G83" s="3">
-        <v>7649200</v>
+        <v>7745100</v>
       </c>
       <c r="H83" s="3">
-        <v>8045900</v>
+        <v>8222100</v>
       </c>
       <c r="I83" s="3">
+        <v>7144900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>7515500</v>
+      </c>
+      <c r="K83" s="3">
         <v>8923400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>9122500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>9437600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>8825900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8378500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8625000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>10262800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>8163800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>8830900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>7386800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>10715200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>7281700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>8584000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>8647900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>8956600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>7355100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5336,8 +5738,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5404,8 +5812,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5472,8 +5886,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5540,8 +5960,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5608,76 +6034,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>17466100</v>
+        <v>12440900</v>
       </c>
       <c r="E89" s="3">
-        <v>18589500</v>
+        <v>16905400</v>
       </c>
       <c r="F89" s="3">
-        <v>-284000</v>
+        <v>16314700</v>
       </c>
       <c r="G89" s="3">
-        <v>24495700</v>
+        <v>17364000</v>
       </c>
       <c r="H89" s="3">
-        <v>13287000</v>
+        <v>-265200</v>
       </c>
       <c r="I89" s="3">
+        <v>22880900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>12411100</v>
+      </c>
+      <c r="K89" s="3">
         <v>15330500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2854800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>18820700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16434300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>11335400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>9710200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>14748300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>17407400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>12045700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>8867400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>18159400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>14761200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>10662500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>10832100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>10799900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>11499900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5702,76 +6140,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-9151500</v>
+        <v>-7635000</v>
       </c>
       <c r="E91" s="3">
-        <v>-11737700</v>
+        <v>-13592300</v>
       </c>
       <c r="F91" s="3">
-        <v>-5831900</v>
+        <v>-8548200</v>
       </c>
       <c r="G91" s="3">
-        <v>-13813500</v>
+        <v>-10963900</v>
       </c>
       <c r="H91" s="3">
-        <v>-8742700</v>
+        <v>-5447500</v>
       </c>
       <c r="I91" s="3">
+        <v>-12902800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-8166400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8911100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7716500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-22751600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8644000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-9426500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9228000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-18652600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-7881900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-5684600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-8195600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-15536600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-6542700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-5956400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-5985700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-9864700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-4758300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5838,8 +6284,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5906,76 +6358,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-8560400</v>
+        <v>-6596600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5031100</v>
+        <v>-12373500</v>
       </c>
       <c r="F94" s="3">
-        <v>-6769600</v>
+        <v>-7996000</v>
       </c>
       <c r="G94" s="3">
-        <v>-716200</v>
+        <v>-4699500</v>
       </c>
       <c r="H94" s="3">
-        <v>-10517900</v>
+        <v>-6323400</v>
       </c>
       <c r="I94" s="3">
+        <v>-669000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9824500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9587900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-7888200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-19657200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-12120600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-11165500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-9183000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-17846000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-8493800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-7082300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-7014600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-16897700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-6297800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-6228600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-6720600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-9875000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-3600000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6000,76 +6464,84 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2628600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-3226600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-2455300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2317200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1943400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-2164400</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1815300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2048300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-2544700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1909100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-2253500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1808700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-1068100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-552900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-661900</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6136,8 +6608,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6204,8 +6682,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6272,208 +6756,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-6048400</v>
+        <v>-819000</v>
       </c>
       <c r="E100" s="3">
-        <v>-6643700</v>
+        <v>-9589900</v>
       </c>
       <c r="F100" s="3">
-        <v>5925300</v>
+        <v>-5649600</v>
       </c>
       <c r="G100" s="3">
-        <v>-16439100</v>
+        <v>-6205800</v>
       </c>
       <c r="H100" s="3">
-        <v>-4705300</v>
+        <v>5534700</v>
       </c>
       <c r="I100" s="3">
+        <v>-15355400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-4395200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3706100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>9169200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2837700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1437800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-4422200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4427400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-7642200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3462200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-6233700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1154900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-7396600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-781200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1573600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-4306700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-4349800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-5225900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>11700</v>
+        <v>-53500</v>
       </c>
       <c r="E101" s="3">
-        <v>-194700</v>
+        <v>-216200</v>
       </c>
       <c r="F101" s="3">
-        <v>50300</v>
+        <v>10900</v>
       </c>
       <c r="G101" s="3">
-        <v>-539700</v>
+        <v>-181800</v>
       </c>
       <c r="H101" s="3">
-        <v>-400600</v>
+        <v>47000</v>
       </c>
       <c r="I101" s="3">
+        <v>-504100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-374100</v>
+      </c>
+      <c r="K101" s="3">
         <v>19100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>137600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-264900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>188700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-157200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-107900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>403900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>376900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-297100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-153900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-170700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-156300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-44200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>223100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>2869000</v>
+        <v>4971800</v>
       </c>
       <c r="E102" s="3">
-        <v>6719900</v>
+        <v>-5274200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1078000</v>
+        <v>2679900</v>
       </c>
       <c r="G102" s="3">
-        <v>6800700</v>
+        <v>6276900</v>
       </c>
       <c r="H102" s="3">
-        <v>-2336700</v>
+        <v>-1006900</v>
       </c>
       <c r="I102" s="3">
+        <v>6352400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-2182700</v>
+      </c>
+      <c r="K102" s="3">
         <v>2055600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1436200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3939000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3276600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4028300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4761900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-10788900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>5797900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>400700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-6288700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>7511500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>2704000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-239400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3201800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>2708600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTR_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>114847700</v>
+        <v>113811100</v>
       </c>
       <c r="E8" s="3">
-        <v>108163400</v>
+        <v>107187200</v>
       </c>
       <c r="F8" s="3">
-        <v>100758900</v>
+        <v>99849500</v>
       </c>
       <c r="G8" s="3">
-        <v>94996800</v>
+        <v>94139400</v>
       </c>
       <c r="H8" s="3">
-        <v>81331400</v>
+        <v>80597300</v>
       </c>
       <c r="I8" s="3">
-        <v>74809700</v>
+        <v>74134500</v>
       </c>
       <c r="J8" s="3">
-        <v>73256300</v>
+        <v>72595200</v>
       </c>
       <c r="K8" s="3">
         <v>66250800</v>
@@ -829,25 +829,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>81207000</v>
+        <v>80474100</v>
       </c>
       <c r="E9" s="3">
-        <v>70654300</v>
+        <v>70016600</v>
       </c>
       <c r="F9" s="3">
-        <v>70971500</v>
+        <v>70331000</v>
       </c>
       <c r="G9" s="3">
-        <v>67860800</v>
+        <v>67248300</v>
       </c>
       <c r="H9" s="3">
-        <v>51343500</v>
+        <v>50880100</v>
       </c>
       <c r="I9" s="3">
-        <v>46985100</v>
+        <v>46561100</v>
       </c>
       <c r="J9" s="3">
-        <v>47415000</v>
+        <v>46987100</v>
       </c>
       <c r="K9" s="3">
         <v>43005800</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33640700</v>
+        <v>33337000</v>
       </c>
       <c r="E10" s="3">
-        <v>37509200</v>
+        <v>37170600</v>
       </c>
       <c r="F10" s="3">
-        <v>29787400</v>
+        <v>29518500</v>
       </c>
       <c r="G10" s="3">
-        <v>27136000</v>
+        <v>26891100</v>
       </c>
       <c r="H10" s="3">
-        <v>29987900</v>
+        <v>29717300</v>
       </c>
       <c r="I10" s="3">
-        <v>27824500</v>
+        <v>27573400</v>
       </c>
       <c r="J10" s="3">
-        <v>25841300</v>
+        <v>25608100</v>
       </c>
       <c r="K10" s="3">
         <v>23245000</v>
@@ -1005,25 +1005,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>673300</v>
+        <v>667200</v>
       </c>
       <c r="E12" s="3">
-        <v>1530500</v>
+        <v>1516700</v>
       </c>
       <c r="F12" s="3">
-        <v>401000</v>
+        <v>397300</v>
       </c>
       <c r="G12" s="3">
-        <v>601800</v>
+        <v>596400</v>
       </c>
       <c r="H12" s="3">
-        <v>1039900</v>
+        <v>1030500</v>
       </c>
       <c r="I12" s="3">
-        <v>639500</v>
+        <v>633800</v>
       </c>
       <c r="J12" s="3">
-        <v>651900</v>
+        <v>646000</v>
       </c>
       <c r="K12" s="3">
         <v>477400</v>
@@ -1227,25 +1227,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>7647800</v>
+        <v>7578800</v>
       </c>
       <c r="E15" s="3">
-        <v>11117300</v>
+        <v>11016900</v>
       </c>
       <c r="F15" s="3">
-        <v>6995300</v>
+        <v>6932200</v>
       </c>
       <c r="G15" s="3">
-        <v>7745100</v>
+        <v>7675200</v>
       </c>
       <c r="H15" s="3">
-        <v>8222100</v>
+        <v>8147900</v>
       </c>
       <c r="I15" s="3">
-        <v>7144900</v>
+        <v>7080400</v>
       </c>
       <c r="J15" s="3">
-        <v>7515500</v>
+        <v>7447700</v>
       </c>
       <c r="K15" s="3">
         <v>8923400</v>
@@ -1326,25 +1326,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>106409500</v>
+        <v>105449100</v>
       </c>
       <c r="E17" s="3">
-        <v>102801000</v>
+        <v>101873200</v>
       </c>
       <c r="F17" s="3">
-        <v>95409700</v>
+        <v>94548600</v>
       </c>
       <c r="G17" s="3">
-        <v>88559700</v>
+        <v>87760400</v>
       </c>
       <c r="H17" s="3">
-        <v>74732600</v>
+        <v>74058100</v>
       </c>
       <c r="I17" s="3">
-        <v>72502600</v>
+        <v>71848200</v>
       </c>
       <c r="J17" s="3">
-        <v>63482800</v>
+        <v>62909900</v>
       </c>
       <c r="K17" s="3">
         <v>66671100</v>
@@ -1400,25 +1400,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>8438100</v>
+        <v>8362000</v>
       </c>
       <c r="E18" s="3">
-        <v>5362400</v>
+        <v>5314000</v>
       </c>
       <c r="F18" s="3">
-        <v>5349200</v>
+        <v>5300900</v>
       </c>
       <c r="G18" s="3">
-        <v>6437100</v>
+        <v>6379000</v>
       </c>
       <c r="H18" s="3">
-        <v>6598800</v>
+        <v>6539200</v>
       </c>
       <c r="I18" s="3">
-        <v>2307100</v>
+        <v>2286200</v>
       </c>
       <c r="J18" s="3">
-        <v>9773500</v>
+        <v>9685300</v>
       </c>
       <c r="K18" s="3">
         <v>-420300</v>
@@ -1502,25 +1502,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>643500</v>
+        <v>637700</v>
       </c>
       <c r="E20" s="3">
-        <v>519100</v>
+        <v>514500</v>
       </c>
       <c r="F20" s="3">
-        <v>665900</v>
+        <v>659900</v>
       </c>
       <c r="G20" s="3">
-        <v>705600</v>
+        <v>699200</v>
       </c>
       <c r="H20" s="3">
-        <v>583400</v>
+        <v>578100</v>
       </c>
       <c r="I20" s="3">
-        <v>462100</v>
+        <v>458000</v>
       </c>
       <c r="J20" s="3">
-        <v>164900</v>
+        <v>163400</v>
       </c>
       <c r="K20" s="3">
         <v>295200</v>
@@ -1576,25 +1576,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>16729500</v>
+        <v>16578500</v>
       </c>
       <c r="E21" s="3">
-        <v>16998900</v>
+        <v>16845400</v>
       </c>
       <c r="F21" s="3">
-        <v>13010400</v>
+        <v>12893000</v>
       </c>
       <c r="G21" s="3">
-        <v>14887800</v>
+        <v>14753400</v>
       </c>
       <c r="H21" s="3">
-        <v>15404300</v>
+        <v>15265200</v>
       </c>
       <c r="I21" s="3">
-        <v>9914100</v>
+        <v>9824600</v>
       </c>
       <c r="J21" s="3">
-        <v>17453900</v>
+        <v>17296400</v>
       </c>
       <c r="K21" s="3">
         <v>8798300</v>
@@ -1650,25 +1650,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>716000</v>
+        <v>709600</v>
       </c>
       <c r="E22" s="3">
-        <v>724300</v>
+        <v>717700</v>
       </c>
       <c r="F22" s="3">
-        <v>682300</v>
+        <v>676100</v>
       </c>
       <c r="G22" s="3">
-        <v>724600</v>
+        <v>718000</v>
       </c>
       <c r="H22" s="3">
-        <v>777600</v>
+        <v>770600</v>
       </c>
       <c r="I22" s="3">
-        <v>836300</v>
+        <v>828700</v>
       </c>
       <c r="J22" s="3">
-        <v>879300</v>
+        <v>871400</v>
       </c>
       <c r="K22" s="3">
         <v>1113200</v>
@@ -1724,25 +1724,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>8365600</v>
+        <v>8290100</v>
       </c>
       <c r="E23" s="3">
-        <v>5157300</v>
+        <v>5110800</v>
       </c>
       <c r="F23" s="3">
-        <v>5332800</v>
+        <v>5284700</v>
       </c>
       <c r="G23" s="3">
-        <v>6418100</v>
+        <v>6360200</v>
       </c>
       <c r="H23" s="3">
-        <v>6404600</v>
+        <v>6346800</v>
       </c>
       <c r="I23" s="3">
-        <v>1932900</v>
+        <v>1915500</v>
       </c>
       <c r="J23" s="3">
-        <v>9059100</v>
+        <v>8977300</v>
       </c>
       <c r="K23" s="3">
         <v>-1238300</v>
@@ -1798,25 +1798,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1935400</v>
+        <v>1918000</v>
       </c>
       <c r="E24" s="3">
-        <v>1968900</v>
+        <v>1951100</v>
       </c>
       <c r="F24" s="3">
-        <v>1613100</v>
+        <v>1598600</v>
       </c>
       <c r="G24" s="3">
-        <v>1087800</v>
+        <v>1078000</v>
       </c>
       <c r="H24" s="3">
-        <v>1741400</v>
+        <v>1725600</v>
       </c>
       <c r="I24" s="3">
-        <v>45700</v>
+        <v>45300</v>
       </c>
       <c r="J24" s="3">
-        <v>2575000</v>
+        <v>2551700</v>
       </c>
       <c r="K24" s="3">
         <v>335400</v>
@@ -1946,25 +1946,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6430200</v>
+        <v>6372200</v>
       </c>
       <c r="E26" s="3">
-        <v>3188400</v>
+        <v>3159700</v>
       </c>
       <c r="F26" s="3">
-        <v>3719700</v>
+        <v>3686100</v>
       </c>
       <c r="G26" s="3">
-        <v>5330300</v>
+        <v>5282200</v>
       </c>
       <c r="H26" s="3">
-        <v>4663200</v>
+        <v>4621100</v>
       </c>
       <c r="I26" s="3">
-        <v>1887200</v>
+        <v>1870200</v>
       </c>
       <c r="J26" s="3">
-        <v>6484100</v>
+        <v>6425600</v>
       </c>
       <c r="K26" s="3">
         <v>-1573700</v>
@@ -2020,25 +2020,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5755900</v>
+        <v>5703900</v>
       </c>
       <c r="E27" s="3">
-        <v>2511600</v>
+        <v>2488900</v>
       </c>
       <c r="F27" s="3">
-        <v>3255000</v>
+        <v>3225700</v>
       </c>
       <c r="G27" s="3">
-        <v>3730600</v>
+        <v>3696900</v>
       </c>
       <c r="H27" s="3">
-        <v>4085000</v>
+        <v>4048100</v>
       </c>
       <c r="I27" s="3">
-        <v>1317300</v>
+        <v>1305400</v>
       </c>
       <c r="J27" s="3">
-        <v>5901800</v>
+        <v>5848500</v>
       </c>
       <c r="K27" s="3">
         <v>-2169700</v>
@@ -2390,25 +2390,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-643500</v>
+        <v>-637700</v>
       </c>
       <c r="E32" s="3">
-        <v>-519100</v>
+        <v>-514500</v>
       </c>
       <c r="F32" s="3">
-        <v>-665900</v>
+        <v>-659900</v>
       </c>
       <c r="G32" s="3">
-        <v>-705600</v>
+        <v>-699200</v>
       </c>
       <c r="H32" s="3">
-        <v>-583400</v>
+        <v>-578100</v>
       </c>
       <c r="I32" s="3">
-        <v>-462100</v>
+        <v>-458000</v>
       </c>
       <c r="J32" s="3">
-        <v>-164900</v>
+        <v>-163400</v>
       </c>
       <c r="K32" s="3">
         <v>-295200</v>
@@ -2464,25 +2464,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5755900</v>
+        <v>5703900</v>
       </c>
       <c r="E33" s="3">
-        <v>2511600</v>
+        <v>2488900</v>
       </c>
       <c r="F33" s="3">
-        <v>3255000</v>
+        <v>3225700</v>
       </c>
       <c r="G33" s="3">
-        <v>3730600</v>
+        <v>3696900</v>
       </c>
       <c r="H33" s="3">
-        <v>4085000</v>
+        <v>4048100</v>
       </c>
       <c r="I33" s="3">
-        <v>1317300</v>
+        <v>1305400</v>
       </c>
       <c r="J33" s="3">
-        <v>5901800</v>
+        <v>5848500</v>
       </c>
       <c r="K33" s="3">
         <v>-2169700</v>
@@ -2612,25 +2612,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5755900</v>
+        <v>5703900</v>
       </c>
       <c r="E35" s="3">
-        <v>2511600</v>
+        <v>2488900</v>
       </c>
       <c r="F35" s="3">
-        <v>3255000</v>
+        <v>3225700</v>
       </c>
       <c r="G35" s="3">
-        <v>3730600</v>
+        <v>3696900</v>
       </c>
       <c r="H35" s="3">
-        <v>4085000</v>
+        <v>4048100</v>
       </c>
       <c r="I35" s="3">
-        <v>1317300</v>
+        <v>1305400</v>
       </c>
       <c r="J35" s="3">
-        <v>5901800</v>
+        <v>5848500</v>
       </c>
       <c r="K35" s="3">
         <v>-2169700</v>
@@ -2821,25 +2821,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>25129000</v>
+        <v>24902200</v>
       </c>
       <c r="E41" s="3">
-        <v>20157200</v>
+        <v>19975300</v>
       </c>
       <c r="F41" s="3">
-        <v>25431400</v>
+        <v>25201900</v>
       </c>
       <c r="G41" s="3">
-        <v>22751500</v>
+        <v>22546200</v>
       </c>
       <c r="H41" s="3">
-        <v>16474600</v>
+        <v>16325900</v>
       </c>
       <c r="I41" s="3">
-        <v>17481500</v>
+        <v>17323700</v>
       </c>
       <c r="J41" s="3">
-        <v>11129100</v>
+        <v>11028600</v>
       </c>
       <c r="K41" s="3">
         <v>14251200</v>
@@ -2895,25 +2895,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2930800</v>
+        <v>2904400</v>
       </c>
       <c r="E42" s="3">
-        <v>3941400</v>
+        <v>3905900</v>
       </c>
       <c r="F42" s="3">
-        <v>4778300</v>
+        <v>4735200</v>
       </c>
       <c r="G42" s="3">
-        <v>4957000</v>
+        <v>4912300</v>
       </c>
       <c r="H42" s="3">
-        <v>5066400</v>
+        <v>5020700</v>
       </c>
       <c r="I42" s="3">
-        <v>4025700</v>
+        <v>3989400</v>
       </c>
       <c r="J42" s="3">
-        <v>4536900</v>
+        <v>4496000</v>
       </c>
       <c r="K42" s="3">
         <v>3693800</v>
@@ -2969,25 +2969,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>14662200</v>
+        <v>14529800</v>
       </c>
       <c r="E43" s="3">
-        <v>8935000</v>
+        <v>8854400</v>
       </c>
       <c r="F43" s="3">
-        <v>13482900</v>
+        <v>13361200</v>
       </c>
       <c r="G43" s="3">
-        <v>11640000</v>
+        <v>11534900</v>
       </c>
       <c r="H43" s="3">
-        <v>13048700</v>
+        <v>12931000</v>
       </c>
       <c r="I43" s="3">
-        <v>8900700</v>
+        <v>8820400</v>
       </c>
       <c r="J43" s="3">
-        <v>24587600</v>
+        <v>24365700</v>
       </c>
       <c r="K43" s="3">
         <v>10730500</v>
@@ -3043,25 +3043,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>25655100</v>
+        <v>25423500</v>
       </c>
       <c r="E44" s="3">
-        <v>21197400</v>
+        <v>21006100</v>
       </c>
       <c r="F44" s="3">
-        <v>21802900</v>
+        <v>21606200</v>
       </c>
       <c r="G44" s="3">
-        <v>24839300</v>
+        <v>24615100</v>
       </c>
       <c r="H44" s="3">
-        <v>24138500</v>
+        <v>23920600</v>
       </c>
       <c r="I44" s="3">
-        <v>18941500</v>
+        <v>18770600</v>
       </c>
       <c r="J44" s="3">
-        <v>23451500</v>
+        <v>23239800</v>
       </c>
       <c r="K44" s="3">
         <v>27655000</v>
@@ -3117,25 +3117,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>20401300</v>
+        <v>20217100</v>
       </c>
       <c r="E45" s="3">
-        <v>16625200</v>
+        <v>16475100</v>
       </c>
       <c r="F45" s="3">
-        <v>15249300</v>
+        <v>15111600</v>
       </c>
       <c r="G45" s="3">
-        <v>16430600</v>
+        <v>16282300</v>
       </c>
       <c r="H45" s="3">
-        <v>21956800</v>
+        <v>21758600</v>
       </c>
       <c r="I45" s="3">
-        <v>22380600</v>
+        <v>22178600</v>
       </c>
       <c r="J45" s="3">
-        <v>17620100</v>
+        <v>17461100</v>
       </c>
       <c r="K45" s="3">
         <v>18152200</v>
@@ -3191,25 +3191,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>88778400</v>
+        <v>87977100</v>
       </c>
       <c r="E46" s="3">
-        <v>70856300</v>
+        <v>70216800</v>
       </c>
       <c r="F46" s="3">
-        <v>80744700</v>
+        <v>80016000</v>
       </c>
       <c r="G46" s="3">
-        <v>80618400</v>
+        <v>79890800</v>
       </c>
       <c r="H46" s="3">
-        <v>80684900</v>
+        <v>79956700</v>
       </c>
       <c r="I46" s="3">
-        <v>71730000</v>
+        <v>71082600</v>
       </c>
       <c r="J46" s="3">
-        <v>81325200</v>
+        <v>80591200</v>
       </c>
       <c r="K46" s="3">
         <v>74482800</v>
@@ -3265,25 +3265,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>41551500</v>
+        <v>41176500</v>
       </c>
       <c r="E47" s="3">
-        <v>40526500</v>
+        <v>40160700</v>
       </c>
       <c r="F47" s="3">
-        <v>40376100</v>
+        <v>40011600</v>
       </c>
       <c r="G47" s="3">
-        <v>39560000</v>
+        <v>39202900</v>
       </c>
       <c r="H47" s="3">
-        <v>38902300</v>
+        <v>38551200</v>
       </c>
       <c r="I47" s="3">
-        <v>38405600</v>
+        <v>38058900</v>
       </c>
       <c r="J47" s="3">
-        <v>38086100</v>
+        <v>37742300</v>
       </c>
       <c r="K47" s="3">
         <v>17095000</v>
@@ -3339,25 +3339,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>242240100</v>
+        <v>240053800</v>
       </c>
       <c r="E48" s="3">
-        <v>245782000</v>
+        <v>243563700</v>
       </c>
       <c r="F48" s="3">
-        <v>241215100</v>
+        <v>239038000</v>
       </c>
       <c r="G48" s="3">
-        <v>239877000</v>
+        <v>237712000</v>
       </c>
       <c r="H48" s="3">
-        <v>240501800</v>
+        <v>238331200</v>
       </c>
       <c r="I48" s="3">
-        <v>244894200</v>
+        <v>242683900</v>
       </c>
       <c r="J48" s="3">
-        <v>246584400</v>
+        <v>244358900</v>
       </c>
       <c r="K48" s="3">
         <v>309674700</v>
@@ -3413,25 +3413,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>10412000</v>
+        <v>10318000</v>
       </c>
       <c r="E49" s="3">
-        <v>9776500</v>
+        <v>9688200</v>
       </c>
       <c r="F49" s="3">
-        <v>11288700</v>
+        <v>11186800</v>
       </c>
       <c r="G49" s="3">
-        <v>11034200</v>
+        <v>10934600</v>
       </c>
       <c r="H49" s="3">
-        <v>10647800</v>
+        <v>10551700</v>
       </c>
       <c r="I49" s="3">
-        <v>9945900</v>
+        <v>9856100</v>
       </c>
       <c r="J49" s="3">
-        <v>10698500</v>
+        <v>10601900</v>
       </c>
       <c r="K49" s="3">
         <v>16489100</v>
@@ -3635,25 +3635,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1745800</v>
+        <v>1730000</v>
       </c>
       <c r="E52" s="3">
-        <v>1792000</v>
+        <v>1775900</v>
       </c>
       <c r="F52" s="3">
-        <v>1798700</v>
+        <v>1782400</v>
       </c>
       <c r="G52" s="3">
-        <v>2003900</v>
+        <v>1985900</v>
       </c>
       <c r="H52" s="3">
-        <v>1753000</v>
+        <v>1737200</v>
       </c>
       <c r="I52" s="3">
-        <v>1674600</v>
+        <v>1659500</v>
       </c>
       <c r="J52" s="3">
-        <v>1526500</v>
+        <v>1512700</v>
       </c>
       <c r="K52" s="3">
         <v>4636700</v>
@@ -3783,25 +3783,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>384727800</v>
+        <v>381255400</v>
       </c>
       <c r="E54" s="3">
-        <v>368733300</v>
+        <v>365405300</v>
       </c>
       <c r="F54" s="3">
-        <v>375423200</v>
+        <v>372034800</v>
       </c>
       <c r="G54" s="3">
-        <v>373093600</v>
+        <v>369726200</v>
       </c>
       <c r="H54" s="3">
-        <v>372489800</v>
+        <v>369127900</v>
       </c>
       <c r="I54" s="3">
-        <v>366650200</v>
+        <v>363341000</v>
       </c>
       <c r="J54" s="3">
-        <v>378220700</v>
+        <v>374807000</v>
       </c>
       <c r="K54" s="3">
         <v>422378300</v>
@@ -3913,25 +3913,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>56612900</v>
+        <v>56102000</v>
       </c>
       <c r="E57" s="3">
-        <v>44650400</v>
+        <v>44247400</v>
       </c>
       <c r="F57" s="3">
-        <v>54508900</v>
+        <v>54016900</v>
       </c>
       <c r="G57" s="3">
-        <v>51287300</v>
+        <v>50824400</v>
       </c>
       <c r="H57" s="3">
-        <v>42434700</v>
+        <v>42051700</v>
       </c>
       <c r="I57" s="3">
-        <v>46586400</v>
+        <v>46165900</v>
       </c>
       <c r="J57" s="3">
-        <v>46391900</v>
+        <v>45973200</v>
       </c>
       <c r="K57" s="3">
         <v>48556300</v>
@@ -3987,25 +3987,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>11533100</v>
+        <v>11429000</v>
       </c>
       <c r="E58" s="3">
-        <v>8827000</v>
+        <v>8747300</v>
       </c>
       <c r="F58" s="3">
-        <v>15405900</v>
+        <v>15266900</v>
       </c>
       <c r="G58" s="3">
-        <v>17837200</v>
+        <v>17676200</v>
       </c>
       <c r="H58" s="3">
-        <v>19294000</v>
+        <v>19119900</v>
       </c>
       <c r="I58" s="3">
-        <v>18290500</v>
+        <v>18125400</v>
       </c>
       <c r="J58" s="3">
-        <v>33934500</v>
+        <v>33628200</v>
       </c>
       <c r="K58" s="3">
         <v>34658500</v>
@@ -4061,25 +4061,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>20796000</v>
+        <v>20608300</v>
       </c>
       <c r="E59" s="3">
-        <v>22878400</v>
+        <v>22671900</v>
       </c>
       <c r="F59" s="3">
-        <v>19891200</v>
+        <v>19711700</v>
       </c>
       <c r="G59" s="3">
-        <v>19680700</v>
+        <v>19503000</v>
       </c>
       <c r="H59" s="3">
-        <v>22424500</v>
+        <v>22222100</v>
       </c>
       <c r="I59" s="3">
-        <v>24337500</v>
+        <v>24117900</v>
       </c>
       <c r="J59" s="3">
-        <v>20169200</v>
+        <v>19987100</v>
       </c>
       <c r="K59" s="3">
         <v>21557300</v>
@@ -4135,25 +4135,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>88942100</v>
+        <v>88139300</v>
       </c>
       <c r="E60" s="3">
-        <v>76355800</v>
+        <v>75666600</v>
       </c>
       <c r="F60" s="3">
-        <v>89806000</v>
+        <v>88995500</v>
       </c>
       <c r="G60" s="3">
-        <v>88805200</v>
+        <v>88003700</v>
       </c>
       <c r="H60" s="3">
-        <v>84153200</v>
+        <v>83393600</v>
       </c>
       <c r="I60" s="3">
-        <v>89214400</v>
+        <v>88409200</v>
       </c>
       <c r="J60" s="3">
-        <v>100495500</v>
+        <v>99588500</v>
       </c>
       <c r="K60" s="3">
         <v>104772000</v>
@@ -4209,25 +4209,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>58009300</v>
+        <v>57485700</v>
       </c>
       <c r="E61" s="3">
-        <v>60476100</v>
+        <v>59930300</v>
       </c>
       <c r="F61" s="3">
-        <v>59306800</v>
+        <v>58771500</v>
       </c>
       <c r="G61" s="3">
-        <v>57782700</v>
+        <v>57261100</v>
       </c>
       <c r="H61" s="3">
-        <v>61393900</v>
+        <v>60839700</v>
       </c>
       <c r="I61" s="3">
-        <v>55116000</v>
+        <v>54618600</v>
       </c>
       <c r="J61" s="3">
-        <v>53309700</v>
+        <v>52828500</v>
       </c>
       <c r="K61" s="3">
         <v>70105400</v>
@@ -4283,25 +4283,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>23763100</v>
+        <v>23548700</v>
       </c>
       <c r="E62" s="3">
-        <v>24290500</v>
+        <v>24071300</v>
       </c>
       <c r="F62" s="3">
-        <v>21695800</v>
+        <v>21500000</v>
       </c>
       <c r="G62" s="3">
-        <v>21284500</v>
+        <v>21092400</v>
       </c>
       <c r="H62" s="3">
-        <v>21205400</v>
+        <v>21014000</v>
       </c>
       <c r="I62" s="3">
-        <v>20934600</v>
+        <v>20745600</v>
       </c>
       <c r="J62" s="3">
-        <v>23860700</v>
+        <v>23645300</v>
       </c>
       <c r="K62" s="3">
         <v>26574500</v>
@@ -4579,25 +4579,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>192600000</v>
+        <v>190861600</v>
       </c>
       <c r="E66" s="3">
-        <v>182535000</v>
+        <v>180887500</v>
       </c>
       <c r="F66" s="3">
-        <v>191868300</v>
+        <v>190136600</v>
       </c>
       <c r="G66" s="3">
-        <v>188677700</v>
+        <v>186974800</v>
       </c>
       <c r="H66" s="3">
-        <v>189503300</v>
+        <v>187793000</v>
       </c>
       <c r="I66" s="3">
-        <v>187584600</v>
+        <v>185891500</v>
       </c>
       <c r="J66" s="3">
-        <v>199872800</v>
+        <v>198068800</v>
       </c>
       <c r="K66" s="3">
         <v>234841500</v>
@@ -4977,25 +4977,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>165157800</v>
+        <v>163667200</v>
       </c>
       <c r="E72" s="3">
-        <v>159228400</v>
+        <v>157791300</v>
       </c>
       <c r="F72" s="3">
-        <v>156584900</v>
+        <v>155171600</v>
       </c>
       <c r="G72" s="3">
-        <v>157445900</v>
+        <v>156024900</v>
       </c>
       <c r="H72" s="3">
-        <v>156016500</v>
+        <v>154608400</v>
       </c>
       <c r="I72" s="3">
-        <v>152095700</v>
+        <v>150723000</v>
       </c>
       <c r="J72" s="3">
-        <v>151377900</v>
+        <v>150011700</v>
       </c>
       <c r="K72" s="3">
         <v>158663300</v>
@@ -5273,25 +5273,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>192127800</v>
+        <v>190393800</v>
       </c>
       <c r="E76" s="3">
-        <v>186198300</v>
+        <v>184517800</v>
       </c>
       <c r="F76" s="3">
-        <v>183554900</v>
+        <v>181898200</v>
       </c>
       <c r="G76" s="3">
-        <v>184415900</v>
+        <v>182751400</v>
       </c>
       <c r="H76" s="3">
-        <v>182986500</v>
+        <v>181334900</v>
       </c>
       <c r="I76" s="3">
-        <v>179065700</v>
+        <v>177449500</v>
       </c>
       <c r="J76" s="3">
-        <v>178347900</v>
+        <v>176738200</v>
       </c>
       <c r="K76" s="3">
         <v>187536700</v>
@@ -5500,25 +5500,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5755900</v>
+        <v>5703900</v>
       </c>
       <c r="E81" s="3">
-        <v>2511600</v>
+        <v>2488900</v>
       </c>
       <c r="F81" s="3">
-        <v>3255000</v>
+        <v>3225700</v>
       </c>
       <c r="G81" s="3">
-        <v>3730600</v>
+        <v>3696900</v>
       </c>
       <c r="H81" s="3">
-        <v>4085000</v>
+        <v>4048100</v>
       </c>
       <c r="I81" s="3">
-        <v>1317300</v>
+        <v>1305400</v>
       </c>
       <c r="J81" s="3">
-        <v>5901800</v>
+        <v>5848500</v>
       </c>
       <c r="K81" s="3">
         <v>-2169700</v>
@@ -5602,25 +5602,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>7647800</v>
+        <v>7578800</v>
       </c>
       <c r="E83" s="3">
-        <v>11117300</v>
+        <v>11016900</v>
       </c>
       <c r="F83" s="3">
-        <v>6995300</v>
+        <v>6932200</v>
       </c>
       <c r="G83" s="3">
-        <v>7745100</v>
+        <v>7675200</v>
       </c>
       <c r="H83" s="3">
-        <v>8222100</v>
+        <v>8147900</v>
       </c>
       <c r="I83" s="3">
-        <v>7144900</v>
+        <v>7080400</v>
       </c>
       <c r="J83" s="3">
-        <v>7515500</v>
+        <v>7447700</v>
       </c>
       <c r="K83" s="3">
         <v>8923400</v>
@@ -6046,25 +6046,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>12440900</v>
+        <v>12328600</v>
       </c>
       <c r="E89" s="3">
-        <v>16905400</v>
+        <v>16752900</v>
       </c>
       <c r="F89" s="3">
-        <v>16314700</v>
+        <v>16167400</v>
       </c>
       <c r="G89" s="3">
-        <v>17364000</v>
+        <v>17207300</v>
       </c>
       <c r="H89" s="3">
-        <v>-265200</v>
+        <v>-262900</v>
       </c>
       <c r="I89" s="3">
-        <v>22880900</v>
+        <v>22674400</v>
       </c>
       <c r="J89" s="3">
-        <v>12411100</v>
+        <v>12299100</v>
       </c>
       <c r="K89" s="3">
         <v>15330500</v>
@@ -6148,25 +6148,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-7635000</v>
+        <v>-7566100</v>
       </c>
       <c r="E91" s="3">
-        <v>-13592300</v>
+        <v>-13469700</v>
       </c>
       <c r="F91" s="3">
-        <v>-8548200</v>
+        <v>-8471100</v>
       </c>
       <c r="G91" s="3">
-        <v>-10963900</v>
+        <v>-10864900</v>
       </c>
       <c r="H91" s="3">
-        <v>-5447500</v>
+        <v>-5398300</v>
       </c>
       <c r="I91" s="3">
-        <v>-12902800</v>
+        <v>-12786400</v>
       </c>
       <c r="J91" s="3">
-        <v>-8166400</v>
+        <v>-8092700</v>
       </c>
       <c r="K91" s="3">
         <v>-8911100</v>
@@ -6370,25 +6370,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-6596600</v>
+        <v>-6537000</v>
       </c>
       <c r="E94" s="3">
-        <v>-12373500</v>
+        <v>-12261800</v>
       </c>
       <c r="F94" s="3">
-        <v>-7996000</v>
+        <v>-7923900</v>
       </c>
       <c r="G94" s="3">
-        <v>-4699500</v>
+        <v>-4657000</v>
       </c>
       <c r="H94" s="3">
-        <v>-6323400</v>
+        <v>-6266300</v>
       </c>
       <c r="I94" s="3">
-        <v>-669000</v>
+        <v>-663000</v>
       </c>
       <c r="J94" s="3">
-        <v>-9824500</v>
+        <v>-9735800</v>
       </c>
       <c r="K94" s="3">
         <v>-9587900</v>
@@ -6475,10 +6475,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3226600</v>
+        <v>-3197500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2455300</v>
+        <v>-2433200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6487,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-2164400</v>
+        <v>-2144900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1815300</v>
+        <v>-1798900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6768,25 +6768,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-819000</v>
+        <v>-811600</v>
       </c>
       <c r="E100" s="3">
-        <v>-9589900</v>
+        <v>-9503300</v>
       </c>
       <c r="F100" s="3">
-        <v>-5649600</v>
+        <v>-5598600</v>
       </c>
       <c r="G100" s="3">
-        <v>-6205800</v>
+        <v>-6149800</v>
       </c>
       <c r="H100" s="3">
-        <v>5534700</v>
+        <v>5484700</v>
       </c>
       <c r="I100" s="3">
-        <v>-15355400</v>
+        <v>-15216800</v>
       </c>
       <c r="J100" s="3">
-        <v>-4395200</v>
+        <v>-4355500</v>
       </c>
       <c r="K100" s="3">
         <v>-3706100</v>
@@ -6842,25 +6842,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-53500</v>
+        <v>-53000</v>
       </c>
       <c r="E101" s="3">
-        <v>-216200</v>
+        <v>-214200</v>
       </c>
       <c r="F101" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="G101" s="3">
-        <v>-181800</v>
+        <v>-180200</v>
       </c>
       <c r="H101" s="3">
-        <v>47000</v>
+        <v>46600</v>
       </c>
       <c r="I101" s="3">
-        <v>-504100</v>
+        <v>-499600</v>
       </c>
       <c r="J101" s="3">
-        <v>-374100</v>
+        <v>-370800</v>
       </c>
       <c r="K101" s="3">
         <v>19100</v>
@@ -6916,25 +6916,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>4971800</v>
+        <v>4926900</v>
       </c>
       <c r="E102" s="3">
-        <v>-5274200</v>
+        <v>-5226600</v>
       </c>
       <c r="F102" s="3">
-        <v>2679900</v>
+        <v>2655700</v>
       </c>
       <c r="G102" s="3">
-        <v>6276900</v>
+        <v>6220300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1006900</v>
+        <v>-997800</v>
       </c>
       <c r="I102" s="3">
-        <v>6352400</v>
+        <v>6295100</v>
       </c>
       <c r="J102" s="3">
-        <v>-2182700</v>
+        <v>-2163000</v>
       </c>
       <c r="K102" s="3">
         <v>2055600</v>
